--- a/data/monetary.xlsx
+++ b/data/monetary.xlsx
@@ -486,22 +486,22 @@
         <v>45443</v>
       </c>
       <c r="B2" t="n">
-        <v>93830800</v>
+        <v>67873500</v>
       </c>
       <c r="C2" t="n">
-        <v>28149200</v>
+        <v>20362000</v>
       </c>
       <c r="D2" t="n">
-        <v>28149200</v>
+        <v>20362000</v>
       </c>
       <c r="E2" t="n">
-        <v>37532300</v>
+        <v>27149400</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H2" t="n">
         <v>40</v>
@@ -512,22 +512,22 @@
         <v>45473</v>
       </c>
       <c r="B3" t="n">
-        <v>89348900</v>
+        <v>64216300</v>
       </c>
       <c r="C3" t="n">
-        <v>26804700</v>
+        <v>19264800</v>
       </c>
       <c r="D3" t="n">
-        <v>26804700</v>
+        <v>19264800</v>
       </c>
       <c r="E3" t="n">
-        <v>35739600</v>
+        <v>25686500</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H3" t="n">
         <v>40</v>
@@ -538,22 +538,22 @@
         <v>45504</v>
       </c>
       <c r="B4" t="n">
-        <v>87583800</v>
+        <v>61148800</v>
       </c>
       <c r="C4" t="n">
-        <v>26275100</v>
+        <v>18344600</v>
       </c>
       <c r="D4" t="n">
-        <v>26275100</v>
+        <v>18344600</v>
       </c>
       <c r="E4" t="n">
-        <v>35033500</v>
+        <v>24459500</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H4" t="n">
         <v>40</v>
@@ -564,16 +564,16 @@
         <v>45535</v>
       </c>
       <c r="B5" t="n">
-        <v>86982000</v>
+        <v>59940700</v>
       </c>
       <c r="C5" t="n">
-        <v>26094600</v>
+        <v>17982200</v>
       </c>
       <c r="D5" t="n">
-        <v>26094600</v>
+        <v>17982200</v>
       </c>
       <c r="E5" t="n">
-        <v>34792800</v>
+        <v>23976300</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
@@ -590,16 +590,16 @@
         <v>45565</v>
       </c>
       <c r="B6" t="n">
-        <v>85414000</v>
+        <v>60953700</v>
       </c>
       <c r="C6" t="n">
-        <v>25624200</v>
+        <v>18286100</v>
       </c>
       <c r="D6" t="n">
-        <v>25624200</v>
+        <v>18286100</v>
       </c>
       <c r="E6" t="n">
-        <v>34165600</v>
+        <v>24381500</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
@@ -616,16 +616,16 @@
         <v>45596</v>
       </c>
       <c r="B7" t="n">
-        <v>84832600</v>
+        <v>64009700</v>
       </c>
       <c r="C7" t="n">
-        <v>25449800</v>
+        <v>19202900</v>
       </c>
       <c r="D7" t="n">
-        <v>25449800</v>
+        <v>19202900</v>
       </c>
       <c r="E7" t="n">
-        <v>33933000</v>
+        <v>25603900</v>
       </c>
       <c r="F7" t="n">
         <v>30</v>
@@ -642,16 +642,16 @@
         <v>45626</v>
       </c>
       <c r="B8" t="n">
-        <v>84721200</v>
+        <v>65971300</v>
       </c>
       <c r="C8" t="n">
-        <v>25416400</v>
+        <v>19791400</v>
       </c>
       <c r="D8" t="n">
-        <v>25416400</v>
+        <v>19791400</v>
       </c>
       <c r="E8" t="n">
-        <v>33888500</v>
+        <v>26388500</v>
       </c>
       <c r="F8" t="n">
         <v>30</v>
@@ -668,16 +668,16 @@
         <v>45657</v>
       </c>
       <c r="B9" t="n">
-        <v>86859200</v>
+        <v>70546300</v>
       </c>
       <c r="C9" t="n">
-        <v>26057800</v>
+        <v>21163900</v>
       </c>
       <c r="D9" t="n">
-        <v>26057800</v>
+        <v>21163900</v>
       </c>
       <c r="E9" t="n">
-        <v>34743700</v>
+        <v>28218500</v>
       </c>
       <c r="F9" t="n">
         <v>30</v>
@@ -694,16 +694,16 @@
         <v>45688</v>
       </c>
       <c r="B10" t="n">
-        <v>87358100</v>
+        <v>72072700</v>
       </c>
       <c r="C10" t="n">
-        <v>26207400</v>
+        <v>21621800</v>
       </c>
       <c r="D10" t="n">
-        <v>26207400</v>
+        <v>21621800</v>
       </c>
       <c r="E10" t="n">
-        <v>34943200</v>
+        <v>28829100</v>
       </c>
       <c r="F10" t="n">
         <v>30</v>
@@ -720,16 +720,16 @@
         <v>45716</v>
       </c>
       <c r="B11" t="n">
-        <v>86413700</v>
+        <v>74944600</v>
       </c>
       <c r="C11" t="n">
-        <v>25924100</v>
+        <v>22483400</v>
       </c>
       <c r="D11" t="n">
-        <v>25924100</v>
+        <v>22483400</v>
       </c>
       <c r="E11" t="n">
-        <v>34565500</v>
+        <v>29977800</v>
       </c>
       <c r="F11" t="n">
         <v>30</v>
@@ -738,7 +738,7 @@
         <v>30</v>
       </c>
       <c r="H11" t="n">
-        <v>40</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="12">
@@ -746,16 +746,16 @@
         <v>45747</v>
       </c>
       <c r="B12" t="n">
-        <v>87728100</v>
+        <v>78147100</v>
       </c>
       <c r="C12" t="n">
-        <v>26318400</v>
+        <v>23444100</v>
       </c>
       <c r="D12" t="n">
-        <v>26318400</v>
+        <v>23444100</v>
       </c>
       <c r="E12" t="n">
-        <v>35091200</v>
+        <v>31258800</v>
       </c>
       <c r="F12" t="n">
         <v>30</v>
@@ -764,7 +764,7 @@
         <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>40</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="13">
@@ -772,25 +772,25 @@
         <v>45777</v>
       </c>
       <c r="B13" t="n">
-        <v>90842100</v>
+        <v>83859500</v>
       </c>
       <c r="C13" t="n">
-        <v>27252600</v>
+        <v>25157800</v>
       </c>
       <c r="D13" t="n">
-        <v>27252600</v>
+        <v>25157800</v>
       </c>
       <c r="E13" t="n">
-        <v>36336800</v>
+        <v>33543700</v>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G13" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H13" t="n">
-        <v>40</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="14">
@@ -798,25 +798,25 @@
         <v>45808</v>
       </c>
       <c r="B14" t="n">
-        <v>94723800</v>
+        <v>89226500</v>
       </c>
       <c r="C14" t="n">
-        <v>28417100</v>
+        <v>26767900</v>
       </c>
       <c r="D14" t="n">
-        <v>28417100</v>
+        <v>26767900</v>
       </c>
       <c r="E14" t="n">
-        <v>37889500</v>
+        <v>35690500</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H14" t="n">
-        <v>40</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="15">
@@ -824,25 +824,25 @@
         <v>45838</v>
       </c>
       <c r="B15" t="n">
-        <v>100502000</v>
+        <v>97957600</v>
       </c>
       <c r="C15" t="n">
-        <v>30150600</v>
+        <v>29387200</v>
       </c>
       <c r="D15" t="n">
-        <v>30150600</v>
+        <v>29387200</v>
       </c>
       <c r="E15" t="n">
-        <v>40200800</v>
+        <v>39182900</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H15" t="n">
-        <v>40</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="16">
@@ -850,25 +850,25 @@
         <v>45869</v>
       </c>
       <c r="B16" t="n">
-        <v>105738000</v>
+        <v>101996000</v>
       </c>
       <c r="C16" t="n">
-        <v>31721400</v>
+        <v>30598700</v>
       </c>
       <c r="D16" t="n">
-        <v>31721400</v>
+        <v>30598700</v>
       </c>
       <c r="E16" t="n">
-        <v>42295200</v>
+        <v>40798300</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H16" t="n">
-        <v>40</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="17">
@@ -876,25 +876,25 @@
         <v>45900</v>
       </c>
       <c r="B17" t="n">
-        <v>100895000</v>
+        <v>103134000</v>
       </c>
       <c r="C17" t="n">
-        <v>30268500</v>
+        <v>30940100</v>
       </c>
       <c r="D17" t="n">
-        <v>30268500</v>
+        <v>30940100</v>
       </c>
       <c r="E17" t="n">
-        <v>40358000</v>
+        <v>41253500</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G17" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H17" t="n">
-        <v>40</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="18">
@@ -902,25 +902,25 @@
         <v>45930</v>
       </c>
       <c r="B18" t="n">
-        <v>96273900</v>
+        <v>96768700</v>
       </c>
       <c r="C18" t="n">
-        <v>28882200</v>
+        <v>29030500</v>
       </c>
       <c r="D18" t="n">
-        <v>28882200</v>
+        <v>29030500</v>
       </c>
       <c r="E18" t="n">
-        <v>38509600</v>
+        <v>38707400</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H18" t="n">
-        <v>40</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="19">
@@ -928,25 +928,25 @@
         <v>45961</v>
       </c>
       <c r="B19" t="n">
-        <v>92422000</v>
+        <v>90796300</v>
       </c>
       <c r="C19" t="n">
-        <v>27726600</v>
+        <v>27238800</v>
       </c>
       <c r="D19" t="n">
-        <v>27726600</v>
+        <v>27238800</v>
       </c>
       <c r="E19" t="n">
-        <v>36968800</v>
+        <v>36318400</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G19" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H19" t="n">
-        <v>40</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="20">
@@ -954,22 +954,22 @@
         <v>45991</v>
       </c>
       <c r="B20" t="n">
-        <v>88724100</v>
+        <v>87163100</v>
       </c>
       <c r="C20" t="n">
-        <v>26617200</v>
+        <v>26148800</v>
       </c>
       <c r="D20" t="n">
-        <v>26617200</v>
+        <v>26148800</v>
       </c>
       <c r="E20" t="n">
-        <v>35489600</v>
+        <v>34865200</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H20" t="n">
         <v>40</v>
@@ -980,22 +980,22 @@
         <v>46022</v>
       </c>
       <c r="B21" t="n">
-        <v>86498600</v>
+        <v>83675400</v>
       </c>
       <c r="C21" t="n">
-        <v>25949600</v>
+        <v>25102500</v>
       </c>
       <c r="D21" t="n">
-        <v>25949600</v>
+        <v>25102500</v>
       </c>
       <c r="E21" t="n">
-        <v>34599400</v>
+        <v>33470200</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H21" t="n">
         <v>40</v>
@@ -1006,22 +1006,22 @@
         <v>46053</v>
       </c>
       <c r="B22" t="n">
-        <v>84329000</v>
+        <v>79844700</v>
       </c>
       <c r="C22" t="n">
-        <v>25298700</v>
+        <v>23953300</v>
       </c>
       <c r="D22" t="n">
-        <v>25298700</v>
+        <v>23953300</v>
       </c>
       <c r="E22" t="n">
-        <v>33731600</v>
+        <v>31937900</v>
       </c>
       <c r="F22" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H22" t="n">
         <v>40</v>
@@ -1032,16 +1032,16 @@
         <v>46081</v>
       </c>
       <c r="B23" t="n">
-        <v>83077500</v>
+        <v>76189500</v>
       </c>
       <c r="C23" t="n">
-        <v>24923200</v>
+        <v>22856800</v>
       </c>
       <c r="D23" t="n">
-        <v>24923200</v>
+        <v>22856800</v>
       </c>
       <c r="E23" t="n">
-        <v>33231000</v>
+        <v>30475800</v>
       </c>
       <c r="F23" t="n">
         <v>29.9999</v>
@@ -1058,16 +1058,16 @@
         <v>46112</v>
       </c>
       <c r="B24" t="n">
-        <v>81844500</v>
+        <v>75319300</v>
       </c>
       <c r="C24" t="n">
-        <v>24553300</v>
+        <v>22595700</v>
       </c>
       <c r="D24" t="n">
-        <v>24553300</v>
+        <v>22595700</v>
       </c>
       <c r="E24" t="n">
-        <v>32737800</v>
+        <v>30127700</v>
       </c>
       <c r="F24" t="n">
         <v>29.9999</v>
@@ -1084,16 +1084,16 @@
         <v>46142</v>
       </c>
       <c r="B25" t="n">
-        <v>80070700</v>
+        <v>74459000</v>
       </c>
       <c r="C25" t="n">
-        <v>24021100</v>
+        <v>22337600</v>
       </c>
       <c r="D25" t="n">
-        <v>24021100</v>
+        <v>22337600</v>
       </c>
       <c r="E25" t="n">
-        <v>32028300</v>
+        <v>29783600</v>
       </c>
       <c r="F25" t="n">
         <v>29.9999</v>
@@ -1110,16 +1110,16 @@
         <v>46173</v>
       </c>
       <c r="B26" t="n">
-        <v>78335200</v>
+        <v>72591300</v>
       </c>
       <c r="C26" t="n">
-        <v>23500500</v>
+        <v>21777300</v>
       </c>
       <c r="D26" t="n">
-        <v>23500500</v>
+        <v>21777300</v>
       </c>
       <c r="E26" t="n">
-        <v>31334100</v>
+        <v>29036500</v>
       </c>
       <c r="F26" t="n">
         <v>29.9999</v>
@@ -1136,25 +1136,25 @@
         <v>46203</v>
       </c>
       <c r="B27" t="n">
-        <v>79165000</v>
+        <v>70770400</v>
       </c>
       <c r="C27" t="n">
-        <v>23749400</v>
+        <v>21231000</v>
       </c>
       <c r="D27" t="n">
-        <v>23749400</v>
+        <v>21231000</v>
       </c>
       <c r="E27" t="n">
-        <v>31666000</v>
+        <v>28308200</v>
       </c>
       <c r="F27" t="n">
-        <v>29.9999</v>
+        <v>29.9998</v>
       </c>
       <c r="G27" t="n">
-        <v>29.9999</v>
+        <v>29.9998</v>
       </c>
       <c r="H27" t="n">
-        <v>40</v>
+        <v>40.0001</v>
       </c>
     </row>
     <row r="28">
@@ -1162,25 +1162,25 @@
         <v>46234</v>
       </c>
       <c r="B28" t="n">
-        <v>80003500</v>
+        <v>69428100</v>
       </c>
       <c r="C28" t="n">
-        <v>24001000</v>
+        <v>20828300</v>
       </c>
       <c r="D28" t="n">
-        <v>24001000</v>
+        <v>20828300</v>
       </c>
       <c r="E28" t="n">
-        <v>32001400</v>
+        <v>27771300</v>
       </c>
       <c r="F28" t="n">
-        <v>29.9999</v>
+        <v>29.9998</v>
       </c>
       <c r="G28" t="n">
-        <v>29.9999</v>
+        <v>29.9998</v>
       </c>
       <c r="H28" t="n">
-        <v>40</v>
+        <v>40.0001</v>
       </c>
     </row>
     <row r="29">
@@ -1188,16 +1188,16 @@
         <v>46265</v>
       </c>
       <c r="B29" t="n">
-        <v>79763400</v>
+        <v>68111200</v>
       </c>
       <c r="C29" t="n">
-        <v>23928900</v>
+        <v>20433200</v>
       </c>
       <c r="D29" t="n">
-        <v>23928900</v>
+        <v>20433200</v>
       </c>
       <c r="E29" t="n">
-        <v>31905400</v>
+        <v>27244500</v>
       </c>
       <c r="F29" t="n">
         <v>29.9998</v>
@@ -1206,7 +1206,7 @@
         <v>29.9998</v>
       </c>
       <c r="H29" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
@@ -1214,16 +1214,16 @@
         <v>46295</v>
       </c>
       <c r="B30" t="n">
-        <v>79524000</v>
+        <v>67642900</v>
       </c>
       <c r="C30" t="n">
-        <v>23857000</v>
+        <v>20292700</v>
       </c>
       <c r="D30" t="n">
-        <v>23857000</v>
+        <v>20292700</v>
       </c>
       <c r="E30" t="n">
-        <v>31809700</v>
+        <v>27057200</v>
       </c>
       <c r="F30" t="n">
         <v>29.9997</v>
@@ -1240,22 +1240,22 @@
         <v>46326</v>
       </c>
       <c r="B31" t="n">
-        <v>81886100</v>
+        <v>67177800</v>
       </c>
       <c r="C31" t="n">
-        <v>24565600</v>
+        <v>20153100</v>
       </c>
       <c r="D31" t="n">
-        <v>24565600</v>
+        <v>20153100</v>
       </c>
       <c r="E31" t="n">
-        <v>32754500</v>
+        <v>26871200</v>
       </c>
       <c r="F31" t="n">
-        <v>29.9997</v>
+        <v>29.9996</v>
       </c>
       <c r="G31" t="n">
-        <v>29.9997</v>
+        <v>29.9996</v>
       </c>
       <c r="H31" t="n">
         <v>40.0001</v>
@@ -1266,22 +1266,22 @@
         <v>46356</v>
       </c>
       <c r="B32" t="n">
-        <v>84318300</v>
+        <v>64855900</v>
       </c>
       <c r="C32" t="n">
-        <v>25295200</v>
+        <v>19456500</v>
       </c>
       <c r="D32" t="n">
-        <v>25295200</v>
+        <v>19456500</v>
       </c>
       <c r="E32" t="n">
-        <v>33727400</v>
+        <v>25942400</v>
       </c>
       <c r="F32" t="n">
-        <v>29.9997</v>
+        <v>29.9996</v>
       </c>
       <c r="G32" t="n">
-        <v>29.9997</v>
+        <v>29.9996</v>
       </c>
       <c r="H32" t="n">
         <v>40.0001</v>
@@ -1292,25 +1292,25 @@
         <v>46387</v>
       </c>
       <c r="B33" t="n">
-        <v>88545200</v>
+        <v>62614200</v>
       </c>
       <c r="C33" t="n">
-        <v>26563300</v>
+        <v>18784000</v>
       </c>
       <c r="D33" t="n">
-        <v>26563300</v>
+        <v>18784000</v>
       </c>
       <c r="E33" t="n">
-        <v>35418200</v>
+        <v>25045700</v>
       </c>
       <c r="F33" t="n">
-        <v>29.9997</v>
+        <v>29.9996</v>
       </c>
       <c r="G33" t="n">
-        <v>29.9997</v>
+        <v>29.9996</v>
       </c>
       <c r="H33" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -1318,25 +1318,25 @@
         <v>46418</v>
       </c>
       <c r="B34" t="n">
-        <v>92984100</v>
+        <v>61684500</v>
       </c>
       <c r="C34" t="n">
-        <v>27895000</v>
+        <v>18505100</v>
       </c>
       <c r="D34" t="n">
-        <v>27895000</v>
+        <v>18505100</v>
       </c>
       <c r="E34" t="n">
-        <v>37193700</v>
+        <v>24673800</v>
       </c>
       <c r="F34" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="G34" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="H34" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
@@ -1344,25 +1344,25 @@
         <v>46446</v>
       </c>
       <c r="B35" t="n">
-        <v>94995600</v>
+        <v>60768500</v>
       </c>
       <c r="C35" t="n">
-        <v>28498500</v>
+        <v>18230300</v>
       </c>
       <c r="D35" t="n">
-        <v>28498500</v>
+        <v>18230300</v>
       </c>
       <c r="E35" t="n">
-        <v>37998300</v>
+        <v>24307400</v>
       </c>
       <c r="F35" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="G35" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="H35" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -1370,25 +1370,25 @@
         <v>46477</v>
       </c>
       <c r="B36" t="n">
-        <v>97050700</v>
+        <v>61032300</v>
       </c>
       <c r="C36" t="n">
-        <v>29115000</v>
+        <v>18309400</v>
       </c>
       <c r="D36" t="n">
-        <v>29115000</v>
+        <v>18309400</v>
       </c>
       <c r="E36" t="n">
-        <v>38820400</v>
+        <v>24412900</v>
       </c>
       <c r="F36" t="n">
-        <v>29.9998</v>
+        <v>29.9995</v>
       </c>
       <c r="G36" t="n">
-        <v>29.9998</v>
+        <v>29.9995</v>
       </c>
       <c r="H36" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -1396,25 +1396,25 @@
         <v>46507</v>
       </c>
       <c r="B37" t="n">
-        <v>100918000</v>
+        <v>61297100</v>
       </c>
       <c r="C37" t="n">
-        <v>30275200</v>
+        <v>18388800</v>
       </c>
       <c r="D37" t="n">
-        <v>30275200</v>
+        <v>18388800</v>
       </c>
       <c r="E37" t="n">
-        <v>40367300</v>
+        <v>24518800</v>
       </c>
       <c r="F37" t="n">
-        <v>29.9998</v>
+        <v>29.9995</v>
       </c>
       <c r="G37" t="n">
-        <v>29.9998</v>
+        <v>29.9995</v>
       </c>
       <c r="H37" t="n">
-        <v>40.0001</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="38">
@@ -1422,25 +1422,25 @@
         <v>46538</v>
       </c>
       <c r="B38" t="n">
-        <v>104939000</v>
+        <v>61590900</v>
       </c>
       <c r="C38" t="n">
-        <v>31481500</v>
+        <v>18477000</v>
       </c>
       <c r="D38" t="n">
-        <v>31481500</v>
+        <v>18477000</v>
       </c>
       <c r="E38" t="n">
-        <v>41975700</v>
+        <v>24636300</v>
       </c>
       <c r="F38" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="G38" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="H38" t="n">
-        <v>40.0001</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="39">
@@ -1448,25 +1448,25 @@
         <v>46568</v>
       </c>
       <c r="B39" t="n">
-        <v>113671000</v>
+        <v>61886200</v>
       </c>
       <c r="C39" t="n">
-        <v>34101100</v>
+        <v>18565600</v>
       </c>
       <c r="D39" t="n">
-        <v>34101100</v>
+        <v>18565600</v>
       </c>
       <c r="E39" t="n">
-        <v>45468500</v>
+        <v>24754400</v>
       </c>
       <c r="F39" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="G39" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="H39" t="n">
-        <v>40.0001</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="40">
@@ -1474,25 +1474,25 @@
         <v>46599</v>
       </c>
       <c r="B40" t="n">
-        <v>123130000</v>
+        <v>62436900</v>
       </c>
       <c r="C40" t="n">
-        <v>36938800</v>
+        <v>18730800</v>
       </c>
       <c r="D40" t="n">
-        <v>36938800</v>
+        <v>18730800</v>
       </c>
       <c r="E40" t="n">
-        <v>49252100</v>
+        <v>24974700</v>
       </c>
       <c r="F40" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="G40" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="H40" t="n">
-        <v>40.0001</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="41">
@@ -1500,25 +1500,25 @@
         <v>46630</v>
       </c>
       <c r="B41" t="n">
-        <v>115531000</v>
+        <v>62992400</v>
       </c>
       <c r="C41" t="n">
-        <v>34659100</v>
+        <v>18897500</v>
       </c>
       <c r="D41" t="n">
-        <v>34659100</v>
+        <v>18897500</v>
       </c>
       <c r="E41" t="n">
-        <v>46212500</v>
+        <v>25196900</v>
       </c>
       <c r="F41" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G41" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H41" t="n">
-        <v>40.0001</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="42">
@@ -1526,25 +1526,25 @@
         <v>46660</v>
       </c>
       <c r="B42" t="n">
-        <v>108401000</v>
+        <v>65239300</v>
       </c>
       <c r="C42" t="n">
-        <v>32520100</v>
+        <v>19571600</v>
       </c>
       <c r="D42" t="n">
-        <v>32520100</v>
+        <v>19571600</v>
       </c>
       <c r="E42" t="n">
-        <v>43360500</v>
+        <v>26095700</v>
       </c>
       <c r="F42" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G42" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H42" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
@@ -1552,22 +1552,22 @@
         <v>46691</v>
       </c>
       <c r="B43" t="n">
-        <v>101711000</v>
+        <v>67566400</v>
       </c>
       <c r="C43" t="n">
-        <v>30513100</v>
+        <v>20269700</v>
       </c>
       <c r="D43" t="n">
-        <v>30513100</v>
+        <v>20269700</v>
       </c>
       <c r="E43" t="n">
-        <v>40684500</v>
+        <v>27026600</v>
       </c>
       <c r="F43" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G43" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H43" t="n">
         <v>40.0001</v>
@@ -1578,22 +1578,22 @@
         <v>46721</v>
       </c>
       <c r="B44" t="n">
-        <v>96230400</v>
+        <v>71687800</v>
       </c>
       <c r="C44" t="n">
-        <v>28868900</v>
+        <v>21506100</v>
       </c>
       <c r="D44" t="n">
-        <v>28868900</v>
+        <v>21506100</v>
       </c>
       <c r="E44" t="n">
-        <v>38492300</v>
+        <v>28675200</v>
       </c>
       <c r="F44" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G44" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H44" t="n">
         <v>40.0001</v>
@@ -1604,16 +1604,16 @@
         <v>46752</v>
       </c>
       <c r="B45" t="n">
-        <v>91045100</v>
+        <v>76060700</v>
       </c>
       <c r="C45" t="n">
-        <v>27313300</v>
+        <v>22818000</v>
       </c>
       <c r="D45" t="n">
-        <v>27313300</v>
+        <v>22818000</v>
       </c>
       <c r="E45" t="n">
-        <v>36418100</v>
+        <v>30424400</v>
       </c>
       <c r="F45" t="n">
         <v>29.9997</v>
@@ -1622,7 +1622,7 @@
         <v>29.9997</v>
       </c>
       <c r="H45" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="46">
@@ -1630,16 +1630,16 @@
         <v>46783</v>
       </c>
       <c r="B46" t="n">
-        <v>86139100</v>
+        <v>81140900</v>
       </c>
       <c r="C46" t="n">
-        <v>25841500</v>
+        <v>24342000</v>
       </c>
       <c r="D46" t="n">
-        <v>25841500</v>
+        <v>24342000</v>
       </c>
       <c r="E46" t="n">
-        <v>34455700</v>
+        <v>32456500</v>
       </c>
       <c r="F46" t="n">
         <v>29.9997</v>
@@ -1648,7 +1648,7 @@
         <v>29.9997</v>
       </c>
       <c r="H46" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="47">
@@ -1656,16 +1656,16 @@
         <v>46812</v>
       </c>
       <c r="B47" t="n">
-        <v>84505100</v>
+        <v>86560400</v>
       </c>
       <c r="C47" t="n">
-        <v>25351300</v>
+        <v>25967900</v>
       </c>
       <c r="D47" t="n">
-        <v>25351300</v>
+        <v>25967900</v>
       </c>
       <c r="E47" t="n">
-        <v>33802100</v>
+        <v>34624300</v>
       </c>
       <c r="F47" t="n">
         <v>29.9997</v>
@@ -1674,7 +1674,7 @@
         <v>29.9997</v>
       </c>
       <c r="H47" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="48">
@@ -1682,16 +1682,16 @@
         <v>46843</v>
       </c>
       <c r="B48" t="n">
-        <v>82902100</v>
+        <v>93763200</v>
       </c>
       <c r="C48" t="n">
-        <v>24870400</v>
+        <v>28128700</v>
       </c>
       <c r="D48" t="n">
-        <v>24870400</v>
+        <v>28128700</v>
       </c>
       <c r="E48" t="n">
-        <v>33160900</v>
+        <v>37505500</v>
       </c>
       <c r="F48" t="n">
         <v>29.9997</v>
@@ -1700,7 +1700,7 @@
         <v>29.9997</v>
       </c>
       <c r="H48" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="49">
@@ -1708,16 +1708,16 @@
         <v>46873</v>
       </c>
       <c r="B49" t="n">
-        <v>81329500</v>
+        <v>101565000</v>
       </c>
       <c r="C49" t="n">
-        <v>24398600</v>
+        <v>30469200</v>
       </c>
       <c r="D49" t="n">
-        <v>24398600</v>
+        <v>30469200</v>
       </c>
       <c r="E49" t="n">
-        <v>32531900</v>
+        <v>40626200</v>
       </c>
       <c r="F49" t="n">
         <v>29.9997</v>
@@ -1726,7 +1726,7 @@
         <v>29.9997</v>
       </c>
       <c r="H49" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="50">
@@ -1734,16 +1734,16 @@
         <v>46904</v>
       </c>
       <c r="B50" t="n">
-        <v>80257700</v>
+        <v>110657000</v>
       </c>
       <c r="C50" t="n">
-        <v>24077100</v>
+        <v>33196800</v>
       </c>
       <c r="D50" t="n">
-        <v>24077100</v>
+        <v>33196800</v>
       </c>
       <c r="E50" t="n">
-        <v>32103200</v>
+        <v>44263000</v>
       </c>
       <c r="F50" t="n">
         <v>29.9997</v>
@@ -1752,7 +1752,7 @@
         <v>29.9997</v>
       </c>
       <c r="H50" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="51">
@@ -1760,16 +1760,16 @@
         <v>46934</v>
       </c>
       <c r="B51" t="n">
-        <v>79200100</v>
+        <v>120562000</v>
       </c>
       <c r="C51" t="n">
-        <v>23759800</v>
+        <v>36168200</v>
       </c>
       <c r="D51" t="n">
-        <v>23759800</v>
+        <v>36168200</v>
       </c>
       <c r="E51" t="n">
-        <v>31680100</v>
+        <v>48225000</v>
       </c>
       <c r="F51" t="n">
         <v>29.9997</v>
@@ -1778,7 +1778,7 @@
         <v>29.9997</v>
       </c>
       <c r="H51" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="52">
@@ -1786,25 +1786,25 @@
         <v>46965</v>
       </c>
       <c r="B52" t="n">
-        <v>78156300</v>
+        <v>123604000</v>
       </c>
       <c r="C52" t="n">
-        <v>23446700</v>
+        <v>37080800</v>
       </c>
       <c r="D52" t="n">
-        <v>23446700</v>
+        <v>37080800</v>
       </c>
       <c r="E52" t="n">
-        <v>31262600</v>
+        <v>49441800</v>
       </c>
       <c r="F52" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G52" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H52" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="53">
@@ -1812,25 +1812,25 @@
         <v>46996</v>
       </c>
       <c r="B53" t="n">
-        <v>75455100</v>
+        <v>126722000</v>
       </c>
       <c r="C53" t="n">
-        <v>22636400</v>
+        <v>38016200</v>
       </c>
       <c r="D53" t="n">
-        <v>22636400</v>
+        <v>38016200</v>
       </c>
       <c r="E53" t="n">
-        <v>30182100</v>
+        <v>50689100</v>
       </c>
       <c r="F53" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G53" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H53" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="54">
@@ -1838,16 +1838,16 @@
         <v>47026</v>
       </c>
       <c r="B54" t="n">
-        <v>72847300</v>
+        <v>129919000</v>
       </c>
       <c r="C54" t="n">
-        <v>21854000</v>
+        <v>38975300</v>
       </c>
       <c r="D54" t="n">
-        <v>21854000</v>
+        <v>38975300</v>
       </c>
       <c r="E54" t="n">
-        <v>29139000</v>
+        <v>51967900</v>
       </c>
       <c r="F54" t="n">
         <v>29.9997</v>
@@ -1856,7 +1856,7 @@
         <v>29.9997</v>
       </c>
       <c r="H54" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="55">
@@ -1864,16 +1864,16 @@
         <v>47057</v>
       </c>
       <c r="B55" t="n">
-        <v>70329600</v>
+        <v>133778000</v>
       </c>
       <c r="C55" t="n">
-        <v>21098700</v>
+        <v>40133000</v>
       </c>
       <c r="D55" t="n">
-        <v>21098700</v>
+        <v>40133000</v>
       </c>
       <c r="E55" t="n">
-        <v>28131900</v>
+        <v>53511500</v>
       </c>
       <c r="F55" t="n">
         <v>29.9997</v>
@@ -1882,7 +1882,7 @@
         <v>29.9997</v>
       </c>
       <c r="H55" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="56">
@@ -1890,16 +1890,16 @@
         <v>47087</v>
       </c>
       <c r="B56" t="n">
-        <v>71517800</v>
+        <v>137752000</v>
       </c>
       <c r="C56" t="n">
-        <v>21455100</v>
+        <v>41325200</v>
       </c>
       <c r="D56" t="n">
-        <v>21455100</v>
+        <v>41325200</v>
       </c>
       <c r="E56" t="n">
-        <v>28607200</v>
+        <v>55101100</v>
       </c>
       <c r="F56" t="n">
         <v>29.9997</v>
@@ -1908,7 +1908,7 @@
         <v>29.9997</v>
       </c>
       <c r="H56" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="57">
@@ -1916,16 +1916,16 @@
         <v>47118</v>
       </c>
       <c r="B57" t="n">
-        <v>72726000</v>
+        <v>141844000</v>
       </c>
       <c r="C57" t="n">
-        <v>21817600</v>
+        <v>42552800</v>
       </c>
       <c r="D57" t="n">
-        <v>21817600</v>
+        <v>42552800</v>
       </c>
       <c r="E57" t="n">
-        <v>29090500</v>
+        <v>56737900</v>
       </c>
       <c r="F57" t="n">
         <v>29.9997</v>
@@ -1934,7 +1934,7 @@
         <v>29.9997</v>
       </c>
       <c r="H57" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="58">
@@ -1942,25 +1942,25 @@
         <v>47149</v>
       </c>
       <c r="B58" t="n">
-        <v>73954600</v>
+        <v>136458000</v>
       </c>
       <c r="C58" t="n">
-        <v>22186200</v>
+        <v>40937000</v>
       </c>
       <c r="D58" t="n">
-        <v>22186200</v>
+        <v>40937000</v>
       </c>
       <c r="E58" t="n">
-        <v>29581900</v>
+        <v>54583500</v>
       </c>
       <c r="F58" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G58" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H58" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="59">
@@ -1968,25 +1968,25 @@
         <v>47177</v>
       </c>
       <c r="B59" t="n">
-        <v>74613000</v>
+        <v>131277000</v>
       </c>
       <c r="C59" t="n">
-        <v>22383800</v>
+        <v>39382700</v>
       </c>
       <c r="D59" t="n">
-        <v>22383800</v>
+        <v>39382700</v>
       </c>
       <c r="E59" t="n">
-        <v>29845300</v>
+        <v>52511100</v>
       </c>
       <c r="F59" t="n">
-        <v>29.9999</v>
+        <v>29.9997</v>
       </c>
       <c r="G59" t="n">
-        <v>29.9999</v>
+        <v>29.9997</v>
       </c>
       <c r="H59" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="60">
@@ -1994,25 +1994,25 @@
         <v>47208</v>
       </c>
       <c r="B60" t="n">
-        <v>75277500</v>
+        <v>126292000</v>
       </c>
       <c r="C60" t="n">
-        <v>22583200</v>
+        <v>37887200</v>
       </c>
       <c r="D60" t="n">
-        <v>22583200</v>
+        <v>37887200</v>
       </c>
       <c r="E60" t="n">
-        <v>30111100</v>
+        <v>50517100</v>
       </c>
       <c r="F60" t="n">
-        <v>29.9999</v>
+        <v>29.9997</v>
       </c>
       <c r="G60" t="n">
-        <v>29.9999</v>
+        <v>29.9997</v>
       </c>
       <c r="H60" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="61">
@@ -2020,25 +2020,25 @@
         <v>47238</v>
       </c>
       <c r="B61" t="n">
-        <v>75948000</v>
+        <v>121497000</v>
       </c>
       <c r="C61" t="n">
-        <v>22784300</v>
+        <v>36448700</v>
       </c>
       <c r="D61" t="n">
-        <v>22784300</v>
+        <v>36448700</v>
       </c>
       <c r="E61" t="n">
-        <v>30379300</v>
+        <v>48599000</v>
       </c>
       <c r="F61" t="n">
-        <v>29.9999</v>
+        <v>29.9997</v>
       </c>
       <c r="G61" t="n">
-        <v>29.9999</v>
+        <v>29.9997</v>
       </c>
       <c r="H61" t="n">
-        <v>40.0001</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="62">
@@ -2046,22 +2046,22 @@
         <v>47269</v>
       </c>
       <c r="B62" t="n">
-        <v>79122700</v>
+        <v>118990000</v>
       </c>
       <c r="C62" t="n">
-        <v>23736700</v>
+        <v>35696600</v>
       </c>
       <c r="D62" t="n">
-        <v>23736700</v>
+        <v>35696600</v>
       </c>
       <c r="E62" t="n">
-        <v>31649200</v>
+        <v>47596200</v>
       </c>
       <c r="F62" t="n">
-        <v>29.9999</v>
+        <v>29.9997</v>
       </c>
       <c r="G62" t="n">
-        <v>29.9999</v>
+        <v>29.9997</v>
       </c>
       <c r="H62" t="n">
         <v>40.0002</v>
@@ -2072,22 +2072,22 @@
         <v>47299</v>
       </c>
       <c r="B63" t="n">
-        <v>82430100</v>
+        <v>116534000</v>
       </c>
       <c r="C63" t="n">
-        <v>24728900</v>
+        <v>34959900</v>
       </c>
       <c r="D63" t="n">
-        <v>24728900</v>
+        <v>34959900</v>
       </c>
       <c r="E63" t="n">
-        <v>32972200</v>
+        <v>46613800</v>
       </c>
       <c r="F63" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G63" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H63" t="n">
         <v>40.0002</v>
@@ -2098,25 +2098,25 @@
         <v>47330</v>
       </c>
       <c r="B64" t="n">
-        <v>85875700</v>
+        <v>114129000</v>
       </c>
       <c r="C64" t="n">
-        <v>25762500</v>
+        <v>34238400</v>
       </c>
       <c r="D64" t="n">
-        <v>25762500</v>
+        <v>34238400</v>
       </c>
       <c r="E64" t="n">
-        <v>34350500</v>
+        <v>45651800</v>
       </c>
       <c r="F64" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G64" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H64" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="65">
@@ -2124,25 +2124,25 @@
         <v>47361</v>
       </c>
       <c r="B65" t="n">
-        <v>91219000</v>
+        <v>111774000</v>
       </c>
       <c r="C65" t="n">
-        <v>27365500</v>
+        <v>33531900</v>
       </c>
       <c r="D65" t="n">
-        <v>27365500</v>
+        <v>33531900</v>
       </c>
       <c r="E65" t="n">
-        <v>36487900</v>
+        <v>44709800</v>
       </c>
       <c r="F65" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G65" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H65" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="66">
@@ -2150,25 +2150,25 @@
         <v>47391</v>
       </c>
       <c r="B66" t="n">
-        <v>96894900</v>
+        <v>112841000</v>
       </c>
       <c r="C66" t="n">
-        <v>29068300</v>
+        <v>33852000</v>
       </c>
       <c r="D66" t="n">
-        <v>29068300</v>
+        <v>33852000</v>
       </c>
       <c r="E66" t="n">
-        <v>38758300</v>
+        <v>45136600</v>
       </c>
       <c r="F66" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G66" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H66" t="n">
-        <v>40.0004</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="67">
@@ -2176,25 +2176,25 @@
         <v>47422</v>
       </c>
       <c r="B67" t="n">
-        <v>102924000</v>
+        <v>113918000</v>
       </c>
       <c r="C67" t="n">
-        <v>30877000</v>
+        <v>34175100</v>
       </c>
       <c r="D67" t="n">
-        <v>30877000</v>
+        <v>34175100</v>
       </c>
       <c r="E67" t="n">
-        <v>41170000</v>
+        <v>45567400</v>
       </c>
       <c r="F67" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G67" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H67" t="n">
-        <v>40.0004</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="68">
@@ -2202,25 +2202,25 @@
         <v>47452</v>
       </c>
       <c r="B68" t="n">
-        <v>100171000</v>
+        <v>115006000</v>
       </c>
       <c r="C68" t="n">
-        <v>30051100</v>
+        <v>34501500</v>
       </c>
       <c r="D68" t="n">
-        <v>30051100</v>
+        <v>34501500</v>
       </c>
       <c r="E68" t="n">
-        <v>40068800</v>
+        <v>46002600</v>
       </c>
       <c r="F68" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G68" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H68" t="n">
-        <v>40.0004</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="69">
@@ -2228,25 +2228,25 @@
         <v>47483</v>
       </c>
       <c r="B69" t="n">
-        <v>97491700</v>
+        <v>116104000</v>
       </c>
       <c r="C69" t="n">
-        <v>29247300</v>
+        <v>34830900</v>
       </c>
       <c r="D69" t="n">
-        <v>29247300</v>
+        <v>34830900</v>
       </c>
       <c r="E69" t="n">
-        <v>38997100</v>
+        <v>46441800</v>
       </c>
       <c r="F69" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G69" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H69" t="n">
-        <v>40.0004</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="70">
@@ -2254,25 +2254,25 @@
         <v>47514</v>
       </c>
       <c r="B70" t="n">
-        <v>94884100</v>
+        <v>122360000</v>
       </c>
       <c r="C70" t="n">
-        <v>28465000</v>
+        <v>36707600</v>
       </c>
       <c r="D70" t="n">
-        <v>28465000</v>
+        <v>36707600</v>
       </c>
       <c r="E70" t="n">
-        <v>37954000</v>
+        <v>48944200</v>
       </c>
       <c r="F70" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G70" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H70" t="n">
-        <v>40.0004</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="71">
@@ -2280,25 +2280,25 @@
         <v>47542</v>
       </c>
       <c r="B71" t="n">
-        <v>92346100</v>
+        <v>128953000</v>
       </c>
       <c r="C71" t="n">
-        <v>27703600</v>
+        <v>38685500</v>
       </c>
       <c r="D71" t="n">
-        <v>27703600</v>
+        <v>38685500</v>
       </c>
       <c r="E71" t="n">
-        <v>36938800</v>
+        <v>51581500</v>
       </c>
       <c r="F71" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G71" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H71" t="n">
-        <v>40.0004</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="72">
@@ -2306,25 +2306,25 @@
         <v>47573</v>
       </c>
       <c r="B72" t="n">
-        <v>90440800</v>
+        <v>135901000</v>
       </c>
       <c r="C72" t="n">
-        <v>27132100</v>
+        <v>40769900</v>
       </c>
       <c r="D72" t="n">
-        <v>27132100</v>
+        <v>40769900</v>
       </c>
       <c r="E72" t="n">
-        <v>36176700</v>
+        <v>54360700</v>
       </c>
       <c r="F72" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G72" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H72" t="n">
-        <v>40.0004</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="73">
@@ -2332,25 +2332,25 @@
         <v>47603</v>
       </c>
       <c r="B73" t="n">
-        <v>88574900</v>
+        <v>143224000</v>
       </c>
       <c r="C73" t="n">
-        <v>26572300</v>
+        <v>42966800</v>
       </c>
       <c r="D73" t="n">
-        <v>26572300</v>
+        <v>42966800</v>
       </c>
       <c r="E73" t="n">
-        <v>35430300</v>
+        <v>57289900</v>
       </c>
       <c r="F73" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G73" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H73" t="n">
-        <v>40.0004</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="74">
@@ -2358,25 +2358,25 @@
         <v>47634</v>
       </c>
       <c r="B74" t="n">
-        <v>86747500</v>
+        <v>141337000</v>
       </c>
       <c r="C74" t="n">
-        <v>26024100</v>
+        <v>42400700</v>
       </c>
       <c r="D74" t="n">
-        <v>26024100</v>
+        <v>42400700</v>
       </c>
       <c r="E74" t="n">
-        <v>34699300</v>
+        <v>56535100</v>
       </c>
       <c r="F74" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G74" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H74" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="75">
@@ -2384,25 +2384,25 @@
         <v>47664</v>
       </c>
       <c r="B75" t="n">
-        <v>84957800</v>
+        <v>139474000</v>
       </c>
       <c r="C75" t="n">
-        <v>25487200</v>
+        <v>41841800</v>
       </c>
       <c r="D75" t="n">
-        <v>25487200</v>
+        <v>41841800</v>
       </c>
       <c r="E75" t="n">
-        <v>33983400</v>
+        <v>55789900</v>
       </c>
       <c r="F75" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G75" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H75" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="76">
@@ -2410,25 +2410,25 @@
         <v>47695</v>
       </c>
       <c r="B76" t="n">
-        <v>85327200</v>
+        <v>137636000</v>
       </c>
       <c r="C76" t="n">
-        <v>25598000</v>
+        <v>41290400</v>
       </c>
       <c r="D76" t="n">
-        <v>25598000</v>
+        <v>41290400</v>
       </c>
       <c r="E76" t="n">
-        <v>34131100</v>
+        <v>55054700</v>
       </c>
       <c r="F76" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G76" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H76" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="77">
@@ -2436,25 +2436,25 @@
         <v>47726</v>
       </c>
       <c r="B77" t="n">
-        <v>85698100</v>
+        <v>135822000</v>
       </c>
       <c r="C77" t="n">
-        <v>25709300</v>
+        <v>40746200</v>
       </c>
       <c r="D77" t="n">
-        <v>25709300</v>
+        <v>40746200</v>
       </c>
       <c r="E77" t="n">
-        <v>34279500</v>
+        <v>54329100</v>
       </c>
       <c r="F77" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G77" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H77" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="78">
@@ -2462,25 +2462,25 @@
         <v>47756</v>
       </c>
       <c r="B78" t="n">
-        <v>86070800</v>
+        <v>134032000</v>
       </c>
       <c r="C78" t="n">
-        <v>25821100</v>
+        <v>40209200</v>
       </c>
       <c r="D78" t="n">
-        <v>25821100</v>
+        <v>40209200</v>
       </c>
       <c r="E78" t="n">
-        <v>34428600</v>
+        <v>53613100</v>
       </c>
       <c r="F78" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G78" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H78" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="79">
@@ -2488,25 +2488,25 @@
         <v>47787</v>
       </c>
       <c r="B79" t="n">
-        <v>86445100</v>
+        <v>133629000</v>
       </c>
       <c r="C79" t="n">
-        <v>25933400</v>
+        <v>40088300</v>
       </c>
       <c r="D79" t="n">
-        <v>25933400</v>
+        <v>40088300</v>
       </c>
       <c r="E79" t="n">
-        <v>34578300</v>
+        <v>53451900</v>
       </c>
       <c r="F79" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G79" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H79" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="80">
@@ -2514,25 +2514,25 @@
         <v>47817</v>
       </c>
       <c r="B80" t="n">
-        <v>92764200</v>
+        <v>133228000</v>
       </c>
       <c r="C80" t="n">
-        <v>27829100</v>
+        <v>39968000</v>
       </c>
       <c r="D80" t="n">
-        <v>27829100</v>
+        <v>39968000</v>
       </c>
       <c r="E80" t="n">
-        <v>37106000</v>
+        <v>53291500</v>
       </c>
       <c r="F80" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G80" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H80" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="81">
@@ -2540,25 +2540,25 @@
         <v>47848</v>
       </c>
       <c r="B81" t="n">
-        <v>99545300</v>
+        <v>132828000</v>
       </c>
       <c r="C81" t="n">
-        <v>29863400</v>
+        <v>39848000</v>
       </c>
       <c r="D81" t="n">
-        <v>29863400</v>
+        <v>39848000</v>
       </c>
       <c r="E81" t="n">
-        <v>39818400</v>
+        <v>53131500</v>
       </c>
       <c r="F81" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G81" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H81" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="82">
@@ -2566,25 +2566,25 @@
         <v>47879</v>
       </c>
       <c r="B82" t="n">
-        <v>106822000</v>
+        <v>132429000</v>
       </c>
       <c r="C82" t="n">
-        <v>32046400</v>
+        <v>39728300</v>
       </c>
       <c r="D82" t="n">
-        <v>32046400</v>
+        <v>39728300</v>
       </c>
       <c r="E82" t="n">
-        <v>42729100</v>
+        <v>52971900</v>
       </c>
       <c r="F82" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G82" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H82" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="83">
@@ -2592,25 +2592,25 @@
         <v>47907</v>
       </c>
       <c r="B83" t="n">
-        <v>114630000</v>
+        <v>132031000</v>
       </c>
       <c r="C83" t="n">
-        <v>34388800</v>
+        <v>39608900</v>
       </c>
       <c r="D83" t="n">
-        <v>34388800</v>
+        <v>39608900</v>
       </c>
       <c r="E83" t="n">
-        <v>45852300</v>
+        <v>52812700</v>
       </c>
       <c r="F83" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G83" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H83" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="84">
@@ -2618,25 +2618,25 @@
         <v>47938</v>
       </c>
       <c r="B84" t="n">
-        <v>124891000</v>
+        <v>137548000</v>
       </c>
       <c r="C84" t="n">
-        <v>37467100</v>
+        <v>41264000</v>
       </c>
       <c r="D84" t="n">
-        <v>37467100</v>
+        <v>41264000</v>
       </c>
       <c r="E84" t="n">
-        <v>49956800</v>
+        <v>55019500</v>
       </c>
       <c r="F84" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G84" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H84" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="85">
@@ -2644,25 +2644,25 @@
         <v>47968</v>
       </c>
       <c r="B85" t="n">
-        <v>136071000</v>
+        <v>143296000</v>
       </c>
       <c r="C85" t="n">
-        <v>40821000</v>
+        <v>42988400</v>
       </c>
       <c r="D85" t="n">
-        <v>40821000</v>
+        <v>42988400</v>
       </c>
       <c r="E85" t="n">
-        <v>54428800</v>
+        <v>57318700</v>
       </c>
       <c r="F85" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G85" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H85" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="86">
@@ -2670,25 +2670,25 @@
         <v>47999</v>
       </c>
       <c r="B86" t="n">
-        <v>148252000</v>
+        <v>149284000</v>
       </c>
       <c r="C86" t="n">
-        <v>44475300</v>
+        <v>44784800</v>
       </c>
       <c r="D86" t="n">
-        <v>44475300</v>
+        <v>44784800</v>
       </c>
       <c r="E86" t="n">
-        <v>59301200</v>
+        <v>59713900</v>
       </c>
       <c r="F86" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G86" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H86" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="87">
@@ -2696,25 +2696,25 @@
         <v>48029</v>
       </c>
       <c r="B87" t="n">
-        <v>161523000</v>
+        <v>155522000</v>
       </c>
       <c r="C87" t="n">
-        <v>48456600</v>
+        <v>46656100</v>
       </c>
       <c r="D87" t="n">
-        <v>48456600</v>
+        <v>46656100</v>
       </c>
       <c r="E87" t="n">
-        <v>64609700</v>
+        <v>62209100</v>
       </c>
       <c r="F87" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G87" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H87" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="88">
@@ -2722,25 +2722,25 @@
         <v>48060</v>
       </c>
       <c r="B88" t="n">
-        <v>157314000</v>
+        <v>162021000</v>
       </c>
       <c r="C88" t="n">
-        <v>47193900</v>
+        <v>48605800</v>
       </c>
       <c r="D88" t="n">
-        <v>47193900</v>
+        <v>48605800</v>
       </c>
       <c r="E88" t="n">
-        <v>62926100</v>
+        <v>64808700</v>
       </c>
       <c r="F88" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G88" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H88" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="89">
@@ -2748,25 +2748,25 @@
         <v>48091</v>
       </c>
       <c r="B89" t="n">
-        <v>153214000</v>
+        <v>173411000</v>
       </c>
       <c r="C89" t="n">
-        <v>45963900</v>
+        <v>52022800</v>
       </c>
       <c r="D89" t="n">
-        <v>45963900</v>
+        <v>52022800</v>
       </c>
       <c r="E89" t="n">
-        <v>61286100</v>
+        <v>69364700</v>
       </c>
       <c r="F89" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G89" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H89" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="90">
@@ -2774,25 +2774,25 @@
         <v>48121</v>
       </c>
       <c r="B90" t="n">
-        <v>149221000</v>
+        <v>185602000</v>
       </c>
       <c r="C90" t="n">
-        <v>44766000</v>
+        <v>55680000</v>
       </c>
       <c r="D90" t="n">
-        <v>44766000</v>
+        <v>55680000</v>
       </c>
       <c r="E90" t="n">
-        <v>59688800</v>
+        <v>74241200</v>
       </c>
       <c r="F90" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G90" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H90" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="91">
@@ -2800,25 +2800,25 @@
         <v>48152</v>
       </c>
       <c r="B91" t="n">
-        <v>145332000</v>
+        <v>198650000</v>
       </c>
       <c r="C91" t="n">
-        <v>43599300</v>
+        <v>59594400</v>
       </c>
       <c r="D91" t="n">
-        <v>43599300</v>
+        <v>59594400</v>
       </c>
       <c r="E91" t="n">
-        <v>58133200</v>
+        <v>79460400</v>
       </c>
       <c r="F91" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G91" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H91" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="92">
@@ -2826,25 +2826,25 @@
         <v>48182</v>
       </c>
       <c r="B92" t="n">
-        <v>141544000</v>
+        <v>212616000</v>
       </c>
       <c r="C92" t="n">
-        <v>42462900</v>
+        <v>63784200</v>
       </c>
       <c r="D92" t="n">
-        <v>42462900</v>
+        <v>63784200</v>
       </c>
       <c r="E92" t="n">
-        <v>56618000</v>
+        <v>85046800</v>
       </c>
       <c r="F92" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G92" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H92" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="93">
@@ -2852,25 +2852,25 @@
         <v>48213</v>
       </c>
       <c r="B93" t="n">
-        <v>142224000</v>
+        <v>227564000</v>
       </c>
       <c r="C93" t="n">
-        <v>42666900</v>
+        <v>68268500</v>
       </c>
       <c r="D93" t="n">
-        <v>42666900</v>
+        <v>68268500</v>
       </c>
       <c r="E93" t="n">
-        <v>56890000</v>
+        <v>91026100</v>
       </c>
       <c r="F93" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G93" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H93" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="94">
@@ -2878,25 +2878,25 @@
         <v>48244</v>
       </c>
       <c r="B94" t="n">
-        <v>142907000</v>
+        <v>221633000</v>
       </c>
       <c r="C94" t="n">
-        <v>42871800</v>
+        <v>66489200</v>
       </c>
       <c r="D94" t="n">
-        <v>42871800</v>
+        <v>66489200</v>
       </c>
       <c r="E94" t="n">
-        <v>57163200</v>
+        <v>88653600</v>
       </c>
       <c r="F94" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G94" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H94" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="95">
@@ -2904,25 +2904,25 @@
         <v>48273</v>
       </c>
       <c r="B95" t="n">
-        <v>143593000</v>
+        <v>215856000</v>
       </c>
       <c r="C95" t="n">
-        <v>43077600</v>
+        <v>64756200</v>
       </c>
       <c r="D95" t="n">
-        <v>43077600</v>
+        <v>64756200</v>
       </c>
       <c r="E95" t="n">
-        <v>57437600</v>
+        <v>86342800</v>
       </c>
       <c r="F95" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G95" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H95" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="96">
@@ -2930,25 +2930,25 @@
         <v>48304</v>
       </c>
       <c r="B96" t="n">
-        <v>144283000</v>
+        <v>210230000</v>
       </c>
       <c r="C96" t="n">
-        <v>43284600</v>
+        <v>63068400</v>
       </c>
       <c r="D96" t="n">
-        <v>43284600</v>
+        <v>63068400</v>
       </c>
       <c r="E96" t="n">
-        <v>57713600</v>
+        <v>84092400</v>
       </c>
       <c r="F96" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G96" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H96" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="97">
@@ -2956,25 +2956,25 @@
         <v>48334</v>
       </c>
       <c r="B97" t="n">
-        <v>144976000</v>
+        <v>204750000</v>
       </c>
       <c r="C97" t="n">
-        <v>43492500</v>
+        <v>61424400</v>
       </c>
       <c r="D97" t="n">
-        <v>43492500</v>
+        <v>61424400</v>
       </c>
       <c r="E97" t="n">
-        <v>57990800</v>
+        <v>81900400</v>
       </c>
       <c r="F97" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G97" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H97" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="98">
@@ -2982,25 +2982,25 @@
         <v>48365</v>
       </c>
       <c r="B98" t="n">
-        <v>145428000</v>
+        <v>199414000</v>
       </c>
       <c r="C98" t="n">
-        <v>43628100</v>
+        <v>59823600</v>
       </c>
       <c r="D98" t="n">
-        <v>43628100</v>
+        <v>59823600</v>
       </c>
       <c r="E98" t="n">
-        <v>58171600</v>
+        <v>79766000</v>
       </c>
       <c r="F98" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G98" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H98" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="99">
@@ -3008,25 +3008,25 @@
         <v>48395</v>
       </c>
       <c r="B99" t="n">
-        <v>145881000</v>
+        <v>194217000</v>
       </c>
       <c r="C99" t="n">
-        <v>43764000</v>
+        <v>58264500</v>
       </c>
       <c r="D99" t="n">
-        <v>43764000</v>
+        <v>58264500</v>
       </c>
       <c r="E99" t="n">
-        <v>58352800</v>
+        <v>77687200</v>
       </c>
       <c r="F99" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G99" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H99" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="100">
@@ -3034,25 +3034,25 @@
         <v>48426</v>
       </c>
       <c r="B100" t="n">
-        <v>146336000</v>
+        <v>189021000</v>
       </c>
       <c r="C100" t="n">
-        <v>43900500</v>
+        <v>56705700</v>
       </c>
       <c r="D100" t="n">
-        <v>43900500</v>
+        <v>56705700</v>
       </c>
       <c r="E100" t="n">
-        <v>58534800</v>
+        <v>75608800</v>
       </c>
       <c r="F100" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G100" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H100" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="101">
@@ -3060,25 +3060,25 @@
         <v>48457</v>
       </c>
       <c r="B101" t="n">
-        <v>146792000</v>
+        <v>183964000</v>
       </c>
       <c r="C101" t="n">
-        <v>44037300</v>
+        <v>55188600</v>
       </c>
       <c r="D101" t="n">
-        <v>44037300</v>
+        <v>55188600</v>
       </c>
       <c r="E101" t="n">
-        <v>58717200</v>
+        <v>73586000</v>
       </c>
       <c r="F101" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G101" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H101" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="102">
@@ -3086,25 +3086,25 @@
         <v>48487</v>
       </c>
       <c r="B102" t="n">
-        <v>147249000</v>
+        <v>179042000</v>
       </c>
       <c r="C102" t="n">
-        <v>44174400</v>
+        <v>53712100</v>
       </c>
       <c r="D102" t="n">
-        <v>44174400</v>
+        <v>53712100</v>
       </c>
       <c r="E102" t="n">
-        <v>58900000</v>
+        <v>71617200</v>
       </c>
       <c r="F102" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G102" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H102" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="103">
@@ -3112,25 +3112,25 @@
         <v>48518</v>
       </c>
       <c r="B103" t="n">
-        <v>151335000</v>
+        <v>174252000</v>
       </c>
       <c r="C103" t="n">
-        <v>45400200</v>
+        <v>52275100</v>
       </c>
       <c r="D103" t="n">
-        <v>45400200</v>
+        <v>52275100</v>
       </c>
       <c r="E103" t="n">
-        <v>60534500</v>
+        <v>69701100</v>
       </c>
       <c r="F103" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G103" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H103" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="104">
@@ -3138,25 +3138,25 @@
         <v>48548</v>
       </c>
       <c r="B104" t="n">
-        <v>155535000</v>
+        <v>169591000</v>
       </c>
       <c r="C104" t="n">
-        <v>46660200</v>
+        <v>50876800</v>
       </c>
       <c r="D104" t="n">
-        <v>46660200</v>
+        <v>50876800</v>
       </c>
       <c r="E104" t="n">
-        <v>62214500</v>
+        <v>67836700</v>
       </c>
       <c r="F104" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G104" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H104" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="105">
@@ -3164,25 +3164,25 @@
         <v>48579</v>
       </c>
       <c r="B105" t="n">
-        <v>159852000</v>
+        <v>165054000</v>
       </c>
       <c r="C105" t="n">
-        <v>47955300</v>
+        <v>49515700</v>
       </c>
       <c r="D105" t="n">
-        <v>47955300</v>
+        <v>49515700</v>
       </c>
       <c r="E105" t="n">
-        <v>63941300</v>
+        <v>66021900</v>
       </c>
       <c r="F105" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G105" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H105" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="106">
@@ -3190,25 +3190,25 @@
         <v>48610</v>
       </c>
       <c r="B106" t="n">
-        <v>164288000</v>
+        <v>165568000</v>
       </c>
       <c r="C106" t="n">
-        <v>49286100</v>
+        <v>49669900</v>
       </c>
       <c r="D106" t="n">
-        <v>49286100</v>
+        <v>49669900</v>
       </c>
       <c r="E106" t="n">
-        <v>65715700</v>
+        <v>66227500</v>
       </c>
       <c r="F106" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G106" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H106" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="107">
@@ -3216,25 +3216,25 @@
         <v>48638</v>
       </c>
       <c r="B107" t="n">
-        <v>168848000</v>
+        <v>166083000</v>
       </c>
       <c r="C107" t="n">
-        <v>50654100</v>
+        <v>49824400</v>
       </c>
       <c r="D107" t="n">
-        <v>50654100</v>
+        <v>49824400</v>
       </c>
       <c r="E107" t="n">
-        <v>67539700</v>
+        <v>66433500</v>
       </c>
       <c r="F107" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G107" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H107" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="108">
@@ -3242,25 +3242,25 @@
         <v>48669</v>
       </c>
       <c r="B108" t="n">
-        <v>174512000</v>
+        <v>166600000</v>
       </c>
       <c r="C108" t="n">
-        <v>52353300</v>
+        <v>49979500</v>
       </c>
       <c r="D108" t="n">
-        <v>52353300</v>
+        <v>49979500</v>
       </c>
       <c r="E108" t="n">
-        <v>69805300</v>
+        <v>66640300</v>
       </c>
       <c r="F108" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G108" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H108" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="109">
@@ -3268,25 +3268,25 @@
         <v>48699</v>
       </c>
       <c r="B109" t="n">
-        <v>180366000</v>
+        <v>167119000</v>
       </c>
       <c r="C109" t="n">
-        <v>54109400</v>
+        <v>50135200</v>
       </c>
       <c r="D109" t="n">
-        <v>54109400</v>
+        <v>50135200</v>
       </c>
       <c r="E109" t="n">
-        <v>72146900</v>
+        <v>66847900</v>
       </c>
       <c r="F109" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G109" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H109" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="110">
@@ -3294,25 +3294,25 @@
         <v>48730</v>
       </c>
       <c r="B110" t="n">
-        <v>186416000</v>
+        <v>167639000</v>
       </c>
       <c r="C110" t="n">
-        <v>55924400</v>
+        <v>50291200</v>
       </c>
       <c r="D110" t="n">
-        <v>55924400</v>
+        <v>50291200</v>
       </c>
       <c r="E110" t="n">
-        <v>74567000</v>
+        <v>67055900</v>
       </c>
       <c r="F110" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G110" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H110" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="111">
@@ -3320,25 +3320,25 @@
         <v>48760</v>
       </c>
       <c r="B111" t="n">
-        <v>192670000</v>
+        <v>168161000</v>
       </c>
       <c r="C111" t="n">
-        <v>57800600</v>
+        <v>50447800</v>
       </c>
       <c r="D111" t="n">
-        <v>57800600</v>
+        <v>50447800</v>
       </c>
       <c r="E111" t="n">
-        <v>77068600</v>
+        <v>67264700</v>
       </c>
       <c r="F111" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G111" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H111" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="112">
@@ -3346,25 +3346,25 @@
         <v>48791</v>
       </c>
       <c r="B112" t="n">
-        <v>199132000</v>
+        <v>172827000</v>
       </c>
       <c r="C112" t="n">
-        <v>59739200</v>
+        <v>51847600</v>
       </c>
       <c r="D112" t="n">
-        <v>59739200</v>
+        <v>51847600</v>
       </c>
       <c r="E112" t="n">
-        <v>79653400</v>
+        <v>69131100</v>
       </c>
       <c r="F112" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G112" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H112" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="113">
@@ -3372,25 +3372,25 @@
         <v>48822</v>
       </c>
       <c r="B113" t="n">
-        <v>207454000</v>
+        <v>177623000</v>
       </c>
       <c r="C113" t="n">
-        <v>62235800</v>
+        <v>53286400</v>
       </c>
       <c r="D113" t="n">
-        <v>62235800</v>
+        <v>53286400</v>
       </c>
       <c r="E113" t="n">
-        <v>82982200</v>
+        <v>71049600</v>
       </c>
       <c r="F113" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G113" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H113" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="114">
@@ -3398,25 +3398,25 @@
         <v>48852</v>
       </c>
       <c r="B114" t="n">
-        <v>216124000</v>
+        <v>182552000</v>
       </c>
       <c r="C114" t="n">
-        <v>64836800</v>
+        <v>54765100</v>
       </c>
       <c r="D114" t="n">
-        <v>64836800</v>
+        <v>54765100</v>
       </c>
       <c r="E114" t="n">
-        <v>86450200</v>
+        <v>73021200</v>
       </c>
       <c r="F114" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G114" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H114" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="115">
@@ -3424,25 +3424,25 @@
         <v>48883</v>
       </c>
       <c r="B115" t="n">
-        <v>225156000</v>
+        <v>187618000</v>
       </c>
       <c r="C115" t="n">
-        <v>67546300</v>
+        <v>56284800</v>
       </c>
       <c r="D115" t="n">
-        <v>67546300</v>
+        <v>56284800</v>
       </c>
       <c r="E115" t="n">
-        <v>90063100</v>
+        <v>75047600</v>
       </c>
       <c r="F115" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G115" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H115" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="116">
@@ -3450,25 +3450,25 @@
         <v>48913</v>
       </c>
       <c r="B116" t="n">
-        <v>234566000</v>
+        <v>192824000</v>
       </c>
       <c r="C116" t="n">
-        <v>70369300</v>
+        <v>57846600</v>
       </c>
       <c r="D116" t="n">
-        <v>70369300</v>
+        <v>57846600</v>
       </c>
       <c r="E116" t="n">
-        <v>93827100</v>
+        <v>77130000</v>
       </c>
       <c r="F116" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G116" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H116" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="117">
@@ -3476,25 +3476,25 @@
         <v>48944</v>
       </c>
       <c r="B117" t="n">
-        <v>244369000</v>
+        <v>198175000</v>
       </c>
       <c r="C117" t="n">
-        <v>73310200</v>
+        <v>59451900</v>
       </c>
       <c r="D117" t="n">
-        <v>73310200</v>
+        <v>59451900</v>
       </c>
       <c r="E117" t="n">
-        <v>97748300</v>
+        <v>79270400</v>
       </c>
       <c r="F117" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G117" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H117" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="118">
@@ -3502,25 +3502,25 @@
         <v>48975</v>
       </c>
       <c r="B118" t="n">
-        <v>235091000</v>
+        <v>204822000</v>
       </c>
       <c r="C118" t="n">
-        <v>70526800</v>
+        <v>61446000</v>
       </c>
       <c r="D118" t="n">
-        <v>70526800</v>
+        <v>61446000</v>
       </c>
       <c r="E118" t="n">
-        <v>94037100</v>
+        <v>81929200</v>
       </c>
       <c r="F118" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G118" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H118" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="119">
@@ -3528,25 +3528,25 @@
         <v>49003</v>
       </c>
       <c r="B119" t="n">
-        <v>226164000</v>
+        <v>211692000</v>
       </c>
       <c r="C119" t="n">
-        <v>67848700</v>
+        <v>63507000</v>
       </c>
       <c r="D119" t="n">
-        <v>67848700</v>
+        <v>63507000</v>
       </c>
       <c r="E119" t="n">
-        <v>90466300</v>
+        <v>84677200</v>
       </c>
       <c r="F119" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G119" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H119" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="120">
@@ -3554,25 +3554,25 @@
         <v>49034</v>
       </c>
       <c r="B120" t="n">
-        <v>217577000</v>
+        <v>218792000</v>
       </c>
       <c r="C120" t="n">
-        <v>65272700</v>
+        <v>65636900</v>
       </c>
       <c r="D120" t="n">
-        <v>65272700</v>
+        <v>65636900</v>
       </c>
       <c r="E120" t="n">
-        <v>87031500</v>
+        <v>87517200</v>
       </c>
       <c r="F120" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G120" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H120" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="121">
@@ -3580,25 +3580,25 @@
         <v>49064</v>
       </c>
       <c r="B121" t="n">
-        <v>209316000</v>
+        <v>226130000</v>
       </c>
       <c r="C121" t="n">
-        <v>62794400</v>
+        <v>67838300</v>
       </c>
       <c r="D121" t="n">
-        <v>62794400</v>
+        <v>67838300</v>
       </c>
       <c r="E121" t="n">
-        <v>83727000</v>
+        <v>90452500</v>
       </c>
       <c r="F121" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G121" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H121" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="122">
@@ -3606,25 +3606,25 @@
         <v>49095</v>
       </c>
       <c r="B122" t="n">
-        <v>201368000</v>
+        <v>233715000</v>
       </c>
       <c r="C122" t="n">
-        <v>60410000</v>
+        <v>70113800</v>
       </c>
       <c r="D122" t="n">
-        <v>60410000</v>
+        <v>70113800</v>
       </c>
       <c r="E122" t="n">
-        <v>80547800</v>
+        <v>93486500</v>
       </c>
       <c r="F122" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G122" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H122" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="123">
@@ -3632,25 +3632,25 @@
         <v>49125</v>
       </c>
       <c r="B123" t="n">
-        <v>193722000</v>
+        <v>241554000</v>
       </c>
       <c r="C123" t="n">
-        <v>58116200</v>
+        <v>72465500</v>
       </c>
       <c r="D123" t="n">
-        <v>58116200</v>
+        <v>72465500</v>
       </c>
       <c r="E123" t="n">
-        <v>77489400</v>
+        <v>96622100</v>
       </c>
       <c r="F123" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G123" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H123" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="124">
@@ -3658,25 +3658,25 @@
         <v>49156</v>
       </c>
       <c r="B124" t="n">
-        <v>186367000</v>
+        <v>233859000</v>
       </c>
       <c r="C124" t="n">
-        <v>55909700</v>
+        <v>70157000</v>
       </c>
       <c r="D124" t="n">
-        <v>55909700</v>
+        <v>70157000</v>
       </c>
       <c r="E124" t="n">
-        <v>74547400</v>
+        <v>93544100</v>
       </c>
       <c r="F124" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G124" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H124" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="125">
@@ -3684,25 +3684,25 @@
         <v>49187</v>
       </c>
       <c r="B125" t="n">
-        <v>180430000</v>
+        <v>226410000</v>
       </c>
       <c r="C125" t="n">
-        <v>54128600</v>
+        <v>67922300</v>
       </c>
       <c r="D125" t="n">
-        <v>54128600</v>
+        <v>67922300</v>
       </c>
       <c r="E125" t="n">
-        <v>72172500</v>
+        <v>90564500</v>
       </c>
       <c r="F125" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G125" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H125" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="126">
@@ -3710,25 +3710,25 @@
         <v>49217</v>
       </c>
       <c r="B126" t="n">
-        <v>174683000</v>
+        <v>219198000</v>
       </c>
       <c r="C126" t="n">
-        <v>52404600</v>
+        <v>65758700</v>
       </c>
       <c r="D126" t="n">
-        <v>52404600</v>
+        <v>65758700</v>
       </c>
       <c r="E126" t="n">
-        <v>69873700</v>
+        <v>87679600</v>
       </c>
       <c r="F126" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G126" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H126" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="127">
@@ -3736,25 +3736,25 @@
         <v>49248</v>
       </c>
       <c r="B127" t="n">
-        <v>169119000</v>
+        <v>212216000</v>
       </c>
       <c r="C127" t="n">
-        <v>50735400</v>
+        <v>63664200</v>
       </c>
       <c r="D127" t="n">
-        <v>50735400</v>
+        <v>63664200</v>
       </c>
       <c r="E127" t="n">
-        <v>67648100</v>
+        <v>84886800</v>
       </c>
       <c r="F127" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G127" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H127" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="128">
@@ -3762,25 +3762,25 @@
         <v>49278</v>
       </c>
       <c r="B128" t="n">
-        <v>163732000</v>
+        <v>205456000</v>
       </c>
       <c r="C128" t="n">
-        <v>49119300</v>
+        <v>61636200</v>
       </c>
       <c r="D128" t="n">
-        <v>49119300</v>
+        <v>61636200</v>
       </c>
       <c r="E128" t="n">
-        <v>65493300</v>
+        <v>82182800</v>
       </c>
       <c r="F128" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G128" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H128" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="129">
@@ -3788,25 +3788,25 @@
         <v>49309</v>
       </c>
       <c r="B129" t="n">
-        <v>158517000</v>
+        <v>198911000</v>
       </c>
       <c r="C129" t="n">
-        <v>47554800</v>
+        <v>59672700</v>
       </c>
       <c r="D129" t="n">
-        <v>47554800</v>
+        <v>59672700</v>
       </c>
       <c r="E129" t="n">
-        <v>63407300</v>
+        <v>79564800</v>
       </c>
       <c r="F129" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G129" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H129" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="130">
@@ -3814,25 +3814,25 @@
         <v>49340</v>
       </c>
       <c r="B130" t="n">
-        <v>153468000</v>
+        <v>192575000</v>
       </c>
       <c r="C130" t="n">
-        <v>46040100</v>
+        <v>57771900</v>
       </c>
       <c r="D130" t="n">
-        <v>46040100</v>
+        <v>57771900</v>
       </c>
       <c r="E130" t="n">
-        <v>61387700</v>
+        <v>77030400</v>
       </c>
       <c r="F130" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G130" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H130" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="131">
@@ -3840,25 +3840,25 @@
         <v>49368</v>
       </c>
       <c r="B131" t="n">
-        <v>148580000</v>
+        <v>186441000</v>
       </c>
       <c r="C131" t="n">
-        <v>44573700</v>
+        <v>55931700</v>
       </c>
       <c r="D131" t="n">
-        <v>44573700</v>
+        <v>55931700</v>
       </c>
       <c r="E131" t="n">
-        <v>59432400</v>
+        <v>74576800</v>
       </c>
       <c r="F131" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G131" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H131" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="132">
@@ -3866,25 +3866,25 @@
         <v>49399</v>
       </c>
       <c r="B132" t="n">
-        <v>146520000</v>
+        <v>188415000</v>
       </c>
       <c r="C132" t="n">
-        <v>43955700</v>
+        <v>56523900</v>
       </c>
       <c r="D132" t="n">
-        <v>43955700</v>
+        <v>56523900</v>
       </c>
       <c r="E132" t="n">
-        <v>58608400</v>
+        <v>75366400</v>
       </c>
       <c r="F132" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G132" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H132" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="133">
@@ -3892,25 +3892,25 @@
         <v>49429</v>
       </c>
       <c r="B133" t="n">
-        <v>144489000</v>
+        <v>190411000</v>
       </c>
       <c r="C133" t="n">
-        <v>43346400</v>
+        <v>57122700</v>
       </c>
       <c r="D133" t="n">
-        <v>43346400</v>
+        <v>57122700</v>
       </c>
       <c r="E133" t="n">
-        <v>57796000</v>
+        <v>76164800</v>
       </c>
       <c r="F133" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G133" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H133" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="134">
@@ -3918,25 +3918,25 @@
         <v>49460</v>
       </c>
       <c r="B134" t="n">
-        <v>142486000</v>
+        <v>192428000</v>
       </c>
       <c r="C134" t="n">
-        <v>42745500</v>
+        <v>57727800</v>
       </c>
       <c r="D134" t="n">
-        <v>42745500</v>
+        <v>57727800</v>
       </c>
       <c r="E134" t="n">
-        <v>56994800</v>
+        <v>76971600</v>
       </c>
       <c r="F134" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G134" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H134" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="135">
@@ -3944,25 +3944,25 @@
         <v>49490</v>
       </c>
       <c r="B135" t="n">
-        <v>140510000</v>
+        <v>194466000</v>
       </c>
       <c r="C135" t="n">
-        <v>42152700</v>
+        <v>58339200</v>
       </c>
       <c r="D135" t="n">
-        <v>42152700</v>
+        <v>58339200</v>
       </c>
       <c r="E135" t="n">
-        <v>56204400</v>
+        <v>77786800</v>
       </c>
       <c r="F135" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G135" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H135" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="136">
@@ -3970,25 +3970,25 @@
         <v>49521</v>
       </c>
       <c r="B136" t="n">
-        <v>138562000</v>
+        <v>196525000</v>
       </c>
       <c r="C136" t="n">
-        <v>41568300</v>
+        <v>58956900</v>
       </c>
       <c r="D136" t="n">
-        <v>41568300</v>
+        <v>58956900</v>
       </c>
       <c r="E136" t="n">
-        <v>55425200</v>
+        <v>78610400</v>
       </c>
       <c r="F136" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G136" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H136" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="137">
@@ -3996,25 +3996,25 @@
         <v>49552</v>
       </c>
       <c r="B137" t="n">
-        <v>136641000</v>
+        <v>198606000</v>
       </c>
       <c r="C137" t="n">
-        <v>40992000</v>
+        <v>59581200</v>
       </c>
       <c r="D137" t="n">
-        <v>40992000</v>
+        <v>59581200</v>
       </c>
       <c r="E137" t="n">
-        <v>54656800</v>
+        <v>79442800</v>
       </c>
       <c r="F137" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G137" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H137" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="138">
@@ -4022,25 +4022,25 @@
         <v>49582</v>
       </c>
       <c r="B138" t="n">
-        <v>134747000</v>
+        <v>200709000</v>
       </c>
       <c r="C138" t="n">
-        <v>40423800</v>
+        <v>60212100</v>
       </c>
       <c r="D138" t="n">
-        <v>40423800</v>
+        <v>60212100</v>
       </c>
       <c r="E138" t="n">
-        <v>53899200</v>
+        <v>80284000</v>
       </c>
       <c r="F138" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G138" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H138" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="139">
@@ -4048,25 +4048,25 @@
         <v>49613</v>
       </c>
       <c r="B139" t="n">
-        <v>132879000</v>
+        <v>202835000</v>
       </c>
       <c r="C139" t="n">
-        <v>39863400</v>
+        <v>60849900</v>
       </c>
       <c r="D139" t="n">
-        <v>39863400</v>
+        <v>60849900</v>
       </c>
       <c r="E139" t="n">
-        <v>53152000</v>
+        <v>81134400</v>
       </c>
       <c r="F139" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G139" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H139" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="140">
@@ -4074,25 +4074,25 @@
         <v>49643</v>
       </c>
       <c r="B140" t="n">
-        <v>134148000</v>
+        <v>208465000</v>
       </c>
       <c r="C140" t="n">
-        <v>40244100</v>
+        <v>62538900</v>
       </c>
       <c r="D140" t="n">
-        <v>40244100</v>
+        <v>62538900</v>
       </c>
       <c r="E140" t="n">
-        <v>53659600</v>
+        <v>83386400</v>
       </c>
       <c r="F140" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G140" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H140" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="141">
@@ -4100,25 +4100,25 @@
         <v>49674</v>
       </c>
       <c r="B141" t="n">
-        <v>135429000</v>
+        <v>214251000</v>
       </c>
       <c r="C141" t="n">
-        <v>40628400</v>
+        <v>64274700</v>
       </c>
       <c r="D141" t="n">
-        <v>40628400</v>
+        <v>64274700</v>
       </c>
       <c r="E141" t="n">
-        <v>54172000</v>
+        <v>85700800</v>
       </c>
       <c r="F141" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G141" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H141" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="142">
@@ -4126,25 +4126,25 @@
         <v>49705</v>
       </c>
       <c r="B142" t="n">
-        <v>136722000</v>
+        <v>220198000</v>
       </c>
       <c r="C142" t="n">
-        <v>41016300</v>
+        <v>66058700</v>
       </c>
       <c r="D142" t="n">
-        <v>41016300</v>
+        <v>66058700</v>
       </c>
       <c r="E142" t="n">
-        <v>54689200</v>
+        <v>88079600</v>
       </c>
       <c r="F142" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G142" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H142" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="143">
@@ -4152,25 +4152,25 @@
         <v>49734</v>
       </c>
       <c r="B143" t="n">
-        <v>138028000</v>
+        <v>226310000</v>
       </c>
       <c r="C143" t="n">
-        <v>41408100</v>
+        <v>67892300</v>
       </c>
       <c r="D143" t="n">
-        <v>41408100</v>
+        <v>67892300</v>
       </c>
       <c r="E143" t="n">
-        <v>55211600</v>
+        <v>90524500</v>
       </c>
       <c r="F143" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G143" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H143" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="144">
@@ -4178,25 +4178,25 @@
         <v>49765</v>
       </c>
       <c r="B144" t="n">
-        <v>139346000</v>
+        <v>232591000</v>
       </c>
       <c r="C144" t="n">
-        <v>41803500</v>
+        <v>69776600</v>
       </c>
       <c r="D144" t="n">
-        <v>41803500</v>
+        <v>69776600</v>
       </c>
       <c r="E144" t="n">
-        <v>55738800</v>
+        <v>93036900</v>
       </c>
       <c r="F144" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G144" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H144" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="145">
@@ -4204,25 +4204,25 @@
         <v>49795</v>
       </c>
       <c r="B145" t="n">
-        <v>140676000</v>
+        <v>239047000</v>
       </c>
       <c r="C145" t="n">
-        <v>42202500</v>
+        <v>71713400</v>
       </c>
       <c r="D145" t="n">
-        <v>42202500</v>
+        <v>71713400</v>
       </c>
       <c r="E145" t="n">
-        <v>56270800</v>
+        <v>95619300</v>
       </c>
       <c r="F145" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G145" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H145" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="146">
@@ -4230,25 +4230,25 @@
         <v>49826</v>
       </c>
       <c r="B146" t="n">
-        <v>142019000</v>
+        <v>245682000</v>
       </c>
       <c r="C146" t="n">
-        <v>42605400</v>
+        <v>73703900</v>
       </c>
       <c r="D146" t="n">
-        <v>42605400</v>
+        <v>73703900</v>
       </c>
       <c r="E146" t="n">
-        <v>56808000</v>
+        <v>98273300</v>
       </c>
       <c r="F146" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G146" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H146" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="147">
@@ -4256,25 +4256,25 @@
         <v>49856</v>
       </c>
       <c r="B147" t="n">
-        <v>143375000</v>
+        <v>252501000</v>
       </c>
       <c r="C147" t="n">
-        <v>43012200</v>
+        <v>75749500</v>
       </c>
       <c r="D147" t="n">
-        <v>43012200</v>
+        <v>75749500</v>
       </c>
       <c r="E147" t="n">
-        <v>57350400</v>
+        <v>101001000</v>
       </c>
       <c r="F147" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G147" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H147" t="n">
-        <v>40.0003</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="148">
@@ -4282,25 +4282,25 @@
         <v>49887</v>
       </c>
       <c r="B148" t="n">
-        <v>150197000</v>
+        <v>264515000</v>
       </c>
       <c r="C148" t="n">
-        <v>45058800</v>
+        <v>79353700</v>
       </c>
       <c r="D148" t="n">
-        <v>45058800</v>
+        <v>79353700</v>
       </c>
       <c r="E148" t="n">
-        <v>60079300</v>
+        <v>105807000</v>
       </c>
       <c r="F148" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G148" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H148" t="n">
-        <v>40.0003</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="149">
@@ -4308,25 +4308,25 @@
         <v>49918</v>
       </c>
       <c r="B149" t="n">
-        <v>157344000</v>
+        <v>277100000</v>
       </c>
       <c r="C149" t="n">
-        <v>47202900</v>
+        <v>83129200</v>
       </c>
       <c r="D149" t="n">
-        <v>47202900</v>
+        <v>83129200</v>
       </c>
       <c r="E149" t="n">
-        <v>62938100</v>
+        <v>110841000</v>
       </c>
       <c r="F149" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G149" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H149" t="n">
-        <v>40.0003</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="150">
@@ -4334,22 +4334,22 @@
         <v>49948</v>
       </c>
       <c r="B150" t="n">
-        <v>164830000</v>
+        <v>290285000</v>
       </c>
       <c r="C150" t="n">
-        <v>49448700</v>
+        <v>87084600</v>
       </c>
       <c r="D150" t="n">
-        <v>49448700</v>
+        <v>87084600</v>
       </c>
       <c r="E150" t="n">
-        <v>65932500</v>
+        <v>116115000</v>
       </c>
       <c r="F150" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G150" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H150" t="n">
         <v>40.0003</v>
@@ -4360,25 +4360,25 @@
         <v>49979</v>
       </c>
       <c r="B151" t="n">
-        <v>172673000</v>
+        <v>304097000</v>
       </c>
       <c r="C151" t="n">
-        <v>51801600</v>
+        <v>91228200</v>
       </c>
       <c r="D151" t="n">
-        <v>51801600</v>
+        <v>91228200</v>
       </c>
       <c r="E151" t="n">
-        <v>69069700</v>
+        <v>121640000</v>
       </c>
       <c r="F151" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G151" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H151" t="n">
-        <v>40.0003</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="152">
@@ -4386,25 +4386,25 @@
         <v>50009</v>
       </c>
       <c r="B152" t="n">
-        <v>180890000</v>
+        <v>318566000</v>
       </c>
       <c r="C152" t="n">
-        <v>54266600</v>
+        <v>95568800</v>
       </c>
       <c r="D152" t="n">
-        <v>54266600</v>
+        <v>95568800</v>
       </c>
       <c r="E152" t="n">
-        <v>72356500</v>
+        <v>127428000</v>
       </c>
       <c r="F152" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G152" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H152" t="n">
-        <v>40.0003</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="153">
@@ -4412,25 +4412,25 @@
         <v>50040</v>
       </c>
       <c r="B153" t="n">
-        <v>189497000</v>
+        <v>333724000</v>
       </c>
       <c r="C153" t="n">
-        <v>56848700</v>
+        <v>100116000</v>
       </c>
       <c r="D153" t="n">
-        <v>56848700</v>
+        <v>100116000</v>
       </c>
       <c r="E153" t="n">
-        <v>75799400</v>
+        <v>133491000</v>
       </c>
       <c r="F153" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="G153" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="H153" t="n">
-        <v>40.0003</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="154">
@@ -4438,25 +4438,25 @@
         <v>50071</v>
       </c>
       <c r="B154" t="n">
-        <v>198514000</v>
+        <v>349603000</v>
       </c>
       <c r="C154" t="n">
-        <v>59553800</v>
+        <v>104880000</v>
       </c>
       <c r="D154" t="n">
-        <v>59553800</v>
+        <v>104880000</v>
       </c>
       <c r="E154" t="n">
-        <v>79406200</v>
+        <v>139843000</v>
       </c>
       <c r="F154" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G154" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H154" t="n">
-        <v>40.0003</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="155">
@@ -4464,25 +4464,25 @@
         <v>50099</v>
       </c>
       <c r="B155" t="n">
-        <v>207959000</v>
+        <v>366238000</v>
       </c>
       <c r="C155" t="n">
-        <v>62387300</v>
+        <v>109870000</v>
       </c>
       <c r="D155" t="n">
-        <v>62387300</v>
+        <v>109870000</v>
       </c>
       <c r="E155" t="n">
-        <v>83184200</v>
+        <v>146497000</v>
       </c>
       <c r="F155" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="G155" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="H155" t="n">
-        <v>40.0003</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="156">
@@ -4490,25 +4490,25 @@
         <v>50130</v>
       </c>
       <c r="B156" t="n">
-        <v>219165000</v>
+        <v>371974000</v>
       </c>
       <c r="C156" t="n">
-        <v>65749100</v>
+        <v>111591000</v>
       </c>
       <c r="D156" t="n">
-        <v>65749100</v>
+        <v>111591000</v>
       </c>
       <c r="E156" t="n">
-        <v>87666700</v>
+        <v>148791000</v>
       </c>
       <c r="F156" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G156" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H156" t="n">
-        <v>40.0003</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="157">
@@ -4516,25 +4516,25 @@
         <v>50160</v>
       </c>
       <c r="B157" t="n">
-        <v>230976000</v>
+        <v>377800000</v>
       </c>
       <c r="C157" t="n">
-        <v>69292300</v>
+        <v>113339000</v>
       </c>
       <c r="D157" t="n">
-        <v>69292300</v>
+        <v>113339000</v>
       </c>
       <c r="E157" t="n">
-        <v>92391100</v>
+        <v>151122000</v>
       </c>
       <c r="F157" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="G157" t="n">
-        <v>29.9998</v>
+        <v>29.9997</v>
       </c>
       <c r="H157" t="n">
-        <v>40.0003</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="158">
@@ -4542,25 +4542,25 @@
         <v>50191</v>
       </c>
       <c r="B158" t="n">
-        <v>243423000</v>
+        <v>383718000</v>
       </c>
       <c r="C158" t="n">
-        <v>73026400</v>
+        <v>115114000</v>
       </c>
       <c r="D158" t="n">
-        <v>73026400</v>
+        <v>115114000</v>
       </c>
       <c r="E158" t="n">
-        <v>97369900</v>
+        <v>153489000</v>
       </c>
       <c r="F158" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="G158" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="H158" t="n">
-        <v>40.0003</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="159">
@@ -4568,25 +4568,25 @@
         <v>50221</v>
       </c>
       <c r="B159" t="n">
-        <v>256541000</v>
+        <v>389729000</v>
       </c>
       <c r="C159" t="n">
-        <v>76961800</v>
+        <v>116917000</v>
       </c>
       <c r="D159" t="n">
-        <v>76961800</v>
+        <v>116917000</v>
       </c>
       <c r="E159" t="n">
-        <v>102617000</v>
+        <v>155894000</v>
       </c>
       <c r="F159" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="G159" t="n">
-        <v>29.9998</v>
+        <v>29.9996</v>
       </c>
       <c r="H159" t="n">
-        <v>40.0002</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="160">
@@ -4594,25 +4594,25 @@
         <v>50252</v>
       </c>
       <c r="B160" t="n">
-        <v>270365000</v>
+        <v>395833000</v>
       </c>
       <c r="C160" t="n">
-        <v>81109000</v>
+        <v>118748000</v>
       </c>
       <c r="D160" t="n">
-        <v>81109000</v>
+        <v>118748000</v>
       </c>
       <c r="E160" t="n">
-        <v>108147000</v>
+        <v>158336000</v>
       </c>
       <c r="F160" t="n">
-        <v>29.9998</v>
+        <v>29.9995</v>
       </c>
       <c r="G160" t="n">
-        <v>29.9998</v>
+        <v>29.9995</v>
       </c>
       <c r="H160" t="n">
-        <v>40.0004</v>
+        <v>40.0007</v>
       </c>
     </row>
     <row r="161">
@@ -4620,25 +4620,25 @@
         <v>50283</v>
       </c>
       <c r="B161" t="n">
-        <v>284934000</v>
+        <v>402034000</v>
       </c>
       <c r="C161" t="n">
-        <v>85479600</v>
+        <v>120608000</v>
       </c>
       <c r="D161" t="n">
-        <v>85479600</v>
+        <v>120608000</v>
       </c>
       <c r="E161" t="n">
-        <v>113975000</v>
+        <v>160816000</v>
       </c>
       <c r="F161" t="n">
-        <v>29.9998</v>
+        <v>29.9995</v>
       </c>
       <c r="G161" t="n">
-        <v>29.9998</v>
+        <v>29.9995</v>
       </c>
       <c r="H161" t="n">
-        <v>40.0005</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="162">
@@ -4646,25 +4646,25 @@
         <v>50313</v>
       </c>
       <c r="B162" t="n">
-        <v>300289000</v>
+        <v>408331000</v>
       </c>
       <c r="C162" t="n">
-        <v>90086100</v>
+        <v>122497000</v>
       </c>
       <c r="D162" t="n">
-        <v>90086100</v>
+        <v>122497000</v>
       </c>
       <c r="E162" t="n">
-        <v>120117000</v>
+        <v>163335000</v>
       </c>
       <c r="F162" t="n">
-        <v>29.9998</v>
+        <v>29.9994</v>
       </c>
       <c r="G162" t="n">
-        <v>29.9998</v>
+        <v>29.9994</v>
       </c>
       <c r="H162" t="n">
-        <v>40.0005</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="163">
@@ -4672,25 +4672,25 @@
         <v>50344</v>
       </c>
       <c r="B163" t="n">
-        <v>316471000</v>
+        <v>414726000</v>
       </c>
       <c r="C163" t="n">
-        <v>94940700</v>
+        <v>124415000</v>
       </c>
       <c r="D163" t="n">
-        <v>94940700</v>
+        <v>124415000</v>
       </c>
       <c r="E163" t="n">
-        <v>126590000</v>
+        <v>165893000</v>
       </c>
       <c r="F163" t="n">
-        <v>29.9998</v>
+        <v>29.9993</v>
       </c>
       <c r="G163" t="n">
-        <v>29.9998</v>
+        <v>29.9993</v>
       </c>
       <c r="H163" t="n">
-        <v>40.0005</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="164">
@@ -4698,25 +4698,25 @@
         <v>50374</v>
       </c>
       <c r="B164" t="n">
-        <v>323262000</v>
+        <v>421221000</v>
       </c>
       <c r="C164" t="n">
-        <v>96978000</v>
+        <v>126363000</v>
       </c>
       <c r="D164" t="n">
-        <v>96978000</v>
+        <v>126363000</v>
       </c>
       <c r="E164" t="n">
-        <v>129306000</v>
+        <v>168491000</v>
       </c>
       <c r="F164" t="n">
-        <v>29.9998</v>
+        <v>29.9992</v>
       </c>
       <c r="G164" t="n">
-        <v>29.9998</v>
+        <v>29.9992</v>
       </c>
       <c r="H164" t="n">
-        <v>40.0004</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="165">
@@ -4724,25 +4724,25 @@
         <v>50405</v>
       </c>
       <c r="B165" t="n">
-        <v>330198000</v>
+        <v>427816000</v>
       </c>
       <c r="C165" t="n">
-        <v>99058700</v>
+        <v>128341000</v>
       </c>
       <c r="D165" t="n">
-        <v>99058700</v>
+        <v>128341000</v>
       </c>
       <c r="E165" t="n">
-        <v>132081000</v>
+        <v>171129000</v>
       </c>
       <c r="F165" t="n">
-        <v>29.9998</v>
+        <v>29.9991</v>
       </c>
       <c r="G165" t="n">
-        <v>29.9998</v>
+        <v>29.9991</v>
       </c>
       <c r="H165" t="n">
-        <v>40.0005</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="166">
@@ -4750,25 +4750,25 @@
         <v>50436</v>
       </c>
       <c r="B166" t="n">
-        <v>337283000</v>
+        <v>434514000</v>
       </c>
       <c r="C166" t="n">
-        <v>101184000</v>
+        <v>130350000</v>
       </c>
       <c r="D166" t="n">
-        <v>101184000</v>
+        <v>130350000</v>
       </c>
       <c r="E166" t="n">
-        <v>134915000</v>
+        <v>173808000</v>
       </c>
       <c r="F166" t="n">
-        <v>29.9997</v>
+        <v>29.999</v>
       </c>
       <c r="G166" t="n">
-        <v>29.9997</v>
+        <v>29.999</v>
       </c>
       <c r="H166" t="n">
-        <v>40.0005</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="167">
@@ -4776,25 +4776,25 @@
         <v>50464</v>
       </c>
       <c r="B167" t="n">
-        <v>344520000</v>
+        <v>428485000</v>
       </c>
       <c r="C167" t="n">
-        <v>103355000</v>
+        <v>128541000</v>
       </c>
       <c r="D167" t="n">
-        <v>103355000</v>
+        <v>128541000</v>
       </c>
       <c r="E167" t="n">
-        <v>137810000</v>
+        <v>171397000</v>
       </c>
       <c r="F167" t="n">
-        <v>29.9997</v>
+        <v>29.9989</v>
       </c>
       <c r="G167" t="n">
-        <v>29.9997</v>
+        <v>29.9989</v>
       </c>
       <c r="H167" t="n">
-        <v>40.0006</v>
+        <v>40.0007</v>
       </c>
     </row>
     <row r="168">
@@ -4802,25 +4802,25 @@
         <v>50495</v>
       </c>
       <c r="B168" t="n">
-        <v>351913000</v>
+        <v>422540000</v>
       </c>
       <c r="C168" t="n">
-        <v>105573000</v>
+        <v>126757000</v>
       </c>
       <c r="D168" t="n">
-        <v>105573000</v>
+        <v>126757000</v>
       </c>
       <c r="E168" t="n">
-        <v>140767000</v>
+        <v>169019000</v>
       </c>
       <c r="F168" t="n">
-        <v>29.9997</v>
+        <v>29.9988</v>
       </c>
       <c r="G168" t="n">
-        <v>29.9997</v>
+        <v>29.9988</v>
       </c>
       <c r="H168" t="n">
-        <v>40.0005</v>
+        <v>40.0007</v>
       </c>
     </row>
     <row r="169">
@@ -4828,25 +4828,25 @@
         <v>50525</v>
       </c>
       <c r="B169" t="n">
-        <v>359464000</v>
+        <v>416675000</v>
       </c>
       <c r="C169" t="n">
-        <v>107838000</v>
+        <v>124997000</v>
       </c>
       <c r="D169" t="n">
-        <v>107838000</v>
+        <v>124997000</v>
       </c>
       <c r="E169" t="n">
-        <v>143787000</v>
+        <v>166673000</v>
       </c>
       <c r="F169" t="n">
-        <v>29.9997</v>
+        <v>29.9987</v>
       </c>
       <c r="G169" t="n">
-        <v>29.9997</v>
+        <v>29.9987</v>
       </c>
       <c r="H169" t="n">
-        <v>40.0004</v>
+        <v>40.0007</v>
       </c>
     </row>
     <row r="170">
@@ -4854,25 +4854,25 @@
         <v>50556</v>
       </c>
       <c r="B170" t="n">
-        <v>367176000</v>
+        <v>410891000</v>
       </c>
       <c r="C170" t="n">
-        <v>110152000</v>
+        <v>123262000</v>
       </c>
       <c r="D170" t="n">
-        <v>110152000</v>
+        <v>123262000</v>
       </c>
       <c r="E170" t="n">
-        <v>146872000</v>
+        <v>164359000</v>
       </c>
       <c r="F170" t="n">
-        <v>29.9998</v>
+        <v>29.9987</v>
       </c>
       <c r="G170" t="n">
-        <v>29.9998</v>
+        <v>29.9987</v>
       </c>
       <c r="H170" t="n">
-        <v>40.0004</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="171">
@@ -4880,22 +4880,22 @@
         <v>50586</v>
       </c>
       <c r="B171" t="n">
-        <v>375055000</v>
+        <v>405187000</v>
       </c>
       <c r="C171" t="n">
-        <v>112516000</v>
+        <v>121551000</v>
       </c>
       <c r="D171" t="n">
-        <v>112516000</v>
+        <v>121551000</v>
       </c>
       <c r="E171" t="n">
-        <v>150024000</v>
+        <v>162077000</v>
       </c>
       <c r="F171" t="n">
-        <v>29.9999</v>
+        <v>29.9987</v>
       </c>
       <c r="G171" t="n">
-        <v>29.9999</v>
+        <v>29.9987</v>
       </c>
       <c r="H171" t="n">
         <v>40.0005</v>
@@ -4906,25 +4906,25 @@
         <v>50617</v>
       </c>
       <c r="B172" t="n">
-        <v>383103000</v>
+        <v>399562000</v>
       </c>
       <c r="C172" t="n">
-        <v>114931000</v>
+        <v>119863000</v>
       </c>
       <c r="D172" t="n">
-        <v>114931000</v>
+        <v>119863000</v>
       </c>
       <c r="E172" t="n">
-        <v>153243000</v>
+        <v>159827000</v>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>29.9986</v>
       </c>
       <c r="G172" t="n">
-        <v>30</v>
+        <v>29.9986</v>
       </c>
       <c r="H172" t="n">
-        <v>40.0005</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="173">
@@ -4932,25 +4932,25 @@
         <v>50648</v>
       </c>
       <c r="B173" t="n">
-        <v>391326000</v>
+        <v>394014000</v>
       </c>
       <c r="C173" t="n">
-        <v>117398000</v>
+        <v>118199000</v>
       </c>
       <c r="D173" t="n">
-        <v>117398000</v>
+        <v>118199000</v>
       </c>
       <c r="E173" t="n">
-        <v>156532000</v>
+        <v>157608000</v>
       </c>
       <c r="F173" t="n">
-        <v>30.0001</v>
+        <v>29.9987</v>
       </c>
       <c r="G173" t="n">
-        <v>30.0001</v>
+        <v>29.9987</v>
       </c>
       <c r="H173" t="n">
-        <v>40.0004</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="174">
@@ -4958,25 +4958,25 @@
         <v>50678</v>
       </c>
       <c r="B174" t="n">
-        <v>390563000</v>
+        <v>388544000</v>
       </c>
       <c r="C174" t="n">
-        <v>117169000</v>
+        <v>116558000</v>
       </c>
       <c r="D174" t="n">
-        <v>117169000</v>
+        <v>116558000</v>
       </c>
       <c r="E174" t="n">
-        <v>156227000</v>
+        <v>155420000</v>
       </c>
       <c r="F174" t="n">
-        <v>30</v>
+        <v>29.9987</v>
       </c>
       <c r="G174" t="n">
-        <v>30</v>
+        <v>29.9987</v>
       </c>
       <c r="H174" t="n">
-        <v>40.0005</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="175">
@@ -4984,25 +4984,25 @@
         <v>50709</v>
       </c>
       <c r="B175" t="n">
-        <v>389801000</v>
+        <v>383150000</v>
       </c>
       <c r="C175" t="n">
-        <v>116940000</v>
+        <v>114940000</v>
       </c>
       <c r="D175" t="n">
-        <v>116940000</v>
+        <v>114940000</v>
       </c>
       <c r="E175" t="n">
-        <v>155922000</v>
+        <v>153262000</v>
       </c>
       <c r="F175" t="n">
-        <v>29.9999</v>
+        <v>29.9987</v>
       </c>
       <c r="G175" t="n">
-        <v>29.9999</v>
+        <v>29.9987</v>
       </c>
       <c r="H175" t="n">
-        <v>40.0004</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="176">
@@ -5010,22 +5010,22 @@
         <v>50739</v>
       </c>
       <c r="B176" t="n">
-        <v>389039000</v>
+        <v>377831000</v>
       </c>
       <c r="C176" t="n">
-        <v>116711000</v>
+        <v>113344000</v>
       </c>
       <c r="D176" t="n">
-        <v>116711000</v>
+        <v>113344000</v>
       </c>
       <c r="E176" t="n">
-        <v>155617000</v>
+        <v>151134000</v>
       </c>
       <c r="F176" t="n">
-        <v>29.9998</v>
+        <v>29.9986</v>
       </c>
       <c r="G176" t="n">
-        <v>29.9998</v>
+        <v>29.9986</v>
       </c>
       <c r="H176" t="n">
         <v>40.0004</v>
@@ -5036,22 +5036,22 @@
         <v>50770</v>
       </c>
       <c r="B177" t="n">
-        <v>388279000</v>
+        <v>372584000</v>
       </c>
       <c r="C177" t="n">
-        <v>116483000</v>
+        <v>111770000</v>
       </c>
       <c r="D177" t="n">
-        <v>116483000</v>
+        <v>111770000</v>
       </c>
       <c r="E177" t="n">
-        <v>155313000</v>
+        <v>149035000</v>
       </c>
       <c r="F177" t="n">
-        <v>29.9998</v>
+        <v>29.9986</v>
       </c>
       <c r="G177" t="n">
-        <v>29.9998</v>
+        <v>29.9986</v>
       </c>
       <c r="H177" t="n">
         <v>40.0004</v>
@@ -5062,25 +5062,25 @@
         <v>50801</v>
       </c>
       <c r="B178" t="n">
-        <v>387520000</v>
+        <v>367410000</v>
       </c>
       <c r="C178" t="n">
-        <v>116255000</v>
+        <v>110218000</v>
       </c>
       <c r="D178" t="n">
-        <v>116255000</v>
+        <v>110218000</v>
       </c>
       <c r="E178" t="n">
-        <v>155010000</v>
+        <v>146965000</v>
       </c>
       <c r="F178" t="n">
-        <v>29.9997</v>
+        <v>29.9986</v>
       </c>
       <c r="G178" t="n">
-        <v>29.9997</v>
+        <v>29.9986</v>
       </c>
       <c r="H178" t="n">
-        <v>40.0005</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="179">
@@ -5088,25 +5088,25 @@
         <v>50829</v>
       </c>
       <c r="B179" t="n">
-        <v>386762000</v>
+        <v>366683000</v>
       </c>
       <c r="C179" t="n">
-        <v>116027000</v>
+        <v>110000000</v>
       </c>
       <c r="D179" t="n">
-        <v>116027000</v>
+        <v>110000000</v>
       </c>
       <c r="E179" t="n">
-        <v>154707000</v>
+        <v>146674000</v>
       </c>
       <c r="F179" t="n">
-        <v>29.9996</v>
+        <v>29.9987</v>
       </c>
       <c r="G179" t="n">
-        <v>29.9996</v>
+        <v>29.9987</v>
       </c>
       <c r="H179" t="n">
-        <v>40.0006</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="180">
@@ -5114,25 +5114,25 @@
         <v>50860</v>
       </c>
       <c r="B180" t="n">
-        <v>386005000</v>
+        <v>365957000</v>
       </c>
       <c r="C180" t="n">
-        <v>115800000</v>
+        <v>109782000</v>
       </c>
       <c r="D180" t="n">
-        <v>115800000</v>
+        <v>109782000</v>
       </c>
       <c r="E180" t="n">
-        <v>154404000</v>
+        <v>146384000</v>
       </c>
       <c r="F180" t="n">
-        <v>29.9996</v>
+        <v>29.9986</v>
       </c>
       <c r="G180" t="n">
-        <v>29.9996</v>
+        <v>29.9986</v>
       </c>
       <c r="H180" t="n">
-        <v>40.0005</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="181">
@@ -5140,25 +5140,25 @@
         <v>50890</v>
       </c>
       <c r="B181" t="n">
-        <v>385250000</v>
+        <v>365233000</v>
       </c>
       <c r="C181" t="n">
-        <v>115573000</v>
+        <v>109565000</v>
       </c>
       <c r="D181" t="n">
-        <v>115573000</v>
+        <v>109565000</v>
       </c>
       <c r="E181" t="n">
-        <v>154102000</v>
+        <v>146094000</v>
       </c>
       <c r="F181" t="n">
-        <v>29.9995</v>
+        <v>29.9987</v>
       </c>
       <c r="G181" t="n">
-        <v>29.9995</v>
+        <v>29.9987</v>
       </c>
       <c r="H181" t="n">
-        <v>40.0005</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="182">
@@ -5166,25 +5166,25 @@
         <v>50921</v>
       </c>
       <c r="B182" t="n">
-        <v>384495000</v>
+        <v>364510000</v>
       </c>
       <c r="C182" t="n">
-        <v>115347000</v>
+        <v>109348000</v>
       </c>
       <c r="D182" t="n">
-        <v>115347000</v>
+        <v>109348000</v>
       </c>
       <c r="E182" t="n">
-        <v>153800000</v>
+        <v>145805000</v>
       </c>
       <c r="F182" t="n">
-        <v>29.9996</v>
+        <v>29.9986</v>
       </c>
       <c r="G182" t="n">
-        <v>29.9996</v>
+        <v>29.9986</v>
       </c>
       <c r="H182" t="n">
-        <v>40.0005</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="183">
@@ -5192,25 +5192,25 @@
         <v>50951</v>
       </c>
       <c r="B183" t="n">
-        <v>383742000</v>
+        <v>363789000</v>
       </c>
       <c r="C183" t="n">
-        <v>115121000</v>
+        <v>109132000</v>
       </c>
       <c r="D183" t="n">
-        <v>115121000</v>
+        <v>109132000</v>
       </c>
       <c r="E183" t="n">
-        <v>153499000</v>
+        <v>145517000</v>
       </c>
       <c r="F183" t="n">
-        <v>29.9996</v>
+        <v>29.9987</v>
       </c>
       <c r="G183" t="n">
-        <v>29.9996</v>
+        <v>29.9987</v>
       </c>
       <c r="H183" t="n">
-        <v>40.0006</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="184">
@@ -5218,25 +5218,25 @@
         <v>50982</v>
       </c>
       <c r="B184" t="n">
-        <v>382990000</v>
+        <v>363070000</v>
       </c>
       <c r="C184" t="n">
-        <v>114895000</v>
+        <v>108916000</v>
       </c>
       <c r="D184" t="n">
-        <v>114895000</v>
+        <v>108916000</v>
       </c>
       <c r="E184" t="n">
-        <v>153198000</v>
+        <v>145229000</v>
       </c>
       <c r="F184" t="n">
-        <v>29.9995</v>
+        <v>29.9986</v>
       </c>
       <c r="G184" t="n">
-        <v>29.9995</v>
+        <v>29.9986</v>
       </c>
       <c r="H184" t="n">
-        <v>40.0005</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="185">
@@ -5244,25 +5244,25 @@
         <v>51013</v>
       </c>
       <c r="B185" t="n">
-        <v>382239000</v>
+        <v>362351000</v>
       </c>
       <c r="C185" t="n">
-        <v>114670000</v>
+        <v>108700000</v>
       </c>
       <c r="D185" t="n">
-        <v>114670000</v>
+        <v>108700000</v>
       </c>
       <c r="E185" t="n">
-        <v>152898000</v>
+        <v>144941000</v>
       </c>
       <c r="F185" t="n">
-        <v>29.9996</v>
+        <v>29.9985</v>
       </c>
       <c r="G185" t="n">
-        <v>29.9996</v>
+        <v>29.9985</v>
       </c>
       <c r="H185" t="n">
-        <v>40.0006</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="186">
@@ -5270,25 +5270,25 @@
         <v>51043</v>
       </c>
       <c r="B186" t="n">
-        <v>381491000</v>
+        <v>361632000</v>
       </c>
       <c r="C186" t="n">
-        <v>114446000</v>
+        <v>108484000</v>
       </c>
       <c r="D186" t="n">
-        <v>114446000</v>
+        <v>108484000</v>
       </c>
       <c r="E186" t="n">
-        <v>152599000</v>
+        <v>144654000</v>
       </c>
       <c r="F186" t="n">
-        <v>29.9997</v>
+        <v>29.9985</v>
       </c>
       <c r="G186" t="n">
-        <v>29.9997</v>
+        <v>29.9985</v>
       </c>
       <c r="H186" t="n">
-        <v>40.0007</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="187">
@@ -5296,25 +5296,25 @@
         <v>51074</v>
       </c>
       <c r="B187" t="n">
-        <v>380745000</v>
+        <v>360916000</v>
       </c>
       <c r="C187" t="n">
-        <v>114222000</v>
+        <v>108269000</v>
       </c>
       <c r="D187" t="n">
-        <v>114222000</v>
+        <v>108269000</v>
       </c>
       <c r="E187" t="n">
-        <v>152301000</v>
+        <v>144367000</v>
       </c>
       <c r="F187" t="n">
-        <v>29.9996</v>
+        <v>29.9984</v>
       </c>
       <c r="G187" t="n">
-        <v>29.9996</v>
+        <v>29.9984</v>
       </c>
       <c r="H187" t="n">
-        <v>40.0008</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="188">
@@ -5322,25 +5322,25 @@
         <v>51104</v>
       </c>
       <c r="B188" t="n">
-        <v>386710000</v>
+        <v>360199000</v>
       </c>
       <c r="C188" t="n">
-        <v>116011000</v>
+        <v>108054000</v>
       </c>
       <c r="D188" t="n">
-        <v>116011000</v>
+        <v>108054000</v>
       </c>
       <c r="E188" t="n">
-        <v>154687000</v>
+        <v>144080000</v>
       </c>
       <c r="F188" t="n">
-        <v>29.9995</v>
+        <v>29.9984</v>
       </c>
       <c r="G188" t="n">
-        <v>29.9995</v>
+        <v>29.9984</v>
       </c>
       <c r="H188" t="n">
-        <v>40.0008</v>
+        <v>40.0001</v>
       </c>
     </row>
     <row r="189">
@@ -5348,25 +5348,25 @@
         <v>51135</v>
       </c>
       <c r="B189" t="n">
-        <v>392767000</v>
+        <v>359484000</v>
       </c>
       <c r="C189" t="n">
-        <v>117828000</v>
+        <v>107839000</v>
       </c>
       <c r="D189" t="n">
-        <v>117828000</v>
+        <v>107839000</v>
       </c>
       <c r="E189" t="n">
-        <v>157110000</v>
+        <v>143794000</v>
       </c>
       <c r="F189" t="n">
-        <v>29.9995</v>
+        <v>29.9983</v>
       </c>
       <c r="G189" t="n">
-        <v>29.9995</v>
+        <v>29.9983</v>
       </c>
       <c r="H189" t="n">
-        <v>40.0008</v>
+        <v>40.0001</v>
       </c>
     </row>
     <row r="190">
@@ -5374,25 +5374,25 @@
         <v>51166</v>
       </c>
       <c r="B190" t="n">
-        <v>398919000</v>
+        <v>358769000</v>
       </c>
       <c r="C190" t="n">
-        <v>119674000</v>
+        <v>107625000</v>
       </c>
       <c r="D190" t="n">
-        <v>119674000</v>
+        <v>107625000</v>
       </c>
       <c r="E190" t="n">
-        <v>159571000</v>
+        <v>143508000</v>
       </c>
       <c r="F190" t="n">
-        <v>29.9996</v>
+        <v>29.9984</v>
       </c>
       <c r="G190" t="n">
-        <v>29.9996</v>
+        <v>29.9984</v>
       </c>
       <c r="H190" t="n">
-        <v>40.0009</v>
+        <v>40.0001</v>
       </c>
     </row>
     <row r="191">
@@ -5400,25 +5400,25 @@
         <v>51195</v>
       </c>
       <c r="B191" t="n">
-        <v>405169000</v>
+        <v>358057000</v>
       </c>
       <c r="C191" t="n">
-        <v>121549000</v>
+        <v>107411000</v>
       </c>
       <c r="D191" t="n">
-        <v>121549000</v>
+        <v>107411000</v>
       </c>
       <c r="E191" t="n">
-        <v>162071000</v>
+        <v>143223000</v>
       </c>
       <c r="F191" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="G191" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="H191" t="n">
-        <v>40.0008</v>
+        <v>40.0001</v>
       </c>
     </row>
     <row r="192">
@@ -5426,25 +5426,25 @@
         <v>51226</v>
       </c>
       <c r="B192" t="n">
-        <v>411516000</v>
+        <v>357344000</v>
       </c>
       <c r="C192" t="n">
-        <v>123453000</v>
+        <v>107197000</v>
       </c>
       <c r="D192" t="n">
-        <v>123453000</v>
+        <v>107197000</v>
       </c>
       <c r="E192" t="n">
-        <v>164610000</v>
+        <v>142938000</v>
       </c>
       <c r="F192" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="G192" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="H192" t="n">
-        <v>40.0009</v>
+        <v>40.0001</v>
       </c>
     </row>
     <row r="193">
@@ -5452,25 +5452,25 @@
         <v>51256</v>
       </c>
       <c r="B193" t="n">
-        <v>417963000</v>
+        <v>356633000</v>
       </c>
       <c r="C193" t="n">
-        <v>125387000</v>
+        <v>106984000</v>
       </c>
       <c r="D193" t="n">
-        <v>125387000</v>
+        <v>106984000</v>
       </c>
       <c r="E193" t="n">
-        <v>167189000</v>
+        <v>142654000</v>
       </c>
       <c r="F193" t="n">
-        <v>29.9995</v>
+        <v>29.9983</v>
       </c>
       <c r="G193" t="n">
-        <v>29.9995</v>
+        <v>29.9983</v>
       </c>
       <c r="H193" t="n">
-        <v>40.0009</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="194">
@@ -5478,25 +5478,25 @@
         <v>51287</v>
       </c>
       <c r="B194" t="n">
-        <v>424511000</v>
+        <v>355925000</v>
       </c>
       <c r="C194" t="n">
-        <v>127351000</v>
+        <v>106771000</v>
       </c>
       <c r="D194" t="n">
-        <v>127351000</v>
+        <v>106771000</v>
       </c>
       <c r="E194" t="n">
-        <v>169808000</v>
+        <v>142371000</v>
       </c>
       <c r="F194" t="n">
-        <v>29.9995</v>
+        <v>29.9982</v>
       </c>
       <c r="G194" t="n">
-        <v>29.9995</v>
+        <v>29.9982</v>
       </c>
       <c r="H194" t="n">
-        <v>40.0008</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="195">
@@ -5504,25 +5504,25 @@
         <v>51317</v>
       </c>
       <c r="B195" t="n">
-        <v>431161000</v>
+        <v>353157000</v>
       </c>
       <c r="C195" t="n">
-        <v>129346000</v>
+        <v>105941000</v>
       </c>
       <c r="D195" t="n">
-        <v>129346000</v>
+        <v>105941000</v>
       </c>
       <c r="E195" t="n">
-        <v>172468000</v>
+        <v>141264000</v>
       </c>
       <c r="F195" t="n">
-        <v>29.9995</v>
+        <v>29.9983</v>
       </c>
       <c r="G195" t="n">
-        <v>29.9995</v>
+        <v>29.9983</v>
       </c>
       <c r="H195" t="n">
-        <v>40.0008</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="196">
@@ -5530,25 +5530,25 @@
         <v>51348</v>
       </c>
       <c r="B196" t="n">
-        <v>437914000</v>
+        <v>350411000</v>
       </c>
       <c r="C196" t="n">
-        <v>131372000</v>
+        <v>105117000</v>
       </c>
       <c r="D196" t="n">
-        <v>131372000</v>
+        <v>105117000</v>
       </c>
       <c r="E196" t="n">
-        <v>175169000</v>
+        <v>140165000</v>
       </c>
       <c r="F196" t="n">
-        <v>29.9995</v>
+        <v>29.9982</v>
       </c>
       <c r="G196" t="n">
-        <v>29.9995</v>
+        <v>29.9982</v>
       </c>
       <c r="H196" t="n">
-        <v>40.0008</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="197">
@@ -5556,25 +5556,25 @@
         <v>51379</v>
       </c>
       <c r="B197" t="n">
-        <v>444773000</v>
+        <v>347685000</v>
       </c>
       <c r="C197" t="n">
-        <v>133430000</v>
+        <v>104299000</v>
       </c>
       <c r="D197" t="n">
-        <v>133430000</v>
+        <v>104299000</v>
       </c>
       <c r="E197" t="n">
-        <v>177913000</v>
+        <v>139075000</v>
       </c>
       <c r="F197" t="n">
-        <v>29.9996</v>
+        <v>29.9981</v>
       </c>
       <c r="G197" t="n">
-        <v>29.9996</v>
+        <v>29.9981</v>
       </c>
       <c r="H197" t="n">
-        <v>40.0009</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="198">
@@ -5582,25 +5582,25 @@
         <v>51409</v>
       </c>
       <c r="B198" t="n">
-        <v>451741000</v>
+        <v>344980000</v>
       </c>
       <c r="C198" t="n">
-        <v>135520000</v>
+        <v>103487000</v>
       </c>
       <c r="D198" t="n">
-        <v>135520000</v>
+        <v>103487000</v>
       </c>
       <c r="E198" t="n">
-        <v>180700000</v>
+        <v>137993000</v>
       </c>
       <c r="F198" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="G198" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="H198" t="n">
-        <v>40.0008</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="199">
@@ -5608,25 +5608,25 @@
         <v>51440</v>
       </c>
       <c r="B199" t="n">
-        <v>458817000</v>
+        <v>342294000</v>
       </c>
       <c r="C199" t="n">
-        <v>137643000</v>
+        <v>102681000</v>
       </c>
       <c r="D199" t="n">
-        <v>137643000</v>
+        <v>102681000</v>
       </c>
       <c r="E199" t="n">
-        <v>183530000</v>
+        <v>136919000</v>
       </c>
       <c r="F199" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="G199" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="H199" t="n">
-        <v>40.0007</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="200">
@@ -5634,25 +5634,25 @@
         <v>51470</v>
       </c>
       <c r="B200" t="n">
-        <v>466004000</v>
+        <v>339630000</v>
       </c>
       <c r="C200" t="n">
-        <v>139799000</v>
+        <v>101882000</v>
       </c>
       <c r="D200" t="n">
-        <v>139799000</v>
+        <v>101882000</v>
       </c>
       <c r="E200" t="n">
-        <v>186405000</v>
+        <v>135853000</v>
       </c>
       <c r="F200" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="G200" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="H200" t="n">
-        <v>40.0007</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="201">
@@ -5660,25 +5660,25 @@
         <v>51501</v>
       </c>
       <c r="B201" t="n">
-        <v>473304000</v>
+        <v>336986000</v>
       </c>
       <c r="C201" t="n">
-        <v>141989000</v>
+        <v>101089000</v>
       </c>
       <c r="D201" t="n">
-        <v>141989000</v>
+        <v>101089000</v>
       </c>
       <c r="E201" t="n">
-        <v>189325000</v>
+        <v>134795000</v>
       </c>
       <c r="F201" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="G201" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="H201" t="n">
-        <v>40.0007</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="202">
@@ -5686,25 +5686,25 @@
         <v>51532</v>
       </c>
       <c r="B202" t="n">
-        <v>480718000</v>
+        <v>334363000</v>
       </c>
       <c r="C202" t="n">
-        <v>144213000</v>
+        <v>100302000</v>
       </c>
       <c r="D202" t="n">
-        <v>144213000</v>
+        <v>100302000</v>
       </c>
       <c r="E202" t="n">
-        <v>192291000</v>
+        <v>133746000</v>
       </c>
       <c r="F202" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="G202" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="H202" t="n">
-        <v>40.0008</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="203">
@@ -5712,25 +5712,25 @@
         <v>51560</v>
       </c>
       <c r="B203" t="n">
-        <v>494062000</v>
+        <v>331760000</v>
       </c>
       <c r="C203" t="n">
-        <v>148216000</v>
+        <v>99521000</v>
       </c>
       <c r="D203" t="n">
-        <v>148216000</v>
+        <v>99521000</v>
       </c>
       <c r="E203" t="n">
-        <v>197629000</v>
+        <v>132705000</v>
       </c>
       <c r="F203" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="G203" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="H203" t="n">
-        <v>40.0009</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="204">
@@ -5738,25 +5738,25 @@
         <v>51591</v>
       </c>
       <c r="B204" t="n">
-        <v>507777000</v>
+        <v>329178000</v>
       </c>
       <c r="C204" t="n">
-        <v>152331000</v>
+        <v>98746500</v>
       </c>
       <c r="D204" t="n">
-        <v>152331000</v>
+        <v>98746500</v>
       </c>
       <c r="E204" t="n">
-        <v>203115000</v>
+        <v>131672000</v>
       </c>
       <c r="F204" t="n">
-        <v>29.9996</v>
+        <v>29.9979</v>
       </c>
       <c r="G204" t="n">
-        <v>29.9996</v>
+        <v>29.9979</v>
       </c>
       <c r="H204" t="n">
-        <v>40.0008</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="205">
@@ -5764,25 +5764,25 @@
         <v>51621</v>
       </c>
       <c r="B205" t="n">
-        <v>521873000</v>
+        <v>326615000</v>
       </c>
       <c r="C205" t="n">
-        <v>156560000</v>
+        <v>97977600</v>
       </c>
       <c r="D205" t="n">
-        <v>156560000</v>
+        <v>97977600</v>
       </c>
       <c r="E205" t="n">
-        <v>208753000</v>
+        <v>130647000</v>
       </c>
       <c r="F205" t="n">
-        <v>29.9996</v>
+        <v>29.9979</v>
       </c>
       <c r="G205" t="n">
-        <v>29.9996</v>
+        <v>29.9979</v>
       </c>
       <c r="H205" t="n">
-        <v>40.0007</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="206">
@@ -5790,25 +5790,25 @@
         <v>51652</v>
       </c>
       <c r="B206" t="n">
-        <v>536360000</v>
+        <v>324073000</v>
       </c>
       <c r="C206" t="n">
-        <v>160906000</v>
+        <v>97215100</v>
       </c>
       <c r="D206" t="n">
-        <v>160906000</v>
+        <v>97215100</v>
       </c>
       <c r="E206" t="n">
-        <v>214548000</v>
+        <v>129630000</v>
       </c>
       <c r="F206" t="n">
-        <v>29.9996</v>
+        <v>29.9979</v>
       </c>
       <c r="G206" t="n">
-        <v>29.9996</v>
+        <v>29.9979</v>
       </c>
       <c r="H206" t="n">
-        <v>40.0007</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="207">
@@ -5816,25 +5816,25 @@
         <v>51682</v>
       </c>
       <c r="B207" t="n">
-        <v>551250000</v>
+        <v>321550000</v>
       </c>
       <c r="C207" t="n">
-        <v>165373000</v>
+        <v>96458200</v>
       </c>
       <c r="D207" t="n">
-        <v>165373000</v>
+        <v>96458200</v>
       </c>
       <c r="E207" t="n">
-        <v>220504000</v>
+        <v>128621000</v>
       </c>
       <c r="F207" t="n">
-        <v>29.9996</v>
+        <v>29.9979</v>
       </c>
       <c r="G207" t="n">
-        <v>29.9996</v>
+        <v>29.9979</v>
       </c>
       <c r="H207" t="n">
-        <v>40.0007</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="208">
@@ -5842,25 +5842,25 @@
         <v>51713</v>
       </c>
       <c r="B208" t="n">
-        <v>566553000</v>
+        <v>319047000</v>
       </c>
       <c r="C208" t="n">
-        <v>169964000</v>
+        <v>95707400</v>
       </c>
       <c r="D208" t="n">
-        <v>169964000</v>
+        <v>95707400</v>
       </c>
       <c r="E208" t="n">
-        <v>226625000</v>
+        <v>127620000</v>
       </c>
       <c r="F208" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="G208" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="H208" t="n">
-        <v>40.0007</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="209">
@@ -5868,25 +5868,25 @@
         <v>51744</v>
       </c>
       <c r="B209" t="n">
-        <v>582282000</v>
+        <v>316564000</v>
       </c>
       <c r="C209" t="n">
-        <v>174683000</v>
+        <v>94962600</v>
       </c>
       <c r="D209" t="n">
-        <v>174683000</v>
+        <v>94962600</v>
       </c>
       <c r="E209" t="n">
-        <v>232917000</v>
+        <v>126627000</v>
       </c>
       <c r="F209" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="G209" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="H209" t="n">
-        <v>40.0007</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="210">
@@ -5894,25 +5894,25 @@
         <v>51774</v>
       </c>
       <c r="B210" t="n">
-        <v>598448000</v>
+        <v>314100000</v>
       </c>
       <c r="C210" t="n">
-        <v>179533000</v>
+        <v>94223400</v>
       </c>
       <c r="D210" t="n">
-        <v>179533000</v>
+        <v>94223400</v>
       </c>
       <c r="E210" t="n">
-        <v>239383000</v>
+        <v>125641000</v>
       </c>
       <c r="F210" t="n">
-        <v>29.9998</v>
+        <v>29.9979</v>
       </c>
       <c r="G210" t="n">
-        <v>29.9998</v>
+        <v>29.9979</v>
       </c>
       <c r="H210" t="n">
-        <v>40.0006</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="211">
@@ -5920,25 +5920,25 @@
         <v>51805</v>
       </c>
       <c r="B211" t="n">
-        <v>615062000</v>
+        <v>311655000</v>
       </c>
       <c r="C211" t="n">
-        <v>184517000</v>
+        <v>93490000</v>
       </c>
       <c r="D211" t="n">
-        <v>184517000</v>
+        <v>93490000</v>
       </c>
       <c r="E211" t="n">
-        <v>246028000</v>
+        <v>124663000</v>
       </c>
       <c r="F211" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="G211" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="H211" t="n">
-        <v>40.0005</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="212">
@@ -5946,25 +5946,25 @@
         <v>51835</v>
       </c>
       <c r="B212" t="n">
-        <v>632137000</v>
+        <v>309230000</v>
       </c>
       <c r="C212" t="n">
-        <v>189639000</v>
+        <v>92762500</v>
       </c>
       <c r="D212" t="n">
-        <v>189639000</v>
+        <v>92762500</v>
       </c>
       <c r="E212" t="n">
-        <v>252858000</v>
+        <v>123693000</v>
       </c>
       <c r="F212" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="G212" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="H212" t="n">
-        <v>40.0005</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="213">
@@ -5972,25 +5972,25 @@
         <v>51866</v>
       </c>
       <c r="B213" t="n">
-        <v>649684000</v>
+        <v>306823000</v>
       </c>
       <c r="C213" t="n">
-        <v>194903000</v>
+        <v>92040500</v>
       </c>
       <c r="D213" t="n">
-        <v>194903000</v>
+        <v>92040500</v>
       </c>
       <c r="E213" t="n">
-        <v>259877000</v>
+        <v>122730000</v>
       </c>
       <c r="F213" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="G213" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="H213" t="n">
-        <v>40.0005</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="214">
@@ -5998,25 +5998,25 @@
         <v>51897</v>
       </c>
       <c r="B214" t="n">
-        <v>667719000</v>
+        <v>313394000</v>
       </c>
       <c r="C214" t="n">
-        <v>200314000</v>
+        <v>94011600</v>
       </c>
       <c r="D214" t="n">
-        <v>200314000</v>
+        <v>94011600</v>
       </c>
       <c r="E214" t="n">
-        <v>267091000</v>
+        <v>125359000</v>
       </c>
       <c r="F214" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="G214" t="n">
-        <v>29.9997</v>
+        <v>29.9979</v>
       </c>
       <c r="H214" t="n">
-        <v>40.0005</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="215">
@@ -6024,22 +6024,22 @@
         <v>51925</v>
       </c>
       <c r="B215" t="n">
-        <v>686255000</v>
+        <v>320107000</v>
       </c>
       <c r="C215" t="n">
-        <v>205874000</v>
+        <v>96025400</v>
       </c>
       <c r="D215" t="n">
-        <v>205874000</v>
+        <v>96025400</v>
       </c>
       <c r="E215" t="n">
-        <v>274505000</v>
+        <v>128044000</v>
       </c>
       <c r="F215" t="n">
-        <v>29.9996</v>
+        <v>29.9979</v>
       </c>
       <c r="G215" t="n">
-        <v>29.9996</v>
+        <v>29.9979</v>
       </c>
       <c r="H215" t="n">
         <v>40.0004</v>
@@ -6050,25 +6050,25 @@
         <v>51956</v>
       </c>
       <c r="B216" t="n">
-        <v>705304000</v>
+        <v>326963000</v>
       </c>
       <c r="C216" t="n">
-        <v>211588000</v>
+        <v>98082000</v>
       </c>
       <c r="D216" t="n">
-        <v>211588000</v>
+        <v>98082000</v>
       </c>
       <c r="E216" t="n">
-        <v>282124000</v>
+        <v>130787000</v>
       </c>
       <c r="F216" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="G216" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="H216" t="n">
-        <v>40.0003</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="217">
@@ -6076,25 +6076,25 @@
         <v>51986</v>
       </c>
       <c r="B217" t="n">
-        <v>724879000</v>
+        <v>333966000</v>
       </c>
       <c r="C217" t="n">
-        <v>217460000</v>
+        <v>100183000</v>
       </c>
       <c r="D217" t="n">
-        <v>217460000</v>
+        <v>100183000</v>
       </c>
       <c r="E217" t="n">
-        <v>289954000</v>
+        <v>133588000</v>
       </c>
       <c r="F217" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="G217" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="H217" t="n">
-        <v>40.0003</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="218">
@@ -6102,25 +6102,25 @@
         <v>52017</v>
       </c>
       <c r="B218" t="n">
-        <v>719259000</v>
+        <v>341119000</v>
       </c>
       <c r="C218" t="n">
-        <v>215774000</v>
+        <v>102329000</v>
       </c>
       <c r="D218" t="n">
-        <v>215774000</v>
+        <v>102329000</v>
       </c>
       <c r="E218" t="n">
-        <v>287706000</v>
+        <v>136449000</v>
       </c>
       <c r="F218" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="G218" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="H218" t="n">
-        <v>40.0003</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="219">
@@ -6128,25 +6128,25 @@
         <v>52047</v>
       </c>
       <c r="B219" t="n">
-        <v>713683000</v>
+        <v>348426000</v>
       </c>
       <c r="C219" t="n">
-        <v>214101000</v>
+        <v>104521000</v>
       </c>
       <c r="D219" t="n">
-        <v>214101000</v>
+        <v>104521000</v>
       </c>
       <c r="E219" t="n">
-        <v>285475000</v>
+        <v>139372000</v>
       </c>
       <c r="F219" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="G219" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="H219" t="n">
-        <v>40.0003</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="220">
@@ -6154,25 +6154,25 @@
         <v>52078</v>
       </c>
       <c r="B220" t="n">
-        <v>708149000</v>
+        <v>355891000</v>
       </c>
       <c r="C220" t="n">
-        <v>212441000</v>
+        <v>106760000</v>
       </c>
       <c r="D220" t="n">
-        <v>212441000</v>
+        <v>106760000</v>
       </c>
       <c r="E220" t="n">
-        <v>283262000</v>
+        <v>142358000</v>
       </c>
       <c r="F220" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="G220" t="n">
-        <v>29.9995</v>
+        <v>29.9979</v>
       </c>
       <c r="H220" t="n">
-        <v>40.0003</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="221">
@@ -6180,25 +6180,25 @@
         <v>52109</v>
       </c>
       <c r="B221" t="n">
-        <v>702658000</v>
+        <v>363514000</v>
       </c>
       <c r="C221" t="n">
-        <v>210794000</v>
+        <v>109047000</v>
       </c>
       <c r="D221" t="n">
-        <v>210794000</v>
+        <v>109047000</v>
       </c>
       <c r="E221" t="n">
-        <v>281065000</v>
+        <v>145407000</v>
       </c>
       <c r="F221" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="G221" t="n">
-        <v>29.9995</v>
+        <v>29.998</v>
       </c>
       <c r="H221" t="n">
-        <v>40.0003</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="222">
@@ -6206,25 +6206,25 @@
         <v>52139</v>
       </c>
       <c r="B222" t="n">
-        <v>697211000</v>
+        <v>371300000</v>
       </c>
       <c r="C222" t="n">
-        <v>209160000</v>
+        <v>111383000</v>
       </c>
       <c r="D222" t="n">
-        <v>209160000</v>
+        <v>111383000</v>
       </c>
       <c r="E222" t="n">
-        <v>278886000</v>
+        <v>148521000</v>
       </c>
       <c r="F222" t="n">
-        <v>29.9995</v>
+        <v>29.9981</v>
       </c>
       <c r="G222" t="n">
-        <v>29.9995</v>
+        <v>29.9981</v>
       </c>
       <c r="H222" t="n">
-        <v>40.0002</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="223">
@@ -6232,25 +6232,25 @@
         <v>52170</v>
       </c>
       <c r="B223" t="n">
-        <v>691806000</v>
+        <v>379254000</v>
       </c>
       <c r="C223" t="n">
-        <v>207538000</v>
+        <v>113769000</v>
       </c>
       <c r="D223" t="n">
-        <v>207538000</v>
+        <v>113769000</v>
       </c>
       <c r="E223" t="n">
-        <v>276724000</v>
+        <v>151703000</v>
       </c>
       <c r="F223" t="n">
-        <v>29.9995</v>
+        <v>29.9981</v>
       </c>
       <c r="G223" t="n">
-        <v>29.9995</v>
+        <v>29.9981</v>
       </c>
       <c r="H223" t="n">
-        <v>40.0002</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="224">
@@ -6258,25 +6258,25 @@
         <v>52200</v>
       </c>
       <c r="B224" t="n">
-        <v>686441000</v>
+        <v>387378000</v>
       </c>
       <c r="C224" t="n">
-        <v>205929000</v>
+        <v>116206000</v>
       </c>
       <c r="D224" t="n">
-        <v>205929000</v>
+        <v>116206000</v>
       </c>
       <c r="E224" t="n">
-        <v>274578000</v>
+        <v>154953000</v>
       </c>
       <c r="F224" t="n">
-        <v>29.9995</v>
+        <v>29.9981</v>
       </c>
       <c r="G224" t="n">
-        <v>29.9995</v>
+        <v>29.9981</v>
       </c>
       <c r="H224" t="n">
-        <v>40.0002</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="225">
@@ -6284,25 +6284,25 @@
         <v>52231</v>
       </c>
       <c r="B225" t="n">
-        <v>681119000</v>
+        <v>395677000</v>
       </c>
       <c r="C225" t="n">
-        <v>204332000</v>
+        <v>118696000</v>
       </c>
       <c r="D225" t="n">
-        <v>204332000</v>
+        <v>118696000</v>
       </c>
       <c r="E225" t="n">
-        <v>272449000</v>
+        <v>158273000</v>
       </c>
       <c r="F225" t="n">
-        <v>29.9995</v>
+        <v>29.9982</v>
       </c>
       <c r="G225" t="n">
-        <v>29.9995</v>
+        <v>29.9982</v>
       </c>
       <c r="H225" t="n">
-        <v>40.0002</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="226">
@@ -6310,25 +6310,25 @@
         <v>52262</v>
       </c>
       <c r="B226" t="n">
-        <v>675837000</v>
+        <v>404155000</v>
       </c>
       <c r="C226" t="n">
-        <v>202748000</v>
+        <v>121239000</v>
       </c>
       <c r="D226" t="n">
-        <v>202748000</v>
+        <v>121239000</v>
       </c>
       <c r="E226" t="n">
-        <v>270336000</v>
+        <v>161664000</v>
       </c>
       <c r="F226" t="n">
-        <v>29.9995</v>
+        <v>29.9981</v>
       </c>
       <c r="G226" t="n">
-        <v>29.9995</v>
+        <v>29.9981</v>
       </c>
       <c r="H226" t="n">
-        <v>40.0002</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="227">
@@ -6336,25 +6336,25 @@
         <v>52290</v>
       </c>
       <c r="B227" t="n">
-        <v>670597000</v>
+        <v>412813000</v>
       </c>
       <c r="C227" t="n">
-        <v>201176000</v>
+        <v>123836000</v>
       </c>
       <c r="D227" t="n">
-        <v>201176000</v>
+        <v>123836000</v>
       </c>
       <c r="E227" t="n">
-        <v>268240000</v>
+        <v>165127000</v>
       </c>
       <c r="F227" t="n">
-        <v>29.9995</v>
+        <v>29.9981</v>
       </c>
       <c r="G227" t="n">
-        <v>29.9995</v>
+        <v>29.9981</v>
       </c>
       <c r="H227" t="n">
-        <v>40.0002</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="228">
@@ -6362,25 +6362,25 @@
         <v>52321</v>
       </c>
       <c r="B228" t="n">
-        <v>665398000</v>
+        <v>421656000</v>
       </c>
       <c r="C228" t="n">
-        <v>199616000</v>
+        <v>126489000</v>
       </c>
       <c r="D228" t="n">
-        <v>199616000</v>
+        <v>126489000</v>
       </c>
       <c r="E228" t="n">
-        <v>266161000</v>
+        <v>168664000</v>
       </c>
       <c r="F228" t="n">
-        <v>29.9995</v>
+        <v>29.9982</v>
       </c>
       <c r="G228" t="n">
-        <v>29.9995</v>
+        <v>29.9982</v>
       </c>
       <c r="H228" t="n">
-        <v>40.0003</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="229">
@@ -6388,25 +6388,25 @@
         <v>52351</v>
       </c>
       <c r="B229" t="n">
-        <v>660239000</v>
+        <v>430689000</v>
       </c>
       <c r="C229" t="n">
-        <v>198068000</v>
+        <v>129199000</v>
       </c>
       <c r="D229" t="n">
-        <v>198068000</v>
+        <v>129199000</v>
       </c>
       <c r="E229" t="n">
-        <v>264098000</v>
+        <v>172277000</v>
       </c>
       <c r="F229" t="n">
-        <v>29.9994</v>
+        <v>29.9982</v>
       </c>
       <c r="G229" t="n">
-        <v>29.9994</v>
+        <v>29.9982</v>
       </c>
       <c r="H229" t="n">
-        <v>40.0004</v>
+        <v>40.0003</v>
       </c>
     </row>
     <row r="230">
@@ -6414,25 +6414,25 @@
         <v>52382</v>
       </c>
       <c r="B230" t="n">
-        <v>655120000</v>
+        <v>439916000</v>
       </c>
       <c r="C230" t="n">
-        <v>196532000</v>
+        <v>131967000</v>
       </c>
       <c r="D230" t="n">
-        <v>196532000</v>
+        <v>131967000</v>
       </c>
       <c r="E230" t="n">
-        <v>262051000</v>
+        <v>175968000</v>
       </c>
       <c r="F230" t="n">
-        <v>29.9994</v>
+        <v>29.9982</v>
       </c>
       <c r="G230" t="n">
-        <v>29.9994</v>
+        <v>29.9982</v>
       </c>
       <c r="H230" t="n">
-        <v>40.0005</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="231">
@@ -6440,25 +6440,25 @@
         <v>52412</v>
       </c>
       <c r="B231" t="n">
-        <v>650041000</v>
+        <v>449341000</v>
       </c>
       <c r="C231" t="n">
-        <v>195008000</v>
+        <v>134794000</v>
       </c>
       <c r="D231" t="n">
-        <v>195008000</v>
+        <v>134794000</v>
       </c>
       <c r="E231" t="n">
-        <v>260020000</v>
+        <v>179738000</v>
       </c>
       <c r="F231" t="n">
-        <v>29.9993</v>
+        <v>29.9982</v>
       </c>
       <c r="G231" t="n">
-        <v>29.9993</v>
+        <v>29.9982</v>
       </c>
       <c r="H231" t="n">
-        <v>40.0006</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="232">
@@ -6466,25 +6466,25 @@
         <v>52443</v>
       </c>
       <c r="B232" t="n">
-        <v>645001000</v>
+        <v>458967000</v>
       </c>
       <c r="C232" t="n">
-        <v>193496000</v>
+        <v>137682000</v>
       </c>
       <c r="D232" t="n">
-        <v>193496000</v>
+        <v>137682000</v>
       </c>
       <c r="E232" t="n">
-        <v>258004000</v>
+        <v>183589000</v>
       </c>
       <c r="F232" t="n">
-        <v>29.9993</v>
+        <v>29.9982</v>
       </c>
       <c r="G232" t="n">
-        <v>29.9993</v>
+        <v>29.9982</v>
       </c>
       <c r="H232" t="n">
-        <v>40.0006</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="233">
@@ -6492,22 +6492,22 @@
         <v>52474</v>
       </c>
       <c r="B233" t="n">
-        <v>640000000</v>
+        <v>468801000</v>
       </c>
       <c r="C233" t="n">
-        <v>191996000</v>
+        <v>140632000</v>
       </c>
       <c r="D233" t="n">
-        <v>191996000</v>
+        <v>140632000</v>
       </c>
       <c r="E233" t="n">
-        <v>256004000</v>
+        <v>187523000</v>
       </c>
       <c r="F233" t="n">
-        <v>29.9994</v>
+        <v>29.9982</v>
       </c>
       <c r="G233" t="n">
-        <v>29.9994</v>
+        <v>29.9982</v>
       </c>
       <c r="H233" t="n">
         <v>40.0006</v>
@@ -6518,25 +6518,25 @@
         <v>52504</v>
       </c>
       <c r="B234" t="n">
-        <v>635038000</v>
+        <v>478846000</v>
       </c>
       <c r="C234" t="n">
-        <v>190508000</v>
+        <v>143645000</v>
       </c>
       <c r="D234" t="n">
-        <v>190508000</v>
+        <v>143645000</v>
       </c>
       <c r="E234" t="n">
-        <v>254019000</v>
+        <v>191541000</v>
       </c>
       <c r="F234" t="n">
-        <v>29.9995</v>
+        <v>29.9982</v>
       </c>
       <c r="G234" t="n">
-        <v>29.9995</v>
+        <v>29.9982</v>
       </c>
       <c r="H234" t="n">
-        <v>40.0006</v>
+        <v>40.0005</v>
       </c>
     </row>
     <row r="235">
@@ -6544,25 +6544,25 @@
         <v>52535</v>
       </c>
       <c r="B235" t="n">
-        <v>630116000</v>
+        <v>489105000</v>
       </c>
       <c r="C235" t="n">
-        <v>189032000</v>
+        <v>146723000</v>
       </c>
       <c r="D235" t="n">
-        <v>189032000</v>
+        <v>146723000</v>
       </c>
       <c r="E235" t="n">
-        <v>252050000</v>
+        <v>195644000</v>
       </c>
       <c r="F235" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="G235" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="H235" t="n">
-        <v>40.0006</v>
+        <v>40.0004</v>
       </c>
     </row>
     <row r="236">
@@ -6570,22 +6570,22 @@
         <v>52565</v>
       </c>
       <c r="B236" t="n">
-        <v>625234000</v>
+        <v>499584000</v>
       </c>
       <c r="C236" t="n">
-        <v>187568000</v>
+        <v>149867000</v>
       </c>
       <c r="D236" t="n">
-        <v>187568000</v>
+        <v>149867000</v>
       </c>
       <c r="E236" t="n">
-        <v>250097000</v>
+        <v>199836000</v>
       </c>
       <c r="F236" t="n">
-        <v>29.9996</v>
+        <v>29.9984</v>
       </c>
       <c r="G236" t="n">
-        <v>29.9996</v>
+        <v>29.9984</v>
       </c>
       <c r="H236" t="n">
         <v>40.0005</v>
@@ -6596,25 +6596,25 @@
         <v>52596</v>
       </c>
       <c r="B237" t="n">
-        <v>620390000</v>
+        <v>510290000</v>
       </c>
       <c r="C237" t="n">
-        <v>186115000</v>
+        <v>153079000</v>
       </c>
       <c r="D237" t="n">
-        <v>186115000</v>
+        <v>153079000</v>
       </c>
       <c r="E237" t="n">
-        <v>248159000</v>
+        <v>204119000</v>
       </c>
       <c r="F237" t="n">
-        <v>29.9997</v>
+        <v>29.9984</v>
       </c>
       <c r="G237" t="n">
-        <v>29.9997</v>
+        <v>29.9984</v>
       </c>
       <c r="H237" t="n">
-        <v>40.0005</v>
+        <v>40.0006</v>
       </c>
     </row>
     <row r="238">
@@ -6622,25 +6622,25 @@
         <v>52627</v>
       </c>
       <c r="B238" t="n">
-        <v>615584000</v>
+        <v>521226000</v>
       </c>
       <c r="C238" t="n">
-        <v>184673000</v>
+        <v>156359000</v>
       </c>
       <c r="D238" t="n">
-        <v>184673000</v>
+        <v>156359000</v>
       </c>
       <c r="E238" t="n">
-        <v>246237000</v>
+        <v>208494000</v>
       </c>
       <c r="F238" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="G238" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="H238" t="n">
-        <v>40.0006</v>
+        <v>40.0007</v>
       </c>
     </row>
     <row r="239">
@@ -6648,25 +6648,25 @@
         <v>52656</v>
       </c>
       <c r="B239" t="n">
-        <v>610814000</v>
+        <v>532396000</v>
       </c>
       <c r="C239" t="n">
-        <v>183242000</v>
+        <v>159710000</v>
       </c>
       <c r="D239" t="n">
-        <v>183242000</v>
+        <v>159710000</v>
       </c>
       <c r="E239" t="n">
-        <v>244329000</v>
+        <v>212962000</v>
       </c>
       <c r="F239" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="G239" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="H239" t="n">
-        <v>40.0006</v>
+        <v>40.0007</v>
       </c>
     </row>
     <row r="240">
@@ -6674,25 +6674,25 @@
         <v>52687</v>
       </c>
       <c r="B240" t="n">
-        <v>606082000</v>
+        <v>543805000</v>
       </c>
       <c r="C240" t="n">
-        <v>181822000</v>
+        <v>163132000</v>
       </c>
       <c r="D240" t="n">
-        <v>181822000</v>
+        <v>163132000</v>
       </c>
       <c r="E240" t="n">
-        <v>242436000</v>
+        <v>217526000</v>
       </c>
       <c r="F240" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="G240" t="n">
-        <v>29.9996</v>
+        <v>29.9983</v>
       </c>
       <c r="H240" t="n">
-        <v>40.0005</v>
+        <v>40.0007</v>
       </c>
     </row>
   </sheetData>

--- a/data/monetary.xlsx
+++ b/data/monetary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,19 +483,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B2" t="n">
-        <v>93830800</v>
+        <v>95084300</v>
       </c>
       <c r="C2" t="n">
-        <v>28149200</v>
+        <v>28525300</v>
       </c>
       <c r="D2" t="n">
-        <v>28149200</v>
+        <v>28525300</v>
       </c>
       <c r="E2" t="n">
-        <v>37532300</v>
+        <v>38033700</v>
       </c>
       <c r="F2" t="n">
         <v>30</v>
@@ -509,19 +509,19 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B3" t="n">
-        <v>89348900</v>
+        <v>91820700</v>
       </c>
       <c r="C3" t="n">
-        <v>26804700</v>
+        <v>27546200</v>
       </c>
       <c r="D3" t="n">
-        <v>26804700</v>
+        <v>27546200</v>
       </c>
       <c r="E3" t="n">
-        <v>35739600</v>
+        <v>36728300</v>
       </c>
       <c r="F3" t="n">
         <v>30</v>
@@ -535,19 +535,19 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B4" t="n">
-        <v>87583800</v>
+        <v>89056600</v>
       </c>
       <c r="C4" t="n">
-        <v>26275100</v>
+        <v>26717000</v>
       </c>
       <c r="D4" t="n">
-        <v>26275100</v>
+        <v>26717000</v>
       </c>
       <c r="E4" t="n">
-        <v>35033500</v>
+        <v>35622600</v>
       </c>
       <c r="F4" t="n">
         <v>30</v>
@@ -561,19 +561,19 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B5" t="n">
-        <v>86982000</v>
+        <v>87443700</v>
       </c>
       <c r="C5" t="n">
-        <v>26094600</v>
+        <v>26233100</v>
       </c>
       <c r="D5" t="n">
-        <v>26094600</v>
+        <v>26233100</v>
       </c>
       <c r="E5" t="n">
-        <v>34792800</v>
+        <v>34977500</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
@@ -587,19 +587,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B6" t="n">
-        <v>85414000</v>
+        <v>84720100</v>
       </c>
       <c r="C6" t="n">
-        <v>25624200</v>
+        <v>25416000</v>
       </c>
       <c r="D6" t="n">
-        <v>25624200</v>
+        <v>25416000</v>
       </c>
       <c r="E6" t="n">
-        <v>34165600</v>
+        <v>33888000</v>
       </c>
       <c r="F6" t="n">
         <v>30</v>
@@ -613,19 +613,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B7" t="n">
-        <v>84832600</v>
+        <v>82442100</v>
       </c>
       <c r="C7" t="n">
-        <v>25449800</v>
+        <v>24732600</v>
       </c>
       <c r="D7" t="n">
-        <v>25449800</v>
+        <v>24732600</v>
       </c>
       <c r="E7" t="n">
-        <v>33933000</v>
+        <v>32976800</v>
       </c>
       <c r="F7" t="n">
         <v>30</v>
@@ -639,19 +639,19 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B8" t="n">
-        <v>84721200</v>
+        <v>81242000</v>
       </c>
       <c r="C8" t="n">
-        <v>25416400</v>
+        <v>24372600</v>
       </c>
       <c r="D8" t="n">
-        <v>25416400</v>
+        <v>24372600</v>
       </c>
       <c r="E8" t="n">
-        <v>33888500</v>
+        <v>32496800</v>
       </c>
       <c r="F8" t="n">
         <v>30</v>
@@ -665,19 +665,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B9" t="n">
-        <v>86859200</v>
+        <v>80381000</v>
       </c>
       <c r="C9" t="n">
-        <v>26057800</v>
+        <v>24114300</v>
       </c>
       <c r="D9" t="n">
-        <v>26057800</v>
+        <v>24114300</v>
       </c>
       <c r="E9" t="n">
-        <v>34743700</v>
+        <v>32152400</v>
       </c>
       <c r="F9" t="n">
         <v>30</v>
@@ -691,19 +691,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B10" t="n">
-        <v>87358100</v>
+        <v>80546600</v>
       </c>
       <c r="C10" t="n">
-        <v>26207400</v>
+        <v>24164000</v>
       </c>
       <c r="D10" t="n">
-        <v>26207400</v>
+        <v>24164000</v>
       </c>
       <c r="E10" t="n">
-        <v>34943200</v>
+        <v>32218600</v>
       </c>
       <c r="F10" t="n">
         <v>30</v>
@@ -717,19 +717,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B11" t="n">
-        <v>86413700</v>
+        <v>79926300</v>
       </c>
       <c r="C11" t="n">
-        <v>25924100</v>
+        <v>23977900</v>
       </c>
       <c r="D11" t="n">
-        <v>25924100</v>
+        <v>23977900</v>
       </c>
       <c r="E11" t="n">
-        <v>34565500</v>
+        <v>31970500</v>
       </c>
       <c r="F11" t="n">
         <v>30</v>
@@ -743,25 +743,25 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B12" t="n">
-        <v>87728100</v>
+        <v>80039500</v>
       </c>
       <c r="C12" t="n">
-        <v>26318400</v>
+        <v>24011800</v>
       </c>
       <c r="D12" t="n">
-        <v>26318400</v>
+        <v>24011800</v>
       </c>
       <c r="E12" t="n">
-        <v>35091200</v>
+        <v>32015800</v>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H12" t="n">
         <v>40</v>
@@ -769,25 +769,25 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B13" t="n">
-        <v>90842100</v>
+        <v>80128500</v>
       </c>
       <c r="C13" t="n">
-        <v>27252600</v>
+        <v>24038500</v>
       </c>
       <c r="D13" t="n">
-        <v>27252600</v>
+        <v>24038500</v>
       </c>
       <c r="E13" t="n">
-        <v>36336800</v>
+        <v>32051400</v>
       </c>
       <c r="F13" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G13" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H13" t="n">
         <v>40</v>
@@ -795,25 +795,25 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B14" t="n">
-        <v>94723800</v>
+        <v>82130000</v>
       </c>
       <c r="C14" t="n">
-        <v>28417100</v>
+        <v>24638900</v>
       </c>
       <c r="D14" t="n">
-        <v>28417100</v>
+        <v>24638900</v>
       </c>
       <c r="E14" t="n">
-        <v>37889500</v>
+        <v>32852000</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G14" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H14" t="n">
         <v>40</v>
@@ -821,25 +821,25 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B15" t="n">
-        <v>100502000</v>
+        <v>84519700</v>
       </c>
       <c r="C15" t="n">
-        <v>30150600</v>
+        <v>25355800</v>
       </c>
       <c r="D15" t="n">
-        <v>30150600</v>
+        <v>25355800</v>
       </c>
       <c r="E15" t="n">
-        <v>40200800</v>
+        <v>33807900</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H15" t="n">
         <v>40</v>
@@ -847,25 +847,25 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B16" t="n">
-        <v>105738000</v>
+        <v>87383700</v>
       </c>
       <c r="C16" t="n">
-        <v>31721400</v>
+        <v>26215000</v>
       </c>
       <c r="D16" t="n">
-        <v>31721400</v>
+        <v>26215000</v>
       </c>
       <c r="E16" t="n">
-        <v>42295200</v>
+        <v>34953500</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H16" t="n">
         <v>40</v>
@@ -873,25 +873,25 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B17" t="n">
-        <v>100895000</v>
+        <v>89881700</v>
       </c>
       <c r="C17" t="n">
-        <v>30268500</v>
+        <v>26964400</v>
       </c>
       <c r="D17" t="n">
-        <v>30268500</v>
+        <v>26964400</v>
       </c>
       <c r="E17" t="n">
-        <v>40358000</v>
+        <v>35952700</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G17" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H17" t="n">
         <v>40</v>
@@ -899,25 +899,25 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B18" t="n">
-        <v>96273900</v>
+        <v>92174100</v>
       </c>
       <c r="C18" t="n">
-        <v>28882200</v>
+        <v>27652100</v>
       </c>
       <c r="D18" t="n">
-        <v>28882200</v>
+        <v>27652100</v>
       </c>
       <c r="E18" t="n">
-        <v>38509600</v>
+        <v>36869600</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H18" t="n">
         <v>40</v>
@@ -925,25 +925,25 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B19" t="n">
-        <v>92422000</v>
+        <v>96005900</v>
       </c>
       <c r="C19" t="n">
-        <v>27726600</v>
+        <v>28801700</v>
       </c>
       <c r="D19" t="n">
-        <v>27726600</v>
+        <v>28801700</v>
       </c>
       <c r="E19" t="n">
-        <v>36968800</v>
+        <v>38402400</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G19" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H19" t="n">
         <v>40</v>
@@ -951,25 +951,25 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B20" t="n">
-        <v>88724100</v>
+        <v>100099000</v>
       </c>
       <c r="C20" t="n">
-        <v>26617200</v>
+        <v>30029600</v>
       </c>
       <c r="D20" t="n">
-        <v>26617200</v>
+        <v>30029600</v>
       </c>
       <c r="E20" t="n">
-        <v>35489600</v>
+        <v>40039600</v>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H20" t="n">
         <v>40</v>
@@ -977,25 +977,25 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B21" t="n">
-        <v>86498600</v>
+        <v>105178000</v>
       </c>
       <c r="C21" t="n">
-        <v>25949600</v>
+        <v>31553300</v>
       </c>
       <c r="D21" t="n">
-        <v>25949600</v>
+        <v>31553300</v>
       </c>
       <c r="E21" t="n">
-        <v>34599400</v>
+        <v>42071200</v>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H21" t="n">
         <v>40</v>
@@ -1003,25 +1003,25 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B22" t="n">
-        <v>84329000</v>
+        <v>108277000</v>
       </c>
       <c r="C22" t="n">
-        <v>25298700</v>
+        <v>32483000</v>
       </c>
       <c r="D22" t="n">
-        <v>25298700</v>
+        <v>32483000</v>
       </c>
       <c r="E22" t="n">
-        <v>33731600</v>
+        <v>43310800</v>
       </c>
       <c r="F22" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H22" t="n">
         <v>40</v>
@@ -1029,19 +1029,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B23" t="n">
-        <v>83077500</v>
+        <v>111891000</v>
       </c>
       <c r="C23" t="n">
-        <v>24923200</v>
+        <v>33567200</v>
       </c>
       <c r="D23" t="n">
-        <v>24923200</v>
+        <v>33567200</v>
       </c>
       <c r="E23" t="n">
-        <v>33231000</v>
+        <v>44756400</v>
       </c>
       <c r="F23" t="n">
         <v>29.9999</v>
@@ -1055,19 +1055,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B24" t="n">
-        <v>81844500</v>
+        <v>116069000</v>
       </c>
       <c r="C24" t="n">
-        <v>24553300</v>
+        <v>34820600</v>
       </c>
       <c r="D24" t="n">
-        <v>24553300</v>
+        <v>34820600</v>
       </c>
       <c r="E24" t="n">
-        <v>32737800</v>
+        <v>46427600</v>
       </c>
       <c r="F24" t="n">
         <v>29.9999</v>
@@ -1081,19 +1081,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B25" t="n">
-        <v>80070700</v>
+        <v>122400000</v>
       </c>
       <c r="C25" t="n">
-        <v>24021100</v>
+        <v>36719900</v>
       </c>
       <c r="D25" t="n">
-        <v>24021100</v>
+        <v>36719900</v>
       </c>
       <c r="E25" t="n">
-        <v>32028300</v>
+        <v>48960000</v>
       </c>
       <c r="F25" t="n">
         <v>29.9999</v>
@@ -1107,19 +1107,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B26" t="n">
-        <v>78335200</v>
+        <v>129575000</v>
       </c>
       <c r="C26" t="n">
-        <v>23500500</v>
+        <v>38872400</v>
       </c>
       <c r="D26" t="n">
-        <v>23500500</v>
+        <v>38872400</v>
       </c>
       <c r="E26" t="n">
-        <v>31334100</v>
+        <v>51830000</v>
       </c>
       <c r="F26" t="n">
         <v>29.9999</v>
@@ -1133,19 +1133,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B27" t="n">
-        <v>79165000</v>
+        <v>137166000</v>
       </c>
       <c r="C27" t="n">
-        <v>23749400</v>
+        <v>41149700</v>
       </c>
       <c r="D27" t="n">
-        <v>23749400</v>
+        <v>41149700</v>
       </c>
       <c r="E27" t="n">
-        <v>31666000</v>
+        <v>54866400</v>
       </c>
       <c r="F27" t="n">
         <v>29.9999</v>
@@ -1159,19 +1159,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B28" t="n">
-        <v>80003500</v>
+        <v>133580000</v>
       </c>
       <c r="C28" t="n">
-        <v>24001000</v>
+        <v>40073900</v>
       </c>
       <c r="D28" t="n">
-        <v>24001000</v>
+        <v>40073900</v>
       </c>
       <c r="E28" t="n">
-        <v>32001400</v>
+        <v>53432000</v>
       </c>
       <c r="F28" t="n">
         <v>29.9999</v>
@@ -1185,799 +1185,799 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>46265</v>
+        <v>46234</v>
       </c>
       <c r="B29" t="n">
-        <v>79763400</v>
+        <v>130087000</v>
       </c>
       <c r="C29" t="n">
-        <v>23928900</v>
+        <v>39026000</v>
       </c>
       <c r="D29" t="n">
-        <v>23928900</v>
+        <v>39026000</v>
       </c>
       <c r="E29" t="n">
-        <v>31905400</v>
+        <v>52034800</v>
       </c>
       <c r="F29" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G29" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H29" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>46295</v>
+        <v>46265</v>
       </c>
       <c r="B30" t="n">
-        <v>79524000</v>
+        <v>130786000</v>
       </c>
       <c r="C30" t="n">
-        <v>23857000</v>
+        <v>39235700</v>
       </c>
       <c r="D30" t="n">
-        <v>23857000</v>
+        <v>39235700</v>
       </c>
       <c r="E30" t="n">
-        <v>31809700</v>
+        <v>52314400</v>
       </c>
       <c r="F30" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G30" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H30" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46326</v>
+        <v>46295</v>
       </c>
       <c r="B31" t="n">
-        <v>81886100</v>
+        <v>131489000</v>
       </c>
       <c r="C31" t="n">
-        <v>24565600</v>
+        <v>39446600</v>
       </c>
       <c r="D31" t="n">
-        <v>24565600</v>
+        <v>39446600</v>
       </c>
       <c r="E31" t="n">
-        <v>32754500</v>
+        <v>52595600</v>
       </c>
       <c r="F31" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G31" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H31" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46356</v>
+        <v>46326</v>
       </c>
       <c r="B32" t="n">
-        <v>84318300</v>
+        <v>135409000</v>
       </c>
       <c r="C32" t="n">
-        <v>25295200</v>
+        <v>40622600</v>
       </c>
       <c r="D32" t="n">
-        <v>25295200</v>
+        <v>40622600</v>
       </c>
       <c r="E32" t="n">
-        <v>33727400</v>
+        <v>54163600</v>
       </c>
       <c r="F32" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G32" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H32" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46387</v>
+        <v>46356</v>
       </c>
       <c r="B33" t="n">
-        <v>88545200</v>
+        <v>139446000</v>
       </c>
       <c r="C33" t="n">
-        <v>26563300</v>
+        <v>41833700</v>
       </c>
       <c r="D33" t="n">
-        <v>26563300</v>
+        <v>41833700</v>
       </c>
       <c r="E33" t="n">
-        <v>35418200</v>
+        <v>55778400</v>
       </c>
       <c r="F33" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G33" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H33" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46418</v>
+        <v>46387</v>
       </c>
       <c r="B34" t="n">
-        <v>92984100</v>
+        <v>145773000</v>
       </c>
       <c r="C34" t="n">
-        <v>27895000</v>
+        <v>43731800</v>
       </c>
       <c r="D34" t="n">
-        <v>27895000</v>
+        <v>43731800</v>
       </c>
       <c r="E34" t="n">
-        <v>37193700</v>
+        <v>58309200</v>
       </c>
       <c r="F34" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H34" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46446</v>
+        <v>46418</v>
       </c>
       <c r="B35" t="n">
-        <v>94995600</v>
+        <v>152387000</v>
       </c>
       <c r="C35" t="n">
-        <v>28498500</v>
+        <v>45715900</v>
       </c>
       <c r="D35" t="n">
-        <v>28498500</v>
+        <v>45715900</v>
       </c>
       <c r="E35" t="n">
-        <v>37998300</v>
+        <v>60954800</v>
       </c>
       <c r="F35" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G35" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H35" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46477</v>
+        <v>46446</v>
       </c>
       <c r="B36" t="n">
-        <v>97050700</v>
+        <v>146553000</v>
       </c>
       <c r="C36" t="n">
-        <v>29115000</v>
+        <v>43965800</v>
       </c>
       <c r="D36" t="n">
-        <v>29115000</v>
+        <v>43965800</v>
       </c>
       <c r="E36" t="n">
-        <v>38820400</v>
+        <v>58621200</v>
       </c>
       <c r="F36" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G36" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H36" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46507</v>
+        <v>46477</v>
       </c>
       <c r="B37" t="n">
-        <v>100918000</v>
+        <v>140943000</v>
       </c>
       <c r="C37" t="n">
-        <v>30275200</v>
+        <v>42282800</v>
       </c>
       <c r="D37" t="n">
-        <v>30275200</v>
+        <v>42282800</v>
       </c>
       <c r="E37" t="n">
-        <v>40367300</v>
+        <v>56377200</v>
       </c>
       <c r="F37" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G37" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H37" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46538</v>
+        <v>46507</v>
       </c>
       <c r="B38" t="n">
-        <v>104939000</v>
+        <v>135548000</v>
       </c>
       <c r="C38" t="n">
-        <v>31481500</v>
+        <v>40664300</v>
       </c>
       <c r="D38" t="n">
-        <v>31481500</v>
+        <v>40664300</v>
       </c>
       <c r="E38" t="n">
-        <v>41975700</v>
+        <v>54219200</v>
       </c>
       <c r="F38" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G38" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H38" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46568</v>
+        <v>46538</v>
       </c>
       <c r="B39" t="n">
-        <v>113671000</v>
+        <v>137365000</v>
       </c>
       <c r="C39" t="n">
-        <v>34101100</v>
+        <v>41209400</v>
       </c>
       <c r="D39" t="n">
-        <v>34101100</v>
+        <v>41209400</v>
       </c>
       <c r="E39" t="n">
-        <v>45468500</v>
+        <v>54946000</v>
       </c>
       <c r="F39" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H39" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46599</v>
+        <v>46568</v>
       </c>
       <c r="B40" t="n">
-        <v>123130000</v>
+        <v>139207000</v>
       </c>
       <c r="C40" t="n">
-        <v>36938800</v>
+        <v>41762000</v>
       </c>
       <c r="D40" t="n">
-        <v>36938800</v>
+        <v>41762000</v>
       </c>
       <c r="E40" t="n">
-        <v>49252100</v>
+        <v>55682800</v>
       </c>
       <c r="F40" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G40" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H40" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46630</v>
+        <v>46599</v>
       </c>
       <c r="B41" t="n">
-        <v>115531000</v>
+        <v>141073000</v>
       </c>
       <c r="C41" t="n">
-        <v>34659100</v>
+        <v>42321800</v>
       </c>
       <c r="D41" t="n">
-        <v>34659100</v>
+        <v>42321800</v>
       </c>
       <c r="E41" t="n">
-        <v>46212500</v>
+        <v>56429200</v>
       </c>
       <c r="F41" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G41" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H41" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46660</v>
+        <v>46630</v>
       </c>
       <c r="B42" t="n">
-        <v>108401000</v>
+        <v>142330000</v>
       </c>
       <c r="C42" t="n">
-        <v>32520100</v>
+        <v>42698900</v>
       </c>
       <c r="D42" t="n">
-        <v>32520100</v>
+        <v>42698900</v>
       </c>
       <c r="E42" t="n">
-        <v>43360500</v>
+        <v>56932000</v>
       </c>
       <c r="F42" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G42" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H42" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46691</v>
+        <v>46660</v>
       </c>
       <c r="B43" t="n">
-        <v>101711000</v>
+        <v>143598000</v>
       </c>
       <c r="C43" t="n">
-        <v>30513100</v>
+        <v>43079300</v>
       </c>
       <c r="D43" t="n">
-        <v>30513100</v>
+        <v>43079300</v>
       </c>
       <c r="E43" t="n">
-        <v>40684500</v>
+        <v>57439200</v>
       </c>
       <c r="F43" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G43" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H43" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46721</v>
+        <v>46691</v>
       </c>
       <c r="B44" t="n">
-        <v>96230400</v>
+        <v>144877000</v>
       </c>
       <c r="C44" t="n">
-        <v>28868900</v>
+        <v>43463000</v>
       </c>
       <c r="D44" t="n">
-        <v>28868900</v>
+        <v>43463000</v>
       </c>
       <c r="E44" t="n">
-        <v>38492300</v>
+        <v>57950800</v>
       </c>
       <c r="F44" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G44" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H44" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46752</v>
+        <v>46721</v>
       </c>
       <c r="B45" t="n">
-        <v>91045100</v>
+        <v>148611000</v>
       </c>
       <c r="C45" t="n">
-        <v>27313300</v>
+        <v>44583200</v>
       </c>
       <c r="D45" t="n">
-        <v>27313300</v>
+        <v>44583200</v>
       </c>
       <c r="E45" t="n">
-        <v>36418100</v>
+        <v>59444400</v>
       </c>
       <c r="F45" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G45" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H45" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46783</v>
+        <v>46752</v>
       </c>
       <c r="B46" t="n">
-        <v>86139100</v>
+        <v>152442000</v>
       </c>
       <c r="C46" t="n">
-        <v>25841500</v>
+        <v>45732400</v>
       </c>
       <c r="D46" t="n">
-        <v>25841500</v>
+        <v>45732400</v>
       </c>
       <c r="E46" t="n">
-        <v>34455700</v>
+        <v>60976800</v>
       </c>
       <c r="F46" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G46" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H46" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46812</v>
+        <v>46783</v>
       </c>
       <c r="B47" t="n">
-        <v>84505100</v>
+        <v>156371000</v>
       </c>
       <c r="C47" t="n">
-        <v>25351300</v>
+        <v>46911100</v>
       </c>
       <c r="D47" t="n">
-        <v>25351300</v>
+        <v>46911100</v>
       </c>
       <c r="E47" t="n">
-        <v>33802100</v>
+        <v>62548400</v>
       </c>
       <c r="F47" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G47" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H47" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46843</v>
+        <v>46812</v>
       </c>
       <c r="B48" t="n">
-        <v>82902100</v>
+        <v>159585000</v>
       </c>
       <c r="C48" t="n">
-        <v>24870400</v>
+        <v>47875300</v>
       </c>
       <c r="D48" t="n">
-        <v>24870400</v>
+        <v>47875300</v>
       </c>
       <c r="E48" t="n">
-        <v>33160900</v>
+        <v>63834000</v>
       </c>
       <c r="F48" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G48" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H48" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46873</v>
+        <v>46843</v>
       </c>
       <c r="B49" t="n">
-        <v>81329500</v>
+        <v>162865000</v>
       </c>
       <c r="C49" t="n">
-        <v>24398600</v>
+        <v>48859300</v>
       </c>
       <c r="D49" t="n">
-        <v>24398600</v>
+        <v>48859300</v>
       </c>
       <c r="E49" t="n">
-        <v>32531900</v>
+        <v>65146000</v>
       </c>
       <c r="F49" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G49" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H49" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46904</v>
+        <v>46873</v>
       </c>
       <c r="B50" t="n">
-        <v>80257700</v>
+        <v>166212000</v>
       </c>
       <c r="C50" t="n">
-        <v>24077100</v>
+        <v>49863400</v>
       </c>
       <c r="D50" t="n">
-        <v>24077100</v>
+        <v>49863400</v>
       </c>
       <c r="E50" t="n">
-        <v>32103200</v>
+        <v>66484800</v>
       </c>
       <c r="F50" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G50" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H50" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46934</v>
+        <v>46904</v>
       </c>
       <c r="B51" t="n">
-        <v>79200100</v>
+        <v>170293000</v>
       </c>
       <c r="C51" t="n">
-        <v>23759800</v>
+        <v>51087700</v>
       </c>
       <c r="D51" t="n">
-        <v>23759800</v>
+        <v>51087700</v>
       </c>
       <c r="E51" t="n">
-        <v>31680100</v>
+        <v>68117200</v>
       </c>
       <c r="F51" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G51" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H51" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>46965</v>
+        <v>46934</v>
       </c>
       <c r="B52" t="n">
-        <v>78156300</v>
+        <v>174474000</v>
       </c>
       <c r="C52" t="n">
-        <v>23446700</v>
+        <v>52342000</v>
       </c>
       <c r="D52" t="n">
-        <v>23446700</v>
+        <v>52342000</v>
       </c>
       <c r="E52" t="n">
-        <v>31262600</v>
+        <v>69789600</v>
       </c>
       <c r="F52" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G52" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H52" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>46996</v>
+        <v>46965</v>
       </c>
       <c r="B53" t="n">
-        <v>75455100</v>
+        <v>178757000</v>
       </c>
       <c r="C53" t="n">
-        <v>22636400</v>
+        <v>53626900</v>
       </c>
       <c r="D53" t="n">
-        <v>22636400</v>
+        <v>53626900</v>
       </c>
       <c r="E53" t="n">
-        <v>30182100</v>
+        <v>71502800</v>
       </c>
       <c r="F53" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G53" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H53" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>47026</v>
+        <v>46996</v>
       </c>
       <c r="B54" t="n">
-        <v>72847300</v>
+        <v>184024000</v>
       </c>
       <c r="C54" t="n">
-        <v>21854000</v>
+        <v>55207000</v>
       </c>
       <c r="D54" t="n">
-        <v>21854000</v>
+        <v>55207000</v>
       </c>
       <c r="E54" t="n">
-        <v>29139000</v>
+        <v>73609600</v>
       </c>
       <c r="F54" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G54" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H54" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>47057</v>
+        <v>47026</v>
       </c>
       <c r="B55" t="n">
-        <v>70329600</v>
+        <v>189446000</v>
       </c>
       <c r="C55" t="n">
-        <v>21098700</v>
+        <v>56833600</v>
       </c>
       <c r="D55" t="n">
-        <v>21098700</v>
+        <v>56833600</v>
       </c>
       <c r="E55" t="n">
-        <v>28131900</v>
+        <v>75778400</v>
       </c>
       <c r="F55" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G55" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H55" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>47087</v>
+        <v>47057</v>
       </c>
       <c r="B56" t="n">
-        <v>71517800</v>
+        <v>195028000</v>
       </c>
       <c r="C56" t="n">
-        <v>21455100</v>
+        <v>58508200</v>
       </c>
       <c r="D56" t="n">
-        <v>21455100</v>
+        <v>58508200</v>
       </c>
       <c r="E56" t="n">
-        <v>28607200</v>
+        <v>78011200</v>
       </c>
       <c r="F56" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G56" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H56" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>47118</v>
+        <v>47087</v>
       </c>
       <c r="B57" t="n">
-        <v>72726000</v>
+        <v>191210000</v>
       </c>
       <c r="C57" t="n">
-        <v>21817600</v>
+        <v>57362800</v>
       </c>
       <c r="D57" t="n">
-        <v>21817600</v>
+        <v>57362800</v>
       </c>
       <c r="E57" t="n">
-        <v>29090500</v>
+        <v>76484000</v>
       </c>
       <c r="F57" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G57" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H57" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>47149</v>
+        <v>47118</v>
       </c>
       <c r="B58" t="n">
-        <v>73954600</v>
+        <v>187466000</v>
       </c>
       <c r="C58" t="n">
-        <v>22186200</v>
+        <v>56239600</v>
       </c>
       <c r="D58" t="n">
-        <v>22186200</v>
+        <v>56239600</v>
       </c>
       <c r="E58" t="n">
-        <v>29581900</v>
+        <v>74986400</v>
       </c>
       <c r="F58" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G58" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H58" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>47177</v>
+        <v>47149</v>
       </c>
       <c r="B59" t="n">
-        <v>74613000</v>
+        <v>183796000</v>
       </c>
       <c r="C59" t="n">
-        <v>22383800</v>
+        <v>55138600</v>
       </c>
       <c r="D59" t="n">
-        <v>22383800</v>
+        <v>55138600</v>
       </c>
       <c r="E59" t="n">
-        <v>29845300</v>
+        <v>73518400</v>
       </c>
       <c r="F59" t="n">
         <v>29.9999</v>
@@ -1986,24 +1986,24 @@
         <v>29.9999</v>
       </c>
       <c r="H59" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>47208</v>
+        <v>47177</v>
       </c>
       <c r="B60" t="n">
-        <v>75277500</v>
+        <v>180197000</v>
       </c>
       <c r="C60" t="n">
-        <v>22583200</v>
+        <v>54058900</v>
       </c>
       <c r="D60" t="n">
-        <v>22583200</v>
+        <v>54058900</v>
       </c>
       <c r="E60" t="n">
-        <v>30111100</v>
+        <v>72078800</v>
       </c>
       <c r="F60" t="n">
         <v>29.9999</v>
@@ -2012,24 +2012,24 @@
         <v>29.9999</v>
       </c>
       <c r="H60" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>47238</v>
+        <v>47208</v>
       </c>
       <c r="B61" t="n">
-        <v>75948000</v>
+        <v>177375000</v>
       </c>
       <c r="C61" t="n">
-        <v>22784300</v>
+        <v>53212300</v>
       </c>
       <c r="D61" t="n">
-        <v>22784300</v>
+        <v>53212300</v>
       </c>
       <c r="E61" t="n">
-        <v>30379300</v>
+        <v>70950000</v>
       </c>
       <c r="F61" t="n">
         <v>29.9999</v>
@@ -2038,24 +2038,24 @@
         <v>29.9999</v>
       </c>
       <c r="H61" t="n">
-        <v>40.0001</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>47269</v>
+        <v>47238</v>
       </c>
       <c r="B62" t="n">
-        <v>79122700</v>
+        <v>174598000</v>
       </c>
       <c r="C62" t="n">
-        <v>23736700</v>
+        <v>52379200</v>
       </c>
       <c r="D62" t="n">
-        <v>23736700</v>
+        <v>52379200</v>
       </c>
       <c r="E62" t="n">
-        <v>31649200</v>
+        <v>69839200</v>
       </c>
       <c r="F62" t="n">
         <v>29.9999</v>
@@ -2064,2832 +2064,2832 @@
         <v>29.9999</v>
       </c>
       <c r="H62" t="n">
-        <v>40.0002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>47299</v>
+        <v>47269</v>
       </c>
       <c r="B63" t="n">
-        <v>82430100</v>
+        <v>171864000</v>
       </c>
       <c r="C63" t="n">
-        <v>24728900</v>
+        <v>51559000</v>
       </c>
       <c r="D63" t="n">
-        <v>24728900</v>
+        <v>51559000</v>
       </c>
       <c r="E63" t="n">
-        <v>32972200</v>
+        <v>68745600</v>
       </c>
       <c r="F63" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G63" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H63" t="n">
-        <v>40.0002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>47330</v>
+        <v>47299</v>
       </c>
       <c r="B64" t="n">
-        <v>85875700</v>
+        <v>169172000</v>
       </c>
       <c r="C64" t="n">
-        <v>25762500</v>
+        <v>50751400</v>
       </c>
       <c r="D64" t="n">
-        <v>25762500</v>
+        <v>50751400</v>
       </c>
       <c r="E64" t="n">
-        <v>34350500</v>
+        <v>67668800</v>
       </c>
       <c r="F64" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G64" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H64" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>47361</v>
+        <v>47330</v>
       </c>
       <c r="B65" t="n">
-        <v>91219000</v>
+        <v>169975000</v>
       </c>
       <c r="C65" t="n">
-        <v>27365500</v>
+        <v>50992300</v>
       </c>
       <c r="D65" t="n">
-        <v>27365500</v>
+        <v>50992300</v>
       </c>
       <c r="E65" t="n">
-        <v>36487900</v>
+        <v>67990000</v>
       </c>
       <c r="F65" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G65" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H65" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>47391</v>
+        <v>47361</v>
       </c>
       <c r="B66" t="n">
-        <v>96894900</v>
+        <v>170782000</v>
       </c>
       <c r="C66" t="n">
-        <v>29068300</v>
+        <v>51234400</v>
       </c>
       <c r="D66" t="n">
-        <v>29068300</v>
+        <v>51234400</v>
       </c>
       <c r="E66" t="n">
-        <v>38758300</v>
+        <v>68312800</v>
       </c>
       <c r="F66" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G66" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H66" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>47422</v>
+        <v>47391</v>
       </c>
       <c r="B67" t="n">
-        <v>102924000</v>
+        <v>171593000</v>
       </c>
       <c r="C67" t="n">
-        <v>30877000</v>
+        <v>51477700</v>
       </c>
       <c r="D67" t="n">
-        <v>30877000</v>
+        <v>51477700</v>
       </c>
       <c r="E67" t="n">
-        <v>41170000</v>
+        <v>68637200</v>
       </c>
       <c r="F67" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G67" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H67" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>47452</v>
+        <v>47422</v>
       </c>
       <c r="B68" t="n">
-        <v>100171000</v>
+        <v>172408000</v>
       </c>
       <c r="C68" t="n">
-        <v>30051100</v>
+        <v>51722200</v>
       </c>
       <c r="D68" t="n">
-        <v>30051100</v>
+        <v>51722200</v>
       </c>
       <c r="E68" t="n">
-        <v>40068800</v>
+        <v>68963200</v>
       </c>
       <c r="F68" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G68" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H68" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>47483</v>
+        <v>47452</v>
       </c>
       <c r="B69" t="n">
-        <v>97491700</v>
+        <v>173823000</v>
       </c>
       <c r="C69" t="n">
-        <v>29247300</v>
+        <v>52146700</v>
       </c>
       <c r="D69" t="n">
-        <v>29247300</v>
+        <v>52146700</v>
       </c>
       <c r="E69" t="n">
-        <v>38997100</v>
+        <v>69529200</v>
       </c>
       <c r="F69" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G69" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H69" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>47514</v>
+        <v>47483</v>
       </c>
       <c r="B70" t="n">
-        <v>94884100</v>
+        <v>175249000</v>
       </c>
       <c r="C70" t="n">
-        <v>28465000</v>
+        <v>52574500</v>
       </c>
       <c r="D70" t="n">
-        <v>28465000</v>
+        <v>52574500</v>
       </c>
       <c r="E70" t="n">
-        <v>37954000</v>
+        <v>70099600</v>
       </c>
       <c r="F70" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G70" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H70" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>47542</v>
+        <v>47514</v>
       </c>
       <c r="B71" t="n">
-        <v>92346100</v>
+        <v>176687000</v>
       </c>
       <c r="C71" t="n">
-        <v>27703600</v>
+        <v>53005900</v>
       </c>
       <c r="D71" t="n">
-        <v>27703600</v>
+        <v>53005900</v>
       </c>
       <c r="E71" t="n">
-        <v>36938800</v>
+        <v>70674800</v>
       </c>
       <c r="F71" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G71" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H71" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>47573</v>
+        <v>47542</v>
       </c>
       <c r="B72" t="n">
-        <v>90440800</v>
+        <v>178137000</v>
       </c>
       <c r="C72" t="n">
-        <v>27132100</v>
+        <v>53440900</v>
       </c>
       <c r="D72" t="n">
-        <v>27132100</v>
+        <v>53440900</v>
       </c>
       <c r="E72" t="n">
-        <v>36176700</v>
+        <v>71254800</v>
       </c>
       <c r="F72" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G72" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H72" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>47603</v>
+        <v>47573</v>
       </c>
       <c r="B73" t="n">
-        <v>88574900</v>
+        <v>175462000</v>
       </c>
       <c r="C73" t="n">
-        <v>26572300</v>
+        <v>52638400</v>
       </c>
       <c r="D73" t="n">
-        <v>26572300</v>
+        <v>52638400</v>
       </c>
       <c r="E73" t="n">
-        <v>35430300</v>
+        <v>70184800</v>
       </c>
       <c r="F73" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H73" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>47634</v>
+        <v>47603</v>
       </c>
       <c r="B74" t="n">
-        <v>86747500</v>
+        <v>172827000</v>
       </c>
       <c r="C74" t="n">
-        <v>26024100</v>
+        <v>51847900</v>
       </c>
       <c r="D74" t="n">
-        <v>26024100</v>
+        <v>51847900</v>
       </c>
       <c r="E74" t="n">
-        <v>34699300</v>
+        <v>69130800</v>
       </c>
       <c r="F74" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G74" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H74" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>47664</v>
+        <v>47634</v>
       </c>
       <c r="B75" t="n">
-        <v>84957800</v>
+        <v>170232000</v>
       </c>
       <c r="C75" t="n">
-        <v>25487200</v>
+        <v>51069400</v>
       </c>
       <c r="D75" t="n">
-        <v>25487200</v>
+        <v>51069400</v>
       </c>
       <c r="E75" t="n">
-        <v>33983400</v>
+        <v>68092800</v>
       </c>
       <c r="F75" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G75" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H75" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>47695</v>
+        <v>47664</v>
       </c>
       <c r="B76" t="n">
-        <v>85327200</v>
+        <v>167676000</v>
       </c>
       <c r="C76" t="n">
-        <v>25598000</v>
+        <v>50302600</v>
       </c>
       <c r="D76" t="n">
-        <v>25598000</v>
+        <v>50302600</v>
       </c>
       <c r="E76" t="n">
-        <v>34131100</v>
+        <v>67070400</v>
       </c>
       <c r="F76" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G76" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H76" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>47726</v>
+        <v>47695</v>
       </c>
       <c r="B77" t="n">
-        <v>85698100</v>
+        <v>165158000</v>
       </c>
       <c r="C77" t="n">
-        <v>25709300</v>
+        <v>49547200</v>
       </c>
       <c r="D77" t="n">
-        <v>25709300</v>
+        <v>49547200</v>
       </c>
       <c r="E77" t="n">
-        <v>34279500</v>
+        <v>66063200</v>
       </c>
       <c r="F77" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G77" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H77" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>47756</v>
+        <v>47726</v>
       </c>
       <c r="B78" t="n">
-        <v>86070800</v>
+        <v>163225000</v>
       </c>
       <c r="C78" t="n">
-        <v>25821100</v>
+        <v>48967300</v>
       </c>
       <c r="D78" t="n">
-        <v>25821100</v>
+        <v>48967300</v>
       </c>
       <c r="E78" t="n">
-        <v>34428600</v>
+        <v>65290000</v>
       </c>
       <c r="F78" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G78" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H78" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>47787</v>
+        <v>47756</v>
       </c>
       <c r="B79" t="n">
-        <v>86445100</v>
+        <v>161315000</v>
       </c>
       <c r="C79" t="n">
-        <v>25933400</v>
+        <v>48394300</v>
       </c>
       <c r="D79" t="n">
-        <v>25933400</v>
+        <v>48394300</v>
       </c>
       <c r="E79" t="n">
-        <v>34578300</v>
+        <v>64526000</v>
       </c>
       <c r="F79" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G79" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H79" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>47817</v>
+        <v>47787</v>
       </c>
       <c r="B80" t="n">
-        <v>92764200</v>
+        <v>159427000</v>
       </c>
       <c r="C80" t="n">
-        <v>27829100</v>
+        <v>47827900</v>
       </c>
       <c r="D80" t="n">
-        <v>27829100</v>
+        <v>47827900</v>
       </c>
       <c r="E80" t="n">
-        <v>37106000</v>
+        <v>63770800</v>
       </c>
       <c r="F80" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G80" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H80" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>47848</v>
+        <v>47817</v>
       </c>
       <c r="B81" t="n">
-        <v>99545300</v>
+        <v>157561000</v>
       </c>
       <c r="C81" t="n">
-        <v>29863400</v>
+        <v>47268100</v>
       </c>
       <c r="D81" t="n">
-        <v>29863400</v>
+        <v>47268100</v>
       </c>
       <c r="E81" t="n">
-        <v>39818400</v>
+        <v>63024400</v>
       </c>
       <c r="F81" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G81" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H81" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>47879</v>
+        <v>47848</v>
       </c>
       <c r="B82" t="n">
-        <v>106822000</v>
+        <v>155717000</v>
       </c>
       <c r="C82" t="n">
-        <v>32046400</v>
+        <v>46714900</v>
       </c>
       <c r="D82" t="n">
-        <v>32046400</v>
+        <v>46714900</v>
       </c>
       <c r="E82" t="n">
-        <v>42729100</v>
+        <v>62286800</v>
       </c>
       <c r="F82" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G82" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H82" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>47907</v>
+        <v>47879</v>
       </c>
       <c r="B83" t="n">
-        <v>114630000</v>
+        <v>152756000</v>
       </c>
       <c r="C83" t="n">
-        <v>34388800</v>
+        <v>45826600</v>
       </c>
       <c r="D83" t="n">
-        <v>34388800</v>
+        <v>45826600</v>
       </c>
       <c r="E83" t="n">
-        <v>45852300</v>
+        <v>61102400</v>
       </c>
       <c r="F83" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G83" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H83" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>47938</v>
+        <v>47907</v>
       </c>
       <c r="B84" t="n">
-        <v>124891000</v>
+        <v>149851000</v>
       </c>
       <c r="C84" t="n">
-        <v>37467100</v>
+        <v>44955200</v>
       </c>
       <c r="D84" t="n">
-        <v>37467100</v>
+        <v>44955200</v>
       </c>
       <c r="E84" t="n">
-        <v>49956800</v>
+        <v>59940400</v>
       </c>
       <c r="F84" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G84" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H84" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>47968</v>
+        <v>47938</v>
       </c>
       <c r="B85" t="n">
-        <v>136071000</v>
+        <v>147002000</v>
       </c>
       <c r="C85" t="n">
-        <v>40821000</v>
+        <v>44100500</v>
       </c>
       <c r="D85" t="n">
-        <v>40821000</v>
+        <v>44100500</v>
       </c>
       <c r="E85" t="n">
-        <v>54428800</v>
+        <v>58800800</v>
       </c>
       <c r="F85" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G85" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H85" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>47999</v>
+        <v>47968</v>
       </c>
       <c r="B86" t="n">
-        <v>148252000</v>
+        <v>144207000</v>
       </c>
       <c r="C86" t="n">
-        <v>44475300</v>
+        <v>43262000</v>
       </c>
       <c r="D86" t="n">
-        <v>44475300</v>
+        <v>43262000</v>
       </c>
       <c r="E86" t="n">
-        <v>59301200</v>
+        <v>57682800</v>
       </c>
       <c r="F86" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G86" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H86" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>48029</v>
+        <v>47999</v>
       </c>
       <c r="B87" t="n">
-        <v>161523000</v>
+        <v>141465000</v>
       </c>
       <c r="C87" t="n">
-        <v>48456600</v>
+        <v>42439400</v>
       </c>
       <c r="D87" t="n">
-        <v>48456600</v>
+        <v>42439400</v>
       </c>
       <c r="E87" t="n">
-        <v>64609700</v>
+        <v>56586000</v>
       </c>
       <c r="F87" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G87" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H87" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>48060</v>
+        <v>48029</v>
       </c>
       <c r="B88" t="n">
-        <v>157314000</v>
+        <v>138775000</v>
       </c>
       <c r="C88" t="n">
-        <v>47193900</v>
+        <v>41632400</v>
       </c>
       <c r="D88" t="n">
-        <v>47193900</v>
+        <v>41632400</v>
       </c>
       <c r="E88" t="n">
-        <v>62926100</v>
+        <v>55510000</v>
       </c>
       <c r="F88" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G88" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H88" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>48091</v>
+        <v>48060</v>
       </c>
       <c r="B89" t="n">
-        <v>153214000</v>
+        <v>137859000</v>
       </c>
       <c r="C89" t="n">
-        <v>45963900</v>
+        <v>41357600</v>
       </c>
       <c r="D89" t="n">
-        <v>45963900</v>
+        <v>41357600</v>
       </c>
       <c r="E89" t="n">
-        <v>61286100</v>
+        <v>55143600</v>
       </c>
       <c r="F89" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G89" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H89" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>48121</v>
+        <v>48091</v>
       </c>
       <c r="B90" t="n">
-        <v>149221000</v>
+        <v>136949000</v>
       </c>
       <c r="C90" t="n">
-        <v>44766000</v>
+        <v>41084600</v>
       </c>
       <c r="D90" t="n">
-        <v>44766000</v>
+        <v>41084600</v>
       </c>
       <c r="E90" t="n">
-        <v>59688800</v>
+        <v>54779600</v>
       </c>
       <c r="F90" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G90" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H90" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>48152</v>
+        <v>48121</v>
       </c>
       <c r="B91" t="n">
-        <v>145332000</v>
+        <v>136045000</v>
       </c>
       <c r="C91" t="n">
-        <v>43599300</v>
+        <v>40813400</v>
       </c>
       <c r="D91" t="n">
-        <v>43599300</v>
+        <v>40813400</v>
       </c>
       <c r="E91" t="n">
-        <v>58133200</v>
+        <v>54418000</v>
       </c>
       <c r="F91" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G91" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H91" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>48182</v>
+        <v>48152</v>
       </c>
       <c r="B92" t="n">
-        <v>141544000</v>
+        <v>135147000</v>
       </c>
       <c r="C92" t="n">
-        <v>42462900</v>
+        <v>40544000</v>
       </c>
       <c r="D92" t="n">
-        <v>42462900</v>
+        <v>40544000</v>
       </c>
       <c r="E92" t="n">
-        <v>56618000</v>
+        <v>54058800</v>
       </c>
       <c r="F92" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G92" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H92" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>48213</v>
+        <v>48182</v>
       </c>
       <c r="B93" t="n">
-        <v>142224000</v>
+        <v>134255000</v>
       </c>
       <c r="C93" t="n">
-        <v>42666900</v>
+        <v>40276400</v>
       </c>
       <c r="D93" t="n">
-        <v>42666900</v>
+        <v>40276400</v>
       </c>
       <c r="E93" t="n">
-        <v>56890000</v>
+        <v>53702000</v>
       </c>
       <c r="F93" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G93" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H93" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>48244</v>
+        <v>48213</v>
       </c>
       <c r="B94" t="n">
-        <v>142907000</v>
+        <v>133369000</v>
       </c>
       <c r="C94" t="n">
-        <v>42871800</v>
+        <v>40010600</v>
       </c>
       <c r="D94" t="n">
-        <v>42871800</v>
+        <v>40010600</v>
       </c>
       <c r="E94" t="n">
-        <v>57163200</v>
+        <v>53347600</v>
       </c>
       <c r="F94" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G94" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H94" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>48273</v>
+        <v>48244</v>
       </c>
       <c r="B95" t="n">
-        <v>143593000</v>
+        <v>134619000</v>
       </c>
       <c r="C95" t="n">
-        <v>43077600</v>
+        <v>40385600</v>
       </c>
       <c r="D95" t="n">
-        <v>43077600</v>
+        <v>40385600</v>
       </c>
       <c r="E95" t="n">
-        <v>57437600</v>
+        <v>53847600</v>
       </c>
       <c r="F95" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G95" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H95" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>48304</v>
+        <v>48273</v>
       </c>
       <c r="B96" t="n">
-        <v>144283000</v>
+        <v>135880000</v>
       </c>
       <c r="C96" t="n">
-        <v>43284600</v>
+        <v>40763900</v>
       </c>
       <c r="D96" t="n">
-        <v>43284600</v>
+        <v>40763900</v>
       </c>
       <c r="E96" t="n">
-        <v>57713600</v>
+        <v>54352000</v>
       </c>
       <c r="F96" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G96" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H96" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>48334</v>
+        <v>48304</v>
       </c>
       <c r="B97" t="n">
-        <v>144976000</v>
+        <v>137153000</v>
       </c>
       <c r="C97" t="n">
-        <v>43492500</v>
+        <v>41145800</v>
       </c>
       <c r="D97" t="n">
-        <v>43492500</v>
+        <v>41145800</v>
       </c>
       <c r="E97" t="n">
-        <v>57990800</v>
+        <v>54861200</v>
       </c>
       <c r="F97" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G97" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H97" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>48365</v>
+        <v>48334</v>
       </c>
       <c r="B98" t="n">
-        <v>145428000</v>
+        <v>138438000</v>
       </c>
       <c r="C98" t="n">
-        <v>43628100</v>
+        <v>41531300</v>
       </c>
       <c r="D98" t="n">
-        <v>43628100</v>
+        <v>41531300</v>
       </c>
       <c r="E98" t="n">
-        <v>58171600</v>
+        <v>55375200</v>
       </c>
       <c r="F98" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G98" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H98" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>48395</v>
+        <v>48365</v>
       </c>
       <c r="B99" t="n">
-        <v>145881000</v>
+        <v>139735000</v>
       </c>
       <c r="C99" t="n">
-        <v>43764000</v>
+        <v>41920400</v>
       </c>
       <c r="D99" t="n">
-        <v>43764000</v>
+        <v>41920400</v>
       </c>
       <c r="E99" t="n">
-        <v>58352800</v>
+        <v>55894000</v>
       </c>
       <c r="F99" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G99" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H99" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>48426</v>
+        <v>48395</v>
       </c>
       <c r="B100" t="n">
-        <v>146336000</v>
+        <v>141044000</v>
       </c>
       <c r="C100" t="n">
-        <v>43900500</v>
+        <v>42313100</v>
       </c>
       <c r="D100" t="n">
-        <v>43900500</v>
+        <v>42313100</v>
       </c>
       <c r="E100" t="n">
-        <v>58534800</v>
+        <v>56417600</v>
       </c>
       <c r="F100" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G100" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H100" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>48457</v>
+        <v>48426</v>
       </c>
       <c r="B101" t="n">
-        <v>146792000</v>
+        <v>146333000</v>
       </c>
       <c r="C101" t="n">
-        <v>44037300</v>
+        <v>43899800</v>
       </c>
       <c r="D101" t="n">
-        <v>44037300</v>
+        <v>43899800</v>
       </c>
       <c r="E101" t="n">
-        <v>58717200</v>
+        <v>58533200</v>
       </c>
       <c r="F101" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G101" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H101" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>48487</v>
+        <v>48457</v>
       </c>
       <c r="B102" t="n">
-        <v>147249000</v>
+        <v>151820000</v>
       </c>
       <c r="C102" t="n">
-        <v>44174400</v>
+        <v>45545800</v>
       </c>
       <c r="D102" t="n">
-        <v>44174400</v>
+        <v>45545800</v>
       </c>
       <c r="E102" t="n">
-        <v>58900000</v>
+        <v>60728000</v>
       </c>
       <c r="F102" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G102" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H102" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>48518</v>
+        <v>48487</v>
       </c>
       <c r="B103" t="n">
-        <v>151335000</v>
+        <v>157513000</v>
       </c>
       <c r="C103" t="n">
-        <v>45400200</v>
+        <v>47253700</v>
       </c>
       <c r="D103" t="n">
-        <v>45400200</v>
+        <v>47253700</v>
       </c>
       <c r="E103" t="n">
-        <v>60534500</v>
+        <v>63005200</v>
       </c>
       <c r="F103" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G103" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H103" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>48548</v>
+        <v>48518</v>
       </c>
       <c r="B104" t="n">
-        <v>155535000</v>
+        <v>163419000</v>
       </c>
       <c r="C104" t="n">
-        <v>46660200</v>
+        <v>49025500</v>
       </c>
       <c r="D104" t="n">
-        <v>46660200</v>
+        <v>49025500</v>
       </c>
       <c r="E104" t="n">
-        <v>62214500</v>
+        <v>65367600</v>
       </c>
       <c r="F104" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H104" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>48579</v>
+        <v>48548</v>
       </c>
       <c r="B105" t="n">
-        <v>159852000</v>
+        <v>169547000</v>
       </c>
       <c r="C105" t="n">
-        <v>47955300</v>
+        <v>50863900</v>
       </c>
       <c r="D105" t="n">
-        <v>47955300</v>
+        <v>50863900</v>
       </c>
       <c r="E105" t="n">
-        <v>63941300</v>
+        <v>67818800</v>
       </c>
       <c r="F105" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G105" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H105" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>48610</v>
+        <v>48579</v>
       </c>
       <c r="B106" t="n">
-        <v>164288000</v>
+        <v>175904000</v>
       </c>
       <c r="C106" t="n">
-        <v>49286100</v>
+        <v>52771000</v>
       </c>
       <c r="D106" t="n">
-        <v>49286100</v>
+        <v>52771000</v>
       </c>
       <c r="E106" t="n">
-        <v>65715700</v>
+        <v>70361600</v>
       </c>
       <c r="F106" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G106" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H106" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>48638</v>
+        <v>48610</v>
       </c>
       <c r="B107" t="n">
-        <v>168848000</v>
+        <v>181790000</v>
       </c>
       <c r="C107" t="n">
-        <v>50654100</v>
+        <v>54536800</v>
       </c>
       <c r="D107" t="n">
-        <v>50654100</v>
+        <v>54536800</v>
       </c>
       <c r="E107" t="n">
-        <v>67539700</v>
+        <v>72716000</v>
       </c>
       <c r="F107" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G107" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H107" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>48669</v>
+        <v>48638</v>
       </c>
       <c r="B108" t="n">
-        <v>174512000</v>
+        <v>187872000</v>
       </c>
       <c r="C108" t="n">
-        <v>52353300</v>
+        <v>56361400</v>
       </c>
       <c r="D108" t="n">
-        <v>52353300</v>
+        <v>56361400</v>
       </c>
       <c r="E108" t="n">
-        <v>69805300</v>
+        <v>75148800</v>
       </c>
       <c r="F108" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G108" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H108" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>48699</v>
+        <v>48669</v>
       </c>
       <c r="B109" t="n">
-        <v>180366000</v>
+        <v>194158000</v>
       </c>
       <c r="C109" t="n">
-        <v>54109400</v>
+        <v>58247200</v>
       </c>
       <c r="D109" t="n">
-        <v>54109400</v>
+        <v>58247200</v>
       </c>
       <c r="E109" t="n">
-        <v>72146900</v>
+        <v>77663200</v>
       </c>
       <c r="F109" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G109" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H109" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>48730</v>
+        <v>48699</v>
       </c>
       <c r="B110" t="n">
-        <v>186416000</v>
+        <v>200654000</v>
       </c>
       <c r="C110" t="n">
-        <v>55924400</v>
+        <v>60196000</v>
       </c>
       <c r="D110" t="n">
-        <v>55924400</v>
+        <v>60196000</v>
       </c>
       <c r="E110" t="n">
-        <v>74567000</v>
+        <v>80261600</v>
       </c>
       <c r="F110" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G110" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H110" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>48760</v>
+        <v>48730</v>
       </c>
       <c r="B111" t="n">
-        <v>192670000</v>
+        <v>207368000</v>
       </c>
       <c r="C111" t="n">
-        <v>57800600</v>
+        <v>62210200</v>
       </c>
       <c r="D111" t="n">
-        <v>57800600</v>
+        <v>62210200</v>
       </c>
       <c r="E111" t="n">
-        <v>77068600</v>
+        <v>82947200</v>
       </c>
       <c r="F111" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G111" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H111" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>48791</v>
+        <v>48760</v>
       </c>
       <c r="B112" t="n">
-        <v>199132000</v>
+        <v>214307000</v>
       </c>
       <c r="C112" t="n">
-        <v>59739200</v>
+        <v>64291900</v>
       </c>
       <c r="D112" t="n">
-        <v>59739200</v>
+        <v>64291900</v>
       </c>
       <c r="E112" t="n">
-        <v>79653400</v>
+        <v>85722800</v>
       </c>
       <c r="F112" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G112" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H112" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>48822</v>
+        <v>48791</v>
       </c>
       <c r="B113" t="n">
-        <v>207454000</v>
+        <v>221478000</v>
       </c>
       <c r="C113" t="n">
-        <v>62235800</v>
+        <v>66443200</v>
       </c>
       <c r="D113" t="n">
-        <v>62235800</v>
+        <v>66443200</v>
       </c>
       <c r="E113" t="n">
-        <v>82982200</v>
+        <v>88591200</v>
       </c>
       <c r="F113" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G113" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H113" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>48852</v>
+        <v>48822</v>
       </c>
       <c r="B114" t="n">
-        <v>216124000</v>
+        <v>222410000</v>
       </c>
       <c r="C114" t="n">
-        <v>64836800</v>
+        <v>66722800</v>
       </c>
       <c r="D114" t="n">
-        <v>64836800</v>
+        <v>66722800</v>
       </c>
       <c r="E114" t="n">
-        <v>86450200</v>
+        <v>88964000</v>
       </c>
       <c r="F114" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G114" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H114" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>48883</v>
+        <v>48852</v>
       </c>
       <c r="B115" t="n">
-        <v>225156000</v>
+        <v>223346000</v>
       </c>
       <c r="C115" t="n">
-        <v>67546300</v>
+        <v>67003600</v>
       </c>
       <c r="D115" t="n">
-        <v>67546300</v>
+        <v>67003600</v>
       </c>
       <c r="E115" t="n">
-        <v>90063100</v>
+        <v>89338400</v>
       </c>
       <c r="F115" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G115" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H115" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>48913</v>
+        <v>48883</v>
       </c>
       <c r="B116" t="n">
-        <v>234566000</v>
+        <v>224286000</v>
       </c>
       <c r="C116" t="n">
-        <v>70369300</v>
+        <v>67285600</v>
       </c>
       <c r="D116" t="n">
-        <v>70369300</v>
+        <v>67285600</v>
       </c>
       <c r="E116" t="n">
-        <v>93827100</v>
+        <v>89714400</v>
       </c>
       <c r="F116" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G116" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H116" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>48944</v>
+        <v>48913</v>
       </c>
       <c r="B117" t="n">
-        <v>244369000</v>
+        <v>225230000</v>
       </c>
       <c r="C117" t="n">
-        <v>73310200</v>
+        <v>67568800</v>
       </c>
       <c r="D117" t="n">
-        <v>73310200</v>
+        <v>67568800</v>
       </c>
       <c r="E117" t="n">
-        <v>97748300</v>
+        <v>90092000</v>
       </c>
       <c r="F117" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G117" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H117" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>48975</v>
+        <v>48944</v>
       </c>
       <c r="B118" t="n">
-        <v>235091000</v>
+        <v>226178000</v>
       </c>
       <c r="C118" t="n">
-        <v>70526800</v>
+        <v>67853200</v>
       </c>
       <c r="D118" t="n">
-        <v>70526800</v>
+        <v>67853200</v>
       </c>
       <c r="E118" t="n">
-        <v>94037100</v>
+        <v>90471200</v>
       </c>
       <c r="F118" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G118" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H118" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>49003</v>
+        <v>48975</v>
       </c>
       <c r="B119" t="n">
-        <v>226164000</v>
+        <v>227130000</v>
       </c>
       <c r="C119" t="n">
-        <v>67848700</v>
+        <v>68138800</v>
       </c>
       <c r="D119" t="n">
-        <v>67848700</v>
+        <v>68138800</v>
       </c>
       <c r="E119" t="n">
-        <v>90466300</v>
+        <v>90852000</v>
       </c>
       <c r="F119" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G119" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H119" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>49034</v>
+        <v>49003</v>
       </c>
       <c r="B120" t="n">
-        <v>217577000</v>
+        <v>228086000</v>
       </c>
       <c r="C120" t="n">
-        <v>65272700</v>
+        <v>68425600</v>
       </c>
       <c r="D120" t="n">
-        <v>65272700</v>
+        <v>68425600</v>
       </c>
       <c r="E120" t="n">
-        <v>87031500</v>
+        <v>91234400</v>
       </c>
       <c r="F120" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G120" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H120" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>49064</v>
+        <v>49034</v>
       </c>
       <c r="B121" t="n">
-        <v>209316000</v>
+        <v>229046000</v>
       </c>
       <c r="C121" t="n">
-        <v>62794400</v>
+        <v>68713600</v>
       </c>
       <c r="D121" t="n">
-        <v>62794400</v>
+        <v>68713600</v>
       </c>
       <c r="E121" t="n">
-        <v>83727000</v>
+        <v>91618400</v>
       </c>
       <c r="F121" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G121" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H121" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>49095</v>
+        <v>49064</v>
       </c>
       <c r="B122" t="n">
-        <v>201368000</v>
+        <v>230010000</v>
       </c>
       <c r="C122" t="n">
-        <v>60410000</v>
+        <v>69002800</v>
       </c>
       <c r="D122" t="n">
-        <v>60410000</v>
+        <v>69002800</v>
       </c>
       <c r="E122" t="n">
-        <v>80547800</v>
+        <v>92004000</v>
       </c>
       <c r="F122" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G122" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H122" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>49125</v>
+        <v>49095</v>
       </c>
       <c r="B123" t="n">
-        <v>193722000</v>
+        <v>224726000</v>
       </c>
       <c r="C123" t="n">
-        <v>58116200</v>
+        <v>67417600</v>
       </c>
       <c r="D123" t="n">
-        <v>58116200</v>
+        <v>67417600</v>
       </c>
       <c r="E123" t="n">
-        <v>77489400</v>
+        <v>89890400</v>
       </c>
       <c r="F123" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G123" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H123" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>49156</v>
+        <v>49125</v>
       </c>
       <c r="B124" t="n">
-        <v>186367000</v>
+        <v>219564000</v>
       </c>
       <c r="C124" t="n">
-        <v>55909700</v>
+        <v>65869000</v>
       </c>
       <c r="D124" t="n">
-        <v>55909700</v>
+        <v>65869000</v>
       </c>
       <c r="E124" t="n">
-        <v>74547400</v>
+        <v>87825600</v>
       </c>
       <c r="F124" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G124" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H124" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>49187</v>
+        <v>49156</v>
       </c>
       <c r="B125" t="n">
-        <v>180430000</v>
+        <v>214521000</v>
       </c>
       <c r="C125" t="n">
-        <v>54128600</v>
+        <v>64356100</v>
       </c>
       <c r="D125" t="n">
-        <v>54128600</v>
+        <v>64356100</v>
       </c>
       <c r="E125" t="n">
-        <v>72172500</v>
+        <v>85808400</v>
       </c>
       <c r="F125" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G125" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H125" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>49217</v>
+        <v>49187</v>
       </c>
       <c r="B126" t="n">
-        <v>174683000</v>
+        <v>209594000</v>
       </c>
       <c r="C126" t="n">
-        <v>52404600</v>
+        <v>62878000</v>
       </c>
       <c r="D126" t="n">
-        <v>52404600</v>
+        <v>62878000</v>
       </c>
       <c r="E126" t="n">
-        <v>69873700</v>
+        <v>83837600</v>
       </c>
       <c r="F126" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G126" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H126" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>49248</v>
+        <v>49217</v>
       </c>
       <c r="B127" t="n">
-        <v>169119000</v>
+        <v>204780000</v>
       </c>
       <c r="C127" t="n">
-        <v>50735400</v>
+        <v>61433800</v>
       </c>
       <c r="D127" t="n">
-        <v>50735400</v>
+        <v>61433800</v>
       </c>
       <c r="E127" t="n">
-        <v>67648100</v>
+        <v>81912000</v>
       </c>
       <c r="F127" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G127" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H127" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>49278</v>
+        <v>49248</v>
       </c>
       <c r="B128" t="n">
-        <v>163732000</v>
+        <v>200076000</v>
       </c>
       <c r="C128" t="n">
-        <v>49119300</v>
+        <v>60022600</v>
       </c>
       <c r="D128" t="n">
-        <v>49119300</v>
+        <v>60022600</v>
       </c>
       <c r="E128" t="n">
-        <v>65493300</v>
+        <v>80030400</v>
       </c>
       <c r="F128" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G128" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H128" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>49309</v>
+        <v>49278</v>
       </c>
       <c r="B129" t="n">
-        <v>158517000</v>
+        <v>195480000</v>
       </c>
       <c r="C129" t="n">
-        <v>47554800</v>
+        <v>58643800</v>
       </c>
       <c r="D129" t="n">
-        <v>47554800</v>
+        <v>58643800</v>
       </c>
       <c r="E129" t="n">
-        <v>63407300</v>
+        <v>78192000</v>
       </c>
       <c r="F129" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G129" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H129" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>49340</v>
+        <v>49309</v>
       </c>
       <c r="B130" t="n">
-        <v>153468000</v>
+        <v>190989000</v>
       </c>
       <c r="C130" t="n">
-        <v>46040100</v>
+        <v>57296500</v>
       </c>
       <c r="D130" t="n">
-        <v>46040100</v>
+        <v>57296500</v>
       </c>
       <c r="E130" t="n">
-        <v>61387700</v>
+        <v>76395600</v>
       </c>
       <c r="F130" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G130" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H130" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>49368</v>
+        <v>49340</v>
       </c>
       <c r="B131" t="n">
-        <v>148580000</v>
+        <v>186602000</v>
       </c>
       <c r="C131" t="n">
-        <v>44573700</v>
+        <v>55980400</v>
       </c>
       <c r="D131" t="n">
-        <v>44573700</v>
+        <v>55980400</v>
       </c>
       <c r="E131" t="n">
-        <v>59432400</v>
+        <v>74640800</v>
       </c>
       <c r="F131" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G131" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H131" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>49399</v>
+        <v>49368</v>
       </c>
       <c r="B132" t="n">
-        <v>146520000</v>
+        <v>182316000</v>
       </c>
       <c r="C132" t="n">
-        <v>43955700</v>
+        <v>54694600</v>
       </c>
       <c r="D132" t="n">
-        <v>43955700</v>
+        <v>54694600</v>
       </c>
       <c r="E132" t="n">
-        <v>58608400</v>
+        <v>72926400</v>
       </c>
       <c r="F132" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G132" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H132" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>49429</v>
+        <v>49399</v>
       </c>
       <c r="B133" t="n">
-        <v>144489000</v>
+        <v>186127000</v>
       </c>
       <c r="C133" t="n">
-        <v>43346400</v>
+        <v>55837900</v>
       </c>
       <c r="D133" t="n">
-        <v>43346400</v>
+        <v>55837900</v>
       </c>
       <c r="E133" t="n">
-        <v>57796000</v>
+        <v>74450800</v>
       </c>
       <c r="F133" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G133" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H133" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>49460</v>
+        <v>49429</v>
       </c>
       <c r="B134" t="n">
-        <v>142486000</v>
+        <v>190018000</v>
       </c>
       <c r="C134" t="n">
-        <v>42745500</v>
+        <v>57005200</v>
       </c>
       <c r="D134" t="n">
-        <v>42745500</v>
+        <v>57005200</v>
       </c>
       <c r="E134" t="n">
-        <v>56994800</v>
+        <v>76007200</v>
       </c>
       <c r="F134" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G134" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H134" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>49490</v>
+        <v>49460</v>
       </c>
       <c r="B135" t="n">
-        <v>140510000</v>
+        <v>193989000</v>
       </c>
       <c r="C135" t="n">
-        <v>42152700</v>
+        <v>58196500</v>
       </c>
       <c r="D135" t="n">
-        <v>42152700</v>
+        <v>58196500</v>
       </c>
       <c r="E135" t="n">
-        <v>56204400</v>
+        <v>77595600</v>
       </c>
       <c r="F135" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G135" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H135" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>49521</v>
+        <v>49490</v>
       </c>
       <c r="B136" t="n">
-        <v>138562000</v>
+        <v>198043000</v>
       </c>
       <c r="C136" t="n">
-        <v>41568300</v>
+        <v>59412700</v>
       </c>
       <c r="D136" t="n">
-        <v>41568300</v>
+        <v>59412700</v>
       </c>
       <c r="E136" t="n">
-        <v>55425200</v>
+        <v>79217200</v>
       </c>
       <c r="F136" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G136" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H136" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>49552</v>
+        <v>49521</v>
       </c>
       <c r="B137" t="n">
-        <v>136641000</v>
+        <v>202182000</v>
       </c>
       <c r="C137" t="n">
-        <v>40992000</v>
+        <v>60654400</v>
       </c>
       <c r="D137" t="n">
-        <v>40992000</v>
+        <v>60654400</v>
       </c>
       <c r="E137" t="n">
-        <v>54656800</v>
+        <v>80872800</v>
       </c>
       <c r="F137" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G137" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H137" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>49582</v>
+        <v>49552</v>
       </c>
       <c r="B138" t="n">
-        <v>134747000</v>
+        <v>206408000</v>
       </c>
       <c r="C138" t="n">
-        <v>40423800</v>
+        <v>61922200</v>
       </c>
       <c r="D138" t="n">
-        <v>40423800</v>
+        <v>61922200</v>
       </c>
       <c r="E138" t="n">
-        <v>53899200</v>
+        <v>82563200</v>
       </c>
       <c r="F138" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G138" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H138" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>49613</v>
+        <v>49582</v>
       </c>
       <c r="B139" t="n">
-        <v>132879000</v>
+        <v>210722000</v>
       </c>
       <c r="C139" t="n">
-        <v>39863400</v>
+        <v>63216400</v>
       </c>
       <c r="D139" t="n">
-        <v>39863400</v>
+        <v>63216400</v>
       </c>
       <c r="E139" t="n">
-        <v>53152000</v>
+        <v>84288800</v>
       </c>
       <c r="F139" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G139" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H139" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>49643</v>
+        <v>49613</v>
       </c>
       <c r="B140" t="n">
-        <v>134148000</v>
+        <v>215126000</v>
       </c>
       <c r="C140" t="n">
-        <v>40244100</v>
+        <v>64537600</v>
       </c>
       <c r="D140" t="n">
-        <v>40244100</v>
+        <v>64537600</v>
       </c>
       <c r="E140" t="n">
-        <v>53659600</v>
+        <v>86050400</v>
       </c>
       <c r="F140" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G140" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H140" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>49674</v>
+        <v>49643</v>
       </c>
       <c r="B141" t="n">
-        <v>135429000</v>
+        <v>219623000</v>
       </c>
       <c r="C141" t="n">
-        <v>40628400</v>
+        <v>65886700</v>
       </c>
       <c r="D141" t="n">
-        <v>40628400</v>
+        <v>65886700</v>
       </c>
       <c r="E141" t="n">
-        <v>54172000</v>
+        <v>87849200</v>
       </c>
       <c r="F141" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G141" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H141" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>49705</v>
+        <v>49674</v>
       </c>
       <c r="B142" t="n">
-        <v>136722000</v>
+        <v>224214000</v>
       </c>
       <c r="C142" t="n">
-        <v>41016300</v>
+        <v>67264000</v>
       </c>
       <c r="D142" t="n">
-        <v>41016300</v>
+        <v>67264000</v>
       </c>
       <c r="E142" t="n">
-        <v>54689200</v>
+        <v>89685600</v>
       </c>
       <c r="F142" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G142" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H142" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>49734</v>
+        <v>49705</v>
       </c>
       <c r="B143" t="n">
-        <v>138028000</v>
+        <v>228901000</v>
       </c>
       <c r="C143" t="n">
-        <v>41408100</v>
+        <v>68670100</v>
       </c>
       <c r="D143" t="n">
-        <v>41408100</v>
+        <v>68670100</v>
       </c>
       <c r="E143" t="n">
-        <v>55211600</v>
+        <v>91560400</v>
       </c>
       <c r="F143" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G143" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H143" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>49765</v>
+        <v>49734</v>
       </c>
       <c r="B144" t="n">
-        <v>139346000</v>
+        <v>233685000</v>
       </c>
       <c r="C144" t="n">
-        <v>41803500</v>
+        <v>70105300</v>
       </c>
       <c r="D144" t="n">
-        <v>41803500</v>
+        <v>70105300</v>
       </c>
       <c r="E144" t="n">
-        <v>55738800</v>
+        <v>93474000</v>
       </c>
       <c r="F144" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G144" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H144" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>49795</v>
+        <v>49765</v>
       </c>
       <c r="B145" t="n">
-        <v>140676000</v>
+        <v>233852000</v>
       </c>
       <c r="C145" t="n">
-        <v>42202500</v>
+        <v>70155400</v>
       </c>
       <c r="D145" t="n">
-        <v>42202500</v>
+        <v>70155400</v>
       </c>
       <c r="E145" t="n">
-        <v>56270800</v>
+        <v>93540800</v>
       </c>
       <c r="F145" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G145" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H145" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>49826</v>
+        <v>49795</v>
       </c>
       <c r="B146" t="n">
-        <v>142019000</v>
+        <v>234018000</v>
       </c>
       <c r="C146" t="n">
-        <v>42605400</v>
+        <v>70205200</v>
       </c>
       <c r="D146" t="n">
-        <v>42605400</v>
+        <v>70205200</v>
       </c>
       <c r="E146" t="n">
-        <v>56808000</v>
+        <v>93607200</v>
       </c>
       <c r="F146" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G146" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H146" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>49856</v>
+        <v>49826</v>
       </c>
       <c r="B147" t="n">
-        <v>143375000</v>
+        <v>234184000</v>
       </c>
       <c r="C147" t="n">
-        <v>43012200</v>
+        <v>70255000</v>
       </c>
       <c r="D147" t="n">
-        <v>43012200</v>
+        <v>70255000</v>
       </c>
       <c r="E147" t="n">
-        <v>57350400</v>
+        <v>93673600</v>
       </c>
       <c r="F147" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G147" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H147" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>49887</v>
+        <v>49856</v>
       </c>
       <c r="B148" t="n">
-        <v>150197000</v>
+        <v>234351000</v>
       </c>
       <c r="C148" t="n">
-        <v>45058800</v>
+        <v>70305100</v>
       </c>
       <c r="D148" t="n">
-        <v>45058800</v>
+        <v>70305100</v>
       </c>
       <c r="E148" t="n">
-        <v>60079300</v>
+        <v>93740400</v>
       </c>
       <c r="F148" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G148" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H148" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>49918</v>
+        <v>49887</v>
       </c>
       <c r="B149" t="n">
-        <v>157344000</v>
+        <v>234518000</v>
       </c>
       <c r="C149" t="n">
-        <v>47202900</v>
+        <v>70355200</v>
       </c>
       <c r="D149" t="n">
-        <v>47202900</v>
+        <v>70355200</v>
       </c>
       <c r="E149" t="n">
-        <v>62938100</v>
+        <v>93807200</v>
       </c>
       <c r="F149" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G149" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H149" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>49948</v>
+        <v>49918</v>
       </c>
       <c r="B150" t="n">
-        <v>164830000</v>
+        <v>234685000</v>
       </c>
       <c r="C150" t="n">
-        <v>49448700</v>
+        <v>70405300</v>
       </c>
       <c r="D150" t="n">
-        <v>49448700</v>
+        <v>70405300</v>
       </c>
       <c r="E150" t="n">
-        <v>65932500</v>
+        <v>93874000</v>
       </c>
       <c r="F150" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G150" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H150" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>49979</v>
+        <v>49948</v>
       </c>
       <c r="B151" t="n">
-        <v>172673000</v>
+        <v>234852000</v>
       </c>
       <c r="C151" t="n">
-        <v>51801600</v>
+        <v>70455400</v>
       </c>
       <c r="D151" t="n">
-        <v>51801600</v>
+        <v>70455400</v>
       </c>
       <c r="E151" t="n">
-        <v>69069700</v>
+        <v>93940800</v>
       </c>
       <c r="F151" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G151" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H151" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>50009</v>
+        <v>49979</v>
       </c>
       <c r="B152" t="n">
-        <v>180890000</v>
+        <v>235019000</v>
       </c>
       <c r="C152" t="n">
-        <v>54266600</v>
+        <v>70505500</v>
       </c>
       <c r="D152" t="n">
-        <v>54266600</v>
+        <v>70505500</v>
       </c>
       <c r="E152" t="n">
-        <v>72356500</v>
+        <v>94007600</v>
       </c>
       <c r="F152" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G152" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H152" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>50040</v>
+        <v>50009</v>
       </c>
       <c r="B153" t="n">
-        <v>189497000</v>
+        <v>235186000</v>
       </c>
       <c r="C153" t="n">
-        <v>56848700</v>
+        <v>70555600</v>
       </c>
       <c r="D153" t="n">
-        <v>56848700</v>
+        <v>70555600</v>
       </c>
       <c r="E153" t="n">
-        <v>75799400</v>
+        <v>94074400</v>
       </c>
       <c r="F153" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G153" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H153" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>50071</v>
+        <v>50040</v>
       </c>
       <c r="B154" t="n">
-        <v>198514000</v>
+        <v>235354000</v>
       </c>
       <c r="C154" t="n">
-        <v>59553800</v>
+        <v>70606000</v>
       </c>
       <c r="D154" t="n">
-        <v>59553800</v>
+        <v>70606000</v>
       </c>
       <c r="E154" t="n">
-        <v>79406200</v>
+        <v>94141600</v>
       </c>
       <c r="F154" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G154" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H154" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>50099</v>
+        <v>50071</v>
       </c>
       <c r="B155" t="n">
-        <v>207959000</v>
+        <v>235522000</v>
       </c>
       <c r="C155" t="n">
-        <v>62387300</v>
+        <v>70656400</v>
       </c>
       <c r="D155" t="n">
-        <v>62387300</v>
+        <v>70656400</v>
       </c>
       <c r="E155" t="n">
-        <v>83184200</v>
+        <v>94208800</v>
       </c>
       <c r="F155" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G155" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H155" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>50130</v>
+        <v>50099</v>
       </c>
       <c r="B156" t="n">
-        <v>219165000</v>
+        <v>235690000</v>
       </c>
       <c r="C156" t="n">
-        <v>65749100</v>
+        <v>70706800</v>
       </c>
       <c r="D156" t="n">
-        <v>65749100</v>
+        <v>70706800</v>
       </c>
       <c r="E156" t="n">
-        <v>87666700</v>
+        <v>94276000</v>
       </c>
       <c r="F156" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G156" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H156" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>50160</v>
+        <v>50130</v>
       </c>
       <c r="B157" t="n">
-        <v>230976000</v>
+        <v>235857000</v>
       </c>
       <c r="C157" t="n">
-        <v>69292300</v>
+        <v>70756900</v>
       </c>
       <c r="D157" t="n">
-        <v>69292300</v>
+        <v>70756900</v>
       </c>
       <c r="E157" t="n">
-        <v>92391100</v>
+        <v>94342800</v>
       </c>
       <c r="F157" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G157" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H157" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>50191</v>
+        <v>50160</v>
       </c>
       <c r="B158" t="n">
-        <v>243423000</v>
+        <v>236025000</v>
       </c>
       <c r="C158" t="n">
-        <v>73026400</v>
+        <v>70807300</v>
       </c>
       <c r="D158" t="n">
-        <v>73026400</v>
+        <v>70807300</v>
       </c>
       <c r="E158" t="n">
-        <v>97369900</v>
+        <v>94410000</v>
       </c>
       <c r="F158" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G158" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H158" t="n">
-        <v>40.0003</v>
+        <v>40</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>50221</v>
+        <v>50191</v>
       </c>
       <c r="B159" t="n">
-        <v>256541000</v>
+        <v>236193000</v>
       </c>
       <c r="C159" t="n">
-        <v>76961800</v>
+        <v>70857700</v>
       </c>
       <c r="D159" t="n">
-        <v>76961800</v>
+        <v>70857700</v>
       </c>
       <c r="E159" t="n">
-        <v>102617000</v>
+        <v>94477200</v>
       </c>
       <c r="F159" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G159" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H159" t="n">
-        <v>40.0002</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>50252</v>
+        <v>50221</v>
       </c>
       <c r="B160" t="n">
-        <v>270365000</v>
+        <v>234482000</v>
       </c>
       <c r="C160" t="n">
-        <v>81109000</v>
+        <v>70344400</v>
       </c>
       <c r="D160" t="n">
-        <v>81109000</v>
+        <v>70344400</v>
       </c>
       <c r="E160" t="n">
-        <v>108147000</v>
+        <v>93792800</v>
       </c>
       <c r="F160" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G160" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H160" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>50283</v>
+        <v>50252</v>
       </c>
       <c r="B161" t="n">
-        <v>284934000</v>
+        <v>232783000</v>
       </c>
       <c r="C161" t="n">
-        <v>85479600</v>
+        <v>69834700</v>
       </c>
       <c r="D161" t="n">
-        <v>85479600</v>
+        <v>69834700</v>
       </c>
       <c r="E161" t="n">
-        <v>113975000</v>
+        <v>93113200</v>
       </c>
       <c r="F161" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G161" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H161" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>50313</v>
+        <v>50283</v>
       </c>
       <c r="B162" t="n">
-        <v>300289000</v>
+        <v>231097000</v>
       </c>
       <c r="C162" t="n">
-        <v>90086100</v>
+        <v>69328900</v>
       </c>
       <c r="D162" t="n">
-        <v>90086100</v>
+        <v>69328900</v>
       </c>
       <c r="E162" t="n">
-        <v>120117000</v>
+        <v>92438800</v>
       </c>
       <c r="F162" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G162" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H162" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>50344</v>
+        <v>50313</v>
       </c>
       <c r="B163" t="n">
-        <v>316471000</v>
+        <v>229423000</v>
       </c>
       <c r="C163" t="n">
-        <v>94940700</v>
+        <v>68826700</v>
       </c>
       <c r="D163" t="n">
-        <v>94940700</v>
+        <v>68826700</v>
       </c>
       <c r="E163" t="n">
-        <v>126590000</v>
+        <v>91769200</v>
       </c>
       <c r="F163" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G163" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H163" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>50374</v>
+        <v>50344</v>
       </c>
       <c r="B164" t="n">
-        <v>323262000</v>
+        <v>227761000</v>
       </c>
       <c r="C164" t="n">
-        <v>96978000</v>
+        <v>68328100</v>
       </c>
       <c r="D164" t="n">
-        <v>96978000</v>
+        <v>68328100</v>
       </c>
       <c r="E164" t="n">
-        <v>129306000</v>
+        <v>91104400</v>
       </c>
       <c r="F164" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G164" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H164" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>50405</v>
+        <v>50374</v>
       </c>
       <c r="B165" t="n">
-        <v>330198000</v>
+        <v>226110000</v>
       </c>
       <c r="C165" t="n">
-        <v>99058700</v>
+        <v>67832800</v>
       </c>
       <c r="D165" t="n">
-        <v>99058700</v>
+        <v>67832800</v>
       </c>
       <c r="E165" t="n">
-        <v>132081000</v>
+        <v>90444000</v>
       </c>
       <c r="F165" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G165" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H165" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>50436</v>
+        <v>50405</v>
       </c>
       <c r="B166" t="n">
-        <v>337283000</v>
+        <v>224472000</v>
       </c>
       <c r="C166" t="n">
-        <v>101184000</v>
+        <v>67341400</v>
       </c>
       <c r="D166" t="n">
-        <v>101184000</v>
+        <v>67341400</v>
       </c>
       <c r="E166" t="n">
-        <v>134915000</v>
+        <v>89788800</v>
       </c>
       <c r="F166" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G166" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H166" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>50464</v>
+        <v>50436</v>
       </c>
       <c r="B167" t="n">
-        <v>344520000</v>
+        <v>222846000</v>
       </c>
       <c r="C167" t="n">
-        <v>103355000</v>
+        <v>66853600</v>
       </c>
       <c r="D167" t="n">
-        <v>103355000</v>
+        <v>66853600</v>
       </c>
       <c r="E167" t="n">
-        <v>137810000</v>
+        <v>89138400</v>
       </c>
       <c r="F167" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G167" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H167" t="n">
-        <v>40.0006</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>50495</v>
+        <v>50464</v>
       </c>
       <c r="B168" t="n">
-        <v>351913000</v>
+        <v>221231000</v>
       </c>
       <c r="C168" t="n">
-        <v>105573000</v>
+        <v>66369100</v>
       </c>
       <c r="D168" t="n">
-        <v>105573000</v>
+        <v>66369100</v>
       </c>
       <c r="E168" t="n">
-        <v>140767000</v>
+        <v>88492400</v>
       </c>
       <c r="F168" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G168" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H168" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>50525</v>
+        <v>50495</v>
       </c>
       <c r="B169" t="n">
-        <v>359464000</v>
+        <v>219629000</v>
       </c>
       <c r="C169" t="n">
-        <v>107838000</v>
+        <v>65888500</v>
       </c>
       <c r="D169" t="n">
-        <v>107838000</v>
+        <v>65888500</v>
       </c>
       <c r="E169" t="n">
-        <v>143787000</v>
+        <v>87851600</v>
       </c>
       <c r="F169" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G169" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H169" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>50556</v>
+        <v>50525</v>
       </c>
       <c r="B170" t="n">
-        <v>367176000</v>
+        <v>218038000</v>
       </c>
       <c r="C170" t="n">
-        <v>110152000</v>
+        <v>65411200</v>
       </c>
       <c r="D170" t="n">
-        <v>110152000</v>
+        <v>65411200</v>
       </c>
       <c r="E170" t="n">
-        <v>146872000</v>
+        <v>87215200</v>
       </c>
       <c r="F170" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G170" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H170" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>50586</v>
+        <v>50556</v>
       </c>
       <c r="B171" t="n">
-        <v>375055000</v>
+        <v>216458000</v>
       </c>
       <c r="C171" t="n">
-        <v>112516000</v>
+        <v>64937200</v>
       </c>
       <c r="D171" t="n">
-        <v>112516000</v>
+        <v>64937200</v>
       </c>
       <c r="E171" t="n">
-        <v>150024000</v>
+        <v>86583200</v>
       </c>
       <c r="F171" t="n">
         <v>29.9999</v>
@@ -4898,102 +4898,102 @@
         <v>29.9999</v>
       </c>
       <c r="H171" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>50617</v>
+        <v>50586</v>
       </c>
       <c r="B172" t="n">
-        <v>383103000</v>
+        <v>214890000</v>
       </c>
       <c r="C172" t="n">
-        <v>114931000</v>
+        <v>64466800</v>
       </c>
       <c r="D172" t="n">
-        <v>114931000</v>
+        <v>64466800</v>
       </c>
       <c r="E172" t="n">
-        <v>153243000</v>
+        <v>85956000</v>
       </c>
       <c r="F172" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G172" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H172" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>50648</v>
+        <v>50617</v>
       </c>
       <c r="B173" t="n">
-        <v>391326000</v>
+        <v>213334000</v>
       </c>
       <c r="C173" t="n">
-        <v>117398000</v>
+        <v>64000000</v>
       </c>
       <c r="D173" t="n">
-        <v>117398000</v>
+        <v>64000000</v>
       </c>
       <c r="E173" t="n">
-        <v>156532000</v>
+        <v>85333600</v>
       </c>
       <c r="F173" t="n">
-        <v>30.0001</v>
+        <v>29.9999</v>
       </c>
       <c r="G173" t="n">
-        <v>30.0001</v>
+        <v>29.9999</v>
       </c>
       <c r="H173" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>50678</v>
+        <v>50648</v>
       </c>
       <c r="B174" t="n">
-        <v>390563000</v>
+        <v>211788000</v>
       </c>
       <c r="C174" t="n">
-        <v>117169000</v>
+        <v>63536200</v>
       </c>
       <c r="D174" t="n">
-        <v>117169000</v>
+        <v>63536200</v>
       </c>
       <c r="E174" t="n">
-        <v>156227000</v>
+        <v>84715200</v>
       </c>
       <c r="F174" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="G174" t="n">
-        <v>30</v>
+        <v>29.9999</v>
       </c>
       <c r="H174" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>50709</v>
+        <v>50678</v>
       </c>
       <c r="B175" t="n">
-        <v>389801000</v>
+        <v>210253000</v>
       </c>
       <c r="C175" t="n">
-        <v>116940000</v>
+        <v>63075700</v>
       </c>
       <c r="D175" t="n">
-        <v>116940000</v>
+        <v>63075700</v>
       </c>
       <c r="E175" t="n">
-        <v>155922000</v>
+        <v>84101200</v>
       </c>
       <c r="F175" t="n">
         <v>29.9999</v>
@@ -5002,1697 +5002,1723 @@
         <v>29.9999</v>
       </c>
       <c r="H175" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>50739</v>
+        <v>50709</v>
       </c>
       <c r="B176" t="n">
-        <v>389039000</v>
+        <v>212958000</v>
       </c>
       <c r="C176" t="n">
-        <v>116711000</v>
+        <v>63887200</v>
       </c>
       <c r="D176" t="n">
-        <v>116711000</v>
+        <v>63887200</v>
       </c>
       <c r="E176" t="n">
-        <v>155617000</v>
+        <v>85183200</v>
       </c>
       <c r="F176" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G176" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H176" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>50770</v>
+        <v>50739</v>
       </c>
       <c r="B177" t="n">
-        <v>388279000</v>
+        <v>215698000</v>
       </c>
       <c r="C177" t="n">
-        <v>116483000</v>
+        <v>64709200</v>
       </c>
       <c r="D177" t="n">
-        <v>116483000</v>
+        <v>64709200</v>
       </c>
       <c r="E177" t="n">
-        <v>155313000</v>
+        <v>86279200</v>
       </c>
       <c r="F177" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G177" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H177" t="n">
-        <v>40.0004</v>
+        <v>40</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>50801</v>
+        <v>50770</v>
       </c>
       <c r="B178" t="n">
-        <v>387520000</v>
+        <v>218473000</v>
       </c>
       <c r="C178" t="n">
-        <v>116255000</v>
+        <v>65541700</v>
       </c>
       <c r="D178" t="n">
-        <v>116255000</v>
+        <v>65541700</v>
       </c>
       <c r="E178" t="n">
-        <v>155010000</v>
+        <v>87389200</v>
       </c>
       <c r="F178" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G178" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H178" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>50829</v>
+        <v>50801</v>
       </c>
       <c r="B179" t="n">
-        <v>386762000</v>
+        <v>221284000</v>
       </c>
       <c r="C179" t="n">
-        <v>116027000</v>
+        <v>66385000</v>
       </c>
       <c r="D179" t="n">
-        <v>116027000</v>
+        <v>66385000</v>
       </c>
       <c r="E179" t="n">
-        <v>154707000</v>
+        <v>88513600</v>
       </c>
       <c r="F179" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G179" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H179" t="n">
-        <v>40.0006</v>
+        <v>40</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>50860</v>
+        <v>50829</v>
       </c>
       <c r="B180" t="n">
-        <v>386005000</v>
+        <v>224131000</v>
       </c>
       <c r="C180" t="n">
-        <v>115800000</v>
+        <v>67239100</v>
       </c>
       <c r="D180" t="n">
-        <v>115800000</v>
+        <v>67239100</v>
       </c>
       <c r="E180" t="n">
-        <v>154404000</v>
+        <v>89652400</v>
       </c>
       <c r="F180" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G180" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H180" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>50890</v>
+        <v>50860</v>
       </c>
       <c r="B181" t="n">
-        <v>385250000</v>
+        <v>227015000</v>
       </c>
       <c r="C181" t="n">
-        <v>115573000</v>
+        <v>68104300</v>
       </c>
       <c r="D181" t="n">
-        <v>115573000</v>
+        <v>68104300</v>
       </c>
       <c r="E181" t="n">
-        <v>154102000</v>
+        <v>90806000</v>
       </c>
       <c r="F181" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G181" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H181" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>50921</v>
+        <v>50890</v>
       </c>
       <c r="B182" t="n">
-        <v>384495000</v>
+        <v>229936000</v>
       </c>
       <c r="C182" t="n">
-        <v>115347000</v>
+        <v>68980600</v>
       </c>
       <c r="D182" t="n">
-        <v>115347000</v>
+        <v>68980600</v>
       </c>
       <c r="E182" t="n">
-        <v>153800000</v>
+        <v>91974400</v>
       </c>
       <c r="F182" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G182" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H182" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>50951</v>
+        <v>50921</v>
       </c>
       <c r="B183" t="n">
-        <v>383742000</v>
+        <v>232895000</v>
       </c>
       <c r="C183" t="n">
-        <v>115121000</v>
+        <v>69868300</v>
       </c>
       <c r="D183" t="n">
-        <v>115121000</v>
+        <v>69868300</v>
       </c>
       <c r="E183" t="n">
-        <v>153499000</v>
+        <v>93158000</v>
       </c>
       <c r="F183" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G183" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H183" t="n">
-        <v>40.0006</v>
+        <v>40</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>50982</v>
+        <v>50951</v>
       </c>
       <c r="B184" t="n">
-        <v>382990000</v>
+        <v>235891000</v>
       </c>
       <c r="C184" t="n">
-        <v>114895000</v>
+        <v>70767100</v>
       </c>
       <c r="D184" t="n">
-        <v>114895000</v>
+        <v>70767100</v>
       </c>
       <c r="E184" t="n">
-        <v>153198000</v>
+        <v>94356400</v>
       </c>
       <c r="F184" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G184" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H184" t="n">
-        <v>40.0005</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>51013</v>
+        <v>50982</v>
       </c>
       <c r="B185" t="n">
-        <v>382239000</v>
+        <v>238926000</v>
       </c>
       <c r="C185" t="n">
-        <v>114670000</v>
+        <v>71677600</v>
       </c>
       <c r="D185" t="n">
-        <v>114670000</v>
+        <v>71677600</v>
       </c>
       <c r="E185" t="n">
-        <v>152898000</v>
+        <v>95570400</v>
       </c>
       <c r="F185" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G185" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H185" t="n">
-        <v>40.0006</v>
+        <v>40</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>51043</v>
+        <v>51013</v>
       </c>
       <c r="B186" t="n">
-        <v>381491000</v>
+        <v>242000000</v>
       </c>
       <c r="C186" t="n">
-        <v>114446000</v>
+        <v>72599800</v>
       </c>
       <c r="D186" t="n">
-        <v>114446000</v>
+        <v>72599800</v>
       </c>
       <c r="E186" t="n">
-        <v>152599000</v>
+        <v>96800000</v>
       </c>
       <c r="F186" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G186" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H186" t="n">
-        <v>40.0007</v>
+        <v>40</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>51074</v>
+        <v>51043</v>
       </c>
       <c r="B187" t="n">
-        <v>380745000</v>
+        <v>245114000</v>
       </c>
       <c r="C187" t="n">
-        <v>114222000</v>
+        <v>73534000</v>
       </c>
       <c r="D187" t="n">
-        <v>114222000</v>
+        <v>73534000</v>
       </c>
       <c r="E187" t="n">
-        <v>152301000</v>
+        <v>98045600</v>
       </c>
       <c r="F187" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G187" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H187" t="n">
-        <v>40.0008</v>
+        <v>40</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>51104</v>
+        <v>51074</v>
       </c>
       <c r="B188" t="n">
-        <v>386710000</v>
+        <v>248268000</v>
       </c>
       <c r="C188" t="n">
-        <v>116011000</v>
+        <v>74480200</v>
       </c>
       <c r="D188" t="n">
-        <v>116011000</v>
+        <v>74480200</v>
       </c>
       <c r="E188" t="n">
-        <v>154687000</v>
+        <v>99307200</v>
       </c>
       <c r="F188" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G188" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H188" t="n">
-        <v>40.0008</v>
+        <v>40</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>51135</v>
+        <v>51104</v>
       </c>
       <c r="B189" t="n">
-        <v>392767000</v>
+        <v>251463000</v>
       </c>
       <c r="C189" t="n">
-        <v>117828000</v>
+        <v>75438600</v>
       </c>
       <c r="D189" t="n">
-        <v>117828000</v>
+        <v>75438600</v>
       </c>
       <c r="E189" t="n">
-        <v>157110000</v>
+        <v>100585000</v>
       </c>
       <c r="F189" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G189" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H189" t="n">
-        <v>40.0008</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>51166</v>
+        <v>51135</v>
       </c>
       <c r="B190" t="n">
-        <v>398919000</v>
+        <v>254698000</v>
       </c>
       <c r="C190" t="n">
-        <v>119674000</v>
+        <v>76409100</v>
       </c>
       <c r="D190" t="n">
-        <v>119674000</v>
+        <v>76409100</v>
       </c>
       <c r="E190" t="n">
-        <v>159571000</v>
+        <v>101879000</v>
       </c>
       <c r="F190" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G190" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H190" t="n">
-        <v>40.0009</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>51195</v>
+        <v>51166</v>
       </c>
       <c r="B191" t="n">
-        <v>405169000</v>
+        <v>257975000</v>
       </c>
       <c r="C191" t="n">
-        <v>121549000</v>
+        <v>77392200</v>
       </c>
       <c r="D191" t="n">
-        <v>121549000</v>
+        <v>77392200</v>
       </c>
       <c r="E191" t="n">
-        <v>162071000</v>
+        <v>103190000</v>
       </c>
       <c r="F191" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G191" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H191" t="n">
-        <v>40.0008</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>51226</v>
+        <v>51195</v>
       </c>
       <c r="B192" t="n">
-        <v>411516000</v>
+        <v>261294000</v>
       </c>
       <c r="C192" t="n">
-        <v>123453000</v>
+        <v>78387900</v>
       </c>
       <c r="D192" t="n">
-        <v>123453000</v>
+        <v>78387900</v>
       </c>
       <c r="E192" t="n">
-        <v>164610000</v>
+        <v>104518000</v>
       </c>
       <c r="F192" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G192" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H192" t="n">
-        <v>40.0009</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>51256</v>
+        <v>51226</v>
       </c>
       <c r="B193" t="n">
-        <v>417963000</v>
+        <v>264656000</v>
       </c>
       <c r="C193" t="n">
-        <v>125387000</v>
+        <v>79396500</v>
       </c>
       <c r="D193" t="n">
-        <v>125387000</v>
+        <v>79396500</v>
       </c>
       <c r="E193" t="n">
-        <v>167189000</v>
+        <v>105863000</v>
       </c>
       <c r="F193" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G193" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H193" t="n">
-        <v>40.0009</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>51287</v>
+        <v>51256</v>
       </c>
       <c r="B194" t="n">
-        <v>424511000</v>
+        <v>268062000</v>
       </c>
       <c r="C194" t="n">
-        <v>127351000</v>
+        <v>80418300</v>
       </c>
       <c r="D194" t="n">
-        <v>127351000</v>
+        <v>80418300</v>
       </c>
       <c r="E194" t="n">
-        <v>169808000</v>
+        <v>107225000</v>
       </c>
       <c r="F194" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G194" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H194" t="n">
-        <v>40.0008</v>
+        <v>40.0001</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>51317</v>
+        <v>51287</v>
       </c>
       <c r="B195" t="n">
-        <v>431161000</v>
+        <v>267181000</v>
       </c>
       <c r="C195" t="n">
-        <v>129346000</v>
+        <v>80154000</v>
       </c>
       <c r="D195" t="n">
-        <v>129346000</v>
+        <v>80154000</v>
       </c>
       <c r="E195" t="n">
-        <v>172468000</v>
+        <v>106873000</v>
       </c>
       <c r="F195" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G195" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H195" t="n">
-        <v>40.0008</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>51348</v>
+        <v>51317</v>
       </c>
       <c r="B196" t="n">
-        <v>437914000</v>
+        <v>266304000</v>
       </c>
       <c r="C196" t="n">
-        <v>131372000</v>
+        <v>79890900</v>
       </c>
       <c r="D196" t="n">
-        <v>131372000</v>
+        <v>79890900</v>
       </c>
       <c r="E196" t="n">
-        <v>175169000</v>
+        <v>106522000</v>
       </c>
       <c r="F196" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G196" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H196" t="n">
-        <v>40.0008</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>51379</v>
+        <v>51348</v>
       </c>
       <c r="B197" t="n">
-        <v>444773000</v>
+        <v>265429000</v>
       </c>
       <c r="C197" t="n">
-        <v>133430000</v>
+        <v>79628400</v>
       </c>
       <c r="D197" t="n">
-        <v>133430000</v>
+        <v>79628400</v>
       </c>
       <c r="E197" t="n">
-        <v>177913000</v>
+        <v>106172000</v>
       </c>
       <c r="F197" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G197" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H197" t="n">
-        <v>40.0009</v>
+        <v>40.0002</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>51409</v>
+        <v>51379</v>
       </c>
       <c r="B198" t="n">
-        <v>451741000</v>
+        <v>264557000</v>
       </c>
       <c r="C198" t="n">
-        <v>135520000</v>
+        <v>79366800</v>
       </c>
       <c r="D198" t="n">
-        <v>135520000</v>
+        <v>79366800</v>
       </c>
       <c r="E198" t="n">
-        <v>180700000</v>
+        <v>105823000</v>
       </c>
       <c r="F198" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G198" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H198" t="n">
-        <v>40.0008</v>
+        <v>40.0001</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>51440</v>
+        <v>51409</v>
       </c>
       <c r="B199" t="n">
-        <v>458817000</v>
+        <v>263688000</v>
       </c>
       <c r="C199" t="n">
-        <v>137643000</v>
+        <v>79106100</v>
       </c>
       <c r="D199" t="n">
-        <v>137643000</v>
+        <v>79106100</v>
       </c>
       <c r="E199" t="n">
-        <v>183530000</v>
+        <v>105475000</v>
       </c>
       <c r="F199" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G199" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H199" t="n">
-        <v>40.0007</v>
+        <v>39.9999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>51470</v>
+        <v>51440</v>
       </c>
       <c r="B200" t="n">
-        <v>466004000</v>
+        <v>262821000</v>
       </c>
       <c r="C200" t="n">
-        <v>139799000</v>
+        <v>78846000</v>
       </c>
       <c r="D200" t="n">
-        <v>139799000</v>
+        <v>78846000</v>
       </c>
       <c r="E200" t="n">
-        <v>186405000</v>
+        <v>105128000</v>
       </c>
       <c r="F200" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G200" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H200" t="n">
-        <v>40.0007</v>
+        <v>39.9998</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>51501</v>
+        <v>51470</v>
       </c>
       <c r="B201" t="n">
-        <v>473304000</v>
+        <v>261957000</v>
       </c>
       <c r="C201" t="n">
-        <v>141989000</v>
+        <v>78586800</v>
       </c>
       <c r="D201" t="n">
-        <v>141989000</v>
+        <v>78586800</v>
       </c>
       <c r="E201" t="n">
-        <v>189325000</v>
+        <v>104782000</v>
       </c>
       <c r="F201" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G201" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H201" t="n">
-        <v>40.0007</v>
+        <v>39.9997</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>51532</v>
+        <v>51501</v>
       </c>
       <c r="B202" t="n">
-        <v>480718000</v>
+        <v>261095000</v>
       </c>
       <c r="C202" t="n">
-        <v>144213000</v>
+        <v>78328200</v>
       </c>
       <c r="D202" t="n">
-        <v>144213000</v>
+        <v>78328200</v>
       </c>
       <c r="E202" t="n">
-        <v>192291000</v>
+        <v>104437000</v>
       </c>
       <c r="F202" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G202" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H202" t="n">
-        <v>40.0008</v>
+        <v>39.9996</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>51560</v>
+        <v>51532</v>
       </c>
       <c r="B203" t="n">
-        <v>494062000</v>
+        <v>260236000</v>
       </c>
       <c r="C203" t="n">
-        <v>148216000</v>
+        <v>78070500</v>
       </c>
       <c r="D203" t="n">
-        <v>148216000</v>
+        <v>78070500</v>
       </c>
       <c r="E203" t="n">
-        <v>197629000</v>
+        <v>104093000</v>
       </c>
       <c r="F203" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G203" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H203" t="n">
-        <v>40.0009</v>
+        <v>39.9995</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>51591</v>
+        <v>51560</v>
       </c>
       <c r="B204" t="n">
-        <v>507777000</v>
+        <v>259379000</v>
       </c>
       <c r="C204" t="n">
-        <v>152331000</v>
+        <v>77813400</v>
       </c>
       <c r="D204" t="n">
-        <v>152331000</v>
+        <v>77813400</v>
       </c>
       <c r="E204" t="n">
-        <v>203115000</v>
+        <v>103750000</v>
       </c>
       <c r="F204" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G204" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H204" t="n">
-        <v>40.0008</v>
+        <v>39.9994</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>51621</v>
+        <v>51591</v>
       </c>
       <c r="B205" t="n">
-        <v>521873000</v>
+        <v>258525000</v>
       </c>
       <c r="C205" t="n">
-        <v>156560000</v>
+        <v>77557200</v>
       </c>
       <c r="D205" t="n">
-        <v>156560000</v>
+        <v>77557200</v>
       </c>
       <c r="E205" t="n">
-        <v>208753000</v>
+        <v>103408000</v>
       </c>
       <c r="F205" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G205" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H205" t="n">
-        <v>40.0007</v>
+        <v>39.9992</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>51652</v>
+        <v>51621</v>
       </c>
       <c r="B206" t="n">
-        <v>536360000</v>
+        <v>257673000</v>
       </c>
       <c r="C206" t="n">
-        <v>160906000</v>
+        <v>77301600</v>
       </c>
       <c r="D206" t="n">
-        <v>160906000</v>
+        <v>77301600</v>
       </c>
       <c r="E206" t="n">
-        <v>214548000</v>
+        <v>103067000</v>
       </c>
       <c r="F206" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G206" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H206" t="n">
-        <v>40.0007</v>
+        <v>39.9991</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>51682</v>
+        <v>51652</v>
       </c>
       <c r="B207" t="n">
-        <v>551250000</v>
+        <v>256824000</v>
       </c>
       <c r="C207" t="n">
-        <v>165373000</v>
+        <v>77046900</v>
       </c>
       <c r="D207" t="n">
-        <v>165373000</v>
+        <v>77046900</v>
       </c>
       <c r="E207" t="n">
-        <v>220504000</v>
+        <v>102727000</v>
       </c>
       <c r="F207" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G207" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H207" t="n">
-        <v>40.0007</v>
+        <v>39.999</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>51713</v>
+        <v>51682</v>
       </c>
       <c r="B208" t="n">
-        <v>566553000</v>
+        <v>255977000</v>
       </c>
       <c r="C208" t="n">
-        <v>169964000</v>
+        <v>76792800</v>
       </c>
       <c r="D208" t="n">
-        <v>169964000</v>
+        <v>76792800</v>
       </c>
       <c r="E208" t="n">
-        <v>226625000</v>
+        <v>102388000</v>
       </c>
       <c r="F208" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G208" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H208" t="n">
-        <v>40.0007</v>
+        <v>39.9989</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>51744</v>
+        <v>51713</v>
       </c>
       <c r="B209" t="n">
-        <v>582282000</v>
+        <v>255133000</v>
       </c>
       <c r="C209" t="n">
-        <v>174683000</v>
+        <v>76539600</v>
       </c>
       <c r="D209" t="n">
-        <v>174683000</v>
+        <v>76539600</v>
       </c>
       <c r="E209" t="n">
-        <v>232917000</v>
+        <v>102050000</v>
       </c>
       <c r="F209" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G209" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H209" t="n">
-        <v>40.0007</v>
+        <v>39.9987</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>51774</v>
+        <v>51744</v>
       </c>
       <c r="B210" t="n">
-        <v>598448000</v>
+        <v>254291000</v>
       </c>
       <c r="C210" t="n">
-        <v>179533000</v>
+        <v>76287000</v>
       </c>
       <c r="D210" t="n">
-        <v>179533000</v>
+        <v>76287000</v>
       </c>
       <c r="E210" t="n">
-        <v>239383000</v>
+        <v>101713000</v>
       </c>
       <c r="F210" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="G210" t="n">
-        <v>29.9998</v>
+        <v>29.9999</v>
       </c>
       <c r="H210" t="n">
-        <v>40.0006</v>
+        <v>39.9987</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>51805</v>
+        <v>51774</v>
       </c>
       <c r="B211" t="n">
-        <v>615062000</v>
+        <v>253451000</v>
       </c>
       <c r="C211" t="n">
-        <v>184517000</v>
+        <v>76035000</v>
       </c>
       <c r="D211" t="n">
-        <v>184517000</v>
+        <v>76035000</v>
       </c>
       <c r="E211" t="n">
-        <v>246028000</v>
+        <v>101377000</v>
       </c>
       <c r="F211" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G211" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H211" t="n">
-        <v>40.0005</v>
+        <v>39.9987</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>51835</v>
+        <v>51805</v>
       </c>
       <c r="B212" t="n">
-        <v>632137000</v>
+        <v>252614000</v>
       </c>
       <c r="C212" t="n">
-        <v>189639000</v>
+        <v>75783900</v>
       </c>
       <c r="D212" t="n">
-        <v>189639000</v>
+        <v>75783900</v>
       </c>
       <c r="E212" t="n">
-        <v>252858000</v>
+        <v>101042000</v>
       </c>
       <c r="F212" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G212" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H212" t="n">
-        <v>40.0005</v>
+        <v>39.9986</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>51866</v>
+        <v>51835</v>
       </c>
       <c r="B213" t="n">
-        <v>649684000</v>
+        <v>251780000</v>
       </c>
       <c r="C213" t="n">
-        <v>194903000</v>
+        <v>75533700</v>
       </c>
       <c r="D213" t="n">
-        <v>194903000</v>
+        <v>75533700</v>
       </c>
       <c r="E213" t="n">
-        <v>259877000</v>
+        <v>100708000</v>
       </c>
       <c r="F213" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G213" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H213" t="n">
-        <v>40.0005</v>
+        <v>39.9984</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>51897</v>
+        <v>51866</v>
       </c>
       <c r="B214" t="n">
-        <v>667719000</v>
+        <v>250948000</v>
       </c>
       <c r="C214" t="n">
-        <v>200314000</v>
+        <v>75284100</v>
       </c>
       <c r="D214" t="n">
-        <v>200314000</v>
+        <v>75284100</v>
       </c>
       <c r="E214" t="n">
-        <v>267091000</v>
+        <v>100375000</v>
       </c>
       <c r="F214" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="G214" t="n">
-        <v>29.9997</v>
+        <v>29.9999</v>
       </c>
       <c r="H214" t="n">
-        <v>40.0005</v>
+        <v>39.9983</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>51925</v>
+        <v>51897</v>
       </c>
       <c r="B215" t="n">
-        <v>686255000</v>
+        <v>250118000</v>
       </c>
       <c r="C215" t="n">
-        <v>205874000</v>
+        <v>75035100</v>
       </c>
       <c r="D215" t="n">
-        <v>205874000</v>
+        <v>75035100</v>
       </c>
       <c r="E215" t="n">
-        <v>274505000</v>
+        <v>100043000</v>
       </c>
       <c r="F215" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="G215" t="n">
-        <v>29.9996</v>
+        <v>29.9999</v>
       </c>
       <c r="H215" t="n">
-        <v>40.0004</v>
+        <v>39.9983</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>51956</v>
+        <v>51925</v>
       </c>
       <c r="B216" t="n">
-        <v>705304000</v>
+        <v>254331000</v>
       </c>
       <c r="C216" t="n">
-        <v>211588000</v>
+        <v>76299000</v>
       </c>
       <c r="D216" t="n">
-        <v>211588000</v>
+        <v>76299000</v>
       </c>
       <c r="E216" t="n">
-        <v>282124000</v>
+        <v>101728000</v>
       </c>
       <c r="F216" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G216" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H216" t="n">
-        <v>40.0003</v>
+        <v>39.9983</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>51986</v>
+        <v>51956</v>
       </c>
       <c r="B217" t="n">
-        <v>724879000</v>
+        <v>258616000</v>
       </c>
       <c r="C217" t="n">
-        <v>217460000</v>
+        <v>77584500</v>
       </c>
       <c r="D217" t="n">
-        <v>217460000</v>
+        <v>77584500</v>
       </c>
       <c r="E217" t="n">
-        <v>289954000</v>
+        <v>103442000</v>
       </c>
       <c r="F217" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G217" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H217" t="n">
-        <v>40.0003</v>
+        <v>39.9983</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>52017</v>
+        <v>51986</v>
       </c>
       <c r="B218" t="n">
-        <v>719259000</v>
+        <v>262973000</v>
       </c>
       <c r="C218" t="n">
-        <v>215774000</v>
+        <v>78891600</v>
       </c>
       <c r="D218" t="n">
-        <v>215774000</v>
+        <v>78891600</v>
       </c>
       <c r="E218" t="n">
-        <v>287706000</v>
+        <v>105185000</v>
       </c>
       <c r="F218" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G218" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H218" t="n">
-        <v>40.0003</v>
+        <v>39.9984</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>52047</v>
+        <v>52017</v>
       </c>
       <c r="B219" t="n">
-        <v>713683000</v>
+        <v>267403000</v>
       </c>
       <c r="C219" t="n">
-        <v>214101000</v>
+        <v>80220600</v>
       </c>
       <c r="D219" t="n">
-        <v>214101000</v>
+        <v>80220600</v>
       </c>
       <c r="E219" t="n">
-        <v>285475000</v>
+        <v>106957000</v>
       </c>
       <c r="F219" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G219" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H219" t="n">
-        <v>40.0003</v>
+        <v>39.9984</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>52078</v>
+        <v>52047</v>
       </c>
       <c r="B220" t="n">
-        <v>708149000</v>
+        <v>271909000</v>
       </c>
       <c r="C220" t="n">
-        <v>212441000</v>
+        <v>81572400</v>
       </c>
       <c r="D220" t="n">
-        <v>212441000</v>
+        <v>81572400</v>
       </c>
       <c r="E220" t="n">
-        <v>283262000</v>
+        <v>108759000</v>
       </c>
       <c r="F220" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G220" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H220" t="n">
-        <v>40.0003</v>
+        <v>39.9983</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>52109</v>
+        <v>52078</v>
       </c>
       <c r="B221" t="n">
-        <v>702658000</v>
+        <v>276490000</v>
       </c>
       <c r="C221" t="n">
-        <v>210794000</v>
+        <v>82946700</v>
       </c>
       <c r="D221" t="n">
-        <v>210794000</v>
+        <v>82946700</v>
       </c>
       <c r="E221" t="n">
-        <v>281065000</v>
+        <v>110591000</v>
       </c>
       <c r="F221" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G221" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H221" t="n">
-        <v>40.0003</v>
+        <v>39.9982</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>52139</v>
+        <v>52109</v>
       </c>
       <c r="B222" t="n">
-        <v>697211000</v>
+        <v>281148000</v>
       </c>
       <c r="C222" t="n">
-        <v>209160000</v>
+        <v>84344100</v>
       </c>
       <c r="D222" t="n">
-        <v>209160000</v>
+        <v>84344100</v>
       </c>
       <c r="E222" t="n">
-        <v>278886000</v>
+        <v>112454000</v>
       </c>
       <c r="F222" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G222" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H222" t="n">
-        <v>40.0002</v>
+        <v>39.9982</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>52170</v>
+        <v>52139</v>
       </c>
       <c r="B223" t="n">
-        <v>691806000</v>
+        <v>285884000</v>
       </c>
       <c r="C223" t="n">
-        <v>207538000</v>
+        <v>85764900</v>
       </c>
       <c r="D223" t="n">
-        <v>207538000</v>
+        <v>85764900</v>
       </c>
       <c r="E223" t="n">
-        <v>276724000</v>
+        <v>114348000</v>
       </c>
       <c r="F223" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G223" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H223" t="n">
-        <v>40.0002</v>
+        <v>39.998</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>52200</v>
+        <v>52170</v>
       </c>
       <c r="B224" t="n">
-        <v>686441000</v>
+        <v>290700000</v>
       </c>
       <c r="C224" t="n">
-        <v>205929000</v>
+        <v>87209700</v>
       </c>
       <c r="D224" t="n">
-        <v>205929000</v>
+        <v>87209700</v>
       </c>
       <c r="E224" t="n">
-        <v>274578000</v>
+        <v>116274000</v>
       </c>
       <c r="F224" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G224" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H224" t="n">
-        <v>40.0002</v>
+        <v>39.99789999999999</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>52231</v>
+        <v>52200</v>
       </c>
       <c r="B225" t="n">
-        <v>681119000</v>
+        <v>295597000</v>
       </c>
       <c r="C225" t="n">
-        <v>204332000</v>
+        <v>88678800</v>
       </c>
       <c r="D225" t="n">
-        <v>204332000</v>
+        <v>88678800</v>
       </c>
       <c r="E225" t="n">
-        <v>272449000</v>
+        <v>118233000</v>
       </c>
       <c r="F225" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G225" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H225" t="n">
-        <v>40.0002</v>
+        <v>39.998</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>52262</v>
+        <v>52231</v>
       </c>
       <c r="B226" t="n">
-        <v>675837000</v>
+        <v>300576000</v>
       </c>
       <c r="C226" t="n">
-        <v>202748000</v>
+        <v>90172500</v>
       </c>
       <c r="D226" t="n">
-        <v>202748000</v>
+        <v>90172500</v>
       </c>
       <c r="E226" t="n">
-        <v>270336000</v>
+        <v>120224000</v>
       </c>
       <c r="F226" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G226" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H226" t="n">
-        <v>40.0002</v>
+        <v>39.99789999999999</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>52290</v>
+        <v>52262</v>
       </c>
       <c r="B227" t="n">
-        <v>670597000</v>
+        <v>305639000</v>
       </c>
       <c r="C227" t="n">
-        <v>201176000</v>
+        <v>91691400</v>
       </c>
       <c r="D227" t="n">
-        <v>201176000</v>
+        <v>91691400</v>
       </c>
       <c r="E227" t="n">
-        <v>268240000</v>
+        <v>122249000</v>
       </c>
       <c r="F227" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G227" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H227" t="n">
-        <v>40.0002</v>
+        <v>39.9978</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>52321</v>
+        <v>52290</v>
       </c>
       <c r="B228" t="n">
-        <v>665398000</v>
+        <v>310787000</v>
       </c>
       <c r="C228" t="n">
-        <v>199616000</v>
+        <v>93235800</v>
       </c>
       <c r="D228" t="n">
-        <v>199616000</v>
+        <v>93235800</v>
       </c>
       <c r="E228" t="n">
-        <v>266161000</v>
+        <v>124308000</v>
       </c>
       <c r="F228" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="G228" t="n">
-        <v>29.9995</v>
+        <v>29.9999</v>
       </c>
       <c r="H228" t="n">
-        <v>40.0003</v>
+        <v>39.9978</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>52351</v>
+        <v>52321</v>
       </c>
       <c r="B229" t="n">
-        <v>660239000</v>
+        <v>316021000</v>
       </c>
       <c r="C229" t="n">
-        <v>198068000</v>
+        <v>94806000</v>
       </c>
       <c r="D229" t="n">
-        <v>198068000</v>
+        <v>94806000</v>
       </c>
       <c r="E229" t="n">
-        <v>264098000</v>
+        <v>126401000</v>
       </c>
       <c r="F229" t="n">
-        <v>29.9994</v>
+        <v>29.9999</v>
       </c>
       <c r="G229" t="n">
-        <v>29.9994</v>
+        <v>29.9999</v>
       </c>
       <c r="H229" t="n">
-        <v>40.0004</v>
+        <v>39.9977</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>52382</v>
+        <v>52351</v>
       </c>
       <c r="B230" t="n">
-        <v>655120000</v>
+        <v>321343000</v>
       </c>
       <c r="C230" t="n">
-        <v>196532000</v>
+        <v>96402600</v>
       </c>
       <c r="D230" t="n">
-        <v>196532000</v>
+        <v>96402600</v>
       </c>
       <c r="E230" t="n">
-        <v>262051000</v>
+        <v>128530000</v>
       </c>
       <c r="F230" t="n">
-        <v>29.9994</v>
+        <v>29.9999</v>
       </c>
       <c r="G230" t="n">
-        <v>29.9994</v>
+        <v>29.9999</v>
       </c>
       <c r="H230" t="n">
-        <v>40.0005</v>
+        <v>39.9978</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>52412</v>
+        <v>52382</v>
       </c>
       <c r="B231" t="n">
-        <v>650041000</v>
+        <v>326755000</v>
       </c>
       <c r="C231" t="n">
-        <v>195008000</v>
+        <v>98026200</v>
       </c>
       <c r="D231" t="n">
-        <v>195008000</v>
+        <v>98026200</v>
       </c>
       <c r="E231" t="n">
-        <v>260020000</v>
+        <v>130695000</v>
       </c>
       <c r="F231" t="n">
-        <v>29.9993</v>
+        <v>29.9999</v>
       </c>
       <c r="G231" t="n">
-        <v>29.9993</v>
+        <v>29.9999</v>
       </c>
       <c r="H231" t="n">
-        <v>40.0006</v>
+        <v>39.99789999999999</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>52443</v>
+        <v>52412</v>
       </c>
       <c r="B232" t="n">
-        <v>645001000</v>
+        <v>332259000</v>
       </c>
       <c r="C232" t="n">
-        <v>193496000</v>
+        <v>99677400</v>
       </c>
       <c r="D232" t="n">
-        <v>193496000</v>
+        <v>99677400</v>
       </c>
       <c r="E232" t="n">
-        <v>258004000</v>
+        <v>132897000</v>
       </c>
       <c r="F232" t="n">
-        <v>29.9993</v>
+        <v>29.9999</v>
       </c>
       <c r="G232" t="n">
-        <v>29.9993</v>
+        <v>29.9999</v>
       </c>
       <c r="H232" t="n">
-        <v>40.0006</v>
+        <v>39.998</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>52474</v>
+        <v>52443</v>
       </c>
       <c r="B233" t="n">
-        <v>640000000</v>
+        <v>337856000</v>
       </c>
       <c r="C233" t="n">
-        <v>191996000</v>
+        <v>101356000</v>
       </c>
       <c r="D233" t="n">
-        <v>191996000</v>
+        <v>101356000</v>
       </c>
       <c r="E233" t="n">
-        <v>256004000</v>
+        <v>135136000</v>
       </c>
       <c r="F233" t="n">
-        <v>29.9994</v>
+        <v>29.9998</v>
       </c>
       <c r="G233" t="n">
-        <v>29.9994</v>
+        <v>29.9998</v>
       </c>
       <c r="H233" t="n">
-        <v>40.0006</v>
+        <v>39.9981</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>52504</v>
+        <v>52474</v>
       </c>
       <c r="B234" t="n">
-        <v>635038000</v>
+        <v>343547000</v>
       </c>
       <c r="C234" t="n">
-        <v>190508000</v>
+        <v>103063000</v>
       </c>
       <c r="D234" t="n">
-        <v>190508000</v>
+        <v>103063000</v>
       </c>
       <c r="E234" t="n">
-        <v>254019000</v>
+        <v>137412000</v>
       </c>
       <c r="F234" t="n">
-        <v>29.9995</v>
+        <v>29.9997</v>
       </c>
       <c r="G234" t="n">
-        <v>29.9995</v>
+        <v>29.9997</v>
       </c>
       <c r="H234" t="n">
-        <v>40.0006</v>
+        <v>39.998</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>52535</v>
+        <v>52504</v>
       </c>
       <c r="B235" t="n">
-        <v>630116000</v>
+        <v>349333000</v>
       </c>
       <c r="C235" t="n">
-        <v>189032000</v>
+        <v>104799000</v>
       </c>
       <c r="D235" t="n">
-        <v>189032000</v>
+        <v>104799000</v>
       </c>
       <c r="E235" t="n">
-        <v>252050000</v>
+        <v>139726000</v>
       </c>
       <c r="F235" t="n">
-        <v>29.9996</v>
+        <v>29.9997</v>
       </c>
       <c r="G235" t="n">
-        <v>29.9996</v>
+        <v>29.9997</v>
       </c>
       <c r="H235" t="n">
-        <v>40.0006</v>
+        <v>39.99789999999999</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>52565</v>
+        <v>52535</v>
       </c>
       <c r="B236" t="n">
-        <v>625234000</v>
+        <v>355216000</v>
       </c>
       <c r="C236" t="n">
-        <v>187568000</v>
+        <v>106564000</v>
       </c>
       <c r="D236" t="n">
-        <v>187568000</v>
+        <v>106564000</v>
       </c>
       <c r="E236" t="n">
-        <v>250097000</v>
+        <v>142079000</v>
       </c>
       <c r="F236" t="n">
-        <v>29.9996</v>
+        <v>29.9998</v>
       </c>
       <c r="G236" t="n">
-        <v>29.9996</v>
+        <v>29.9998</v>
       </c>
       <c r="H236" t="n">
-        <v>40.0005</v>
+        <v>39.99789999999999</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>52596</v>
+        <v>52565</v>
       </c>
       <c r="B237" t="n">
-        <v>620390000</v>
+        <v>361199000</v>
       </c>
       <c r="C237" t="n">
-        <v>186115000</v>
+        <v>108359000</v>
       </c>
       <c r="D237" t="n">
-        <v>186115000</v>
+        <v>108359000</v>
       </c>
       <c r="E237" t="n">
-        <v>248159000</v>
+        <v>144472000</v>
       </c>
       <c r="F237" t="n">
-        <v>29.9997</v>
+        <v>29.9998</v>
       </c>
       <c r="G237" t="n">
-        <v>29.9997</v>
+        <v>29.9998</v>
       </c>
       <c r="H237" t="n">
-        <v>40.0005</v>
+        <v>39.99789999999999</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>52627</v>
+        <v>52596</v>
       </c>
       <c r="B238" t="n">
-        <v>615584000</v>
+        <v>367282000</v>
       </c>
       <c r="C238" t="n">
-        <v>184673000</v>
+        <v>110184000</v>
       </c>
       <c r="D238" t="n">
-        <v>184673000</v>
+        <v>110184000</v>
       </c>
       <c r="E238" t="n">
-        <v>246237000</v>
+        <v>146905000</v>
       </c>
       <c r="F238" t="n">
-        <v>29.9996</v>
+        <v>29.9998</v>
       </c>
       <c r="G238" t="n">
-        <v>29.9996</v>
+        <v>29.9998</v>
       </c>
       <c r="H238" t="n">
-        <v>40.0006</v>
+        <v>39.99789999999999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>52656</v>
+        <v>52627</v>
       </c>
       <c r="B239" t="n">
-        <v>610814000</v>
+        <v>373467000</v>
       </c>
       <c r="C239" t="n">
-        <v>183242000</v>
+        <v>112039000</v>
       </c>
       <c r="D239" t="n">
-        <v>183242000</v>
+        <v>112039000</v>
       </c>
       <c r="E239" t="n">
-        <v>244329000</v>
+        <v>149379000</v>
       </c>
       <c r="F239" t="n">
-        <v>29.9996</v>
+        <v>29.9997</v>
       </c>
       <c r="G239" t="n">
-        <v>29.9996</v>
+        <v>29.9997</v>
       </c>
       <c r="H239" t="n">
-        <v>40.0006</v>
+        <v>39.99789999999999</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
+        <v>52656</v>
+      </c>
+      <c r="B240" t="n">
+        <v>379756000</v>
+      </c>
+      <c r="C240" t="n">
+        <v>113926000</v>
+      </c>
+      <c r="D240" t="n">
+        <v>113926000</v>
+      </c>
+      <c r="E240" t="n">
+        <v>151894000</v>
+      </c>
+      <c r="F240" t="n">
+        <v>29.9998</v>
+      </c>
+      <c r="G240" t="n">
+        <v>29.9998</v>
+      </c>
+      <c r="H240" t="n">
+        <v>39.9978</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>52687</v>
       </c>
-      <c r="B240" t="n">
-        <v>606082000</v>
-      </c>
-      <c r="C240" t="n">
-        <v>181822000</v>
-      </c>
-      <c r="D240" t="n">
-        <v>181822000</v>
-      </c>
-      <c r="E240" t="n">
-        <v>242436000</v>
-      </c>
-      <c r="F240" t="n">
-        <v>29.9996</v>
-      </c>
-      <c r="G240" t="n">
-        <v>29.9996</v>
-      </c>
-      <c r="H240" t="n">
-        <v>40.0005</v>
+      <c r="B241" t="n">
+        <v>386151000</v>
+      </c>
+      <c r="C241" t="n">
+        <v>115845000</v>
+      </c>
+      <c r="D241" t="n">
+        <v>115845000</v>
+      </c>
+      <c r="E241" t="n">
+        <v>154452000</v>
+      </c>
+      <c r="F241" t="n">
+        <v>29.9999</v>
+      </c>
+      <c r="G241" t="n">
+        <v>29.9999</v>
+      </c>
+      <c r="H241" t="n">
+        <v>39.9978</v>
       </c>
     </row>
   </sheetData>
